--- a/20_営業/07_会計/BR100/ERP_会計_セットアップ定義書_標準参照タイプ.xlsx
+++ b/20_営業/07_会計/BR100/ERP_会計_セットアップ定義書_標準参照タイプ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_19946【会計】Universal Content Managementのリトライ\20_成果物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Acomsv01\障害対応\E_本稼動_20201～20300\E_本稼動_20247_【会計】基幹システムバージョンアップ（会計領域　AP部門入力）\20_成果物\05.BR100\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="924"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12396" tabRatio="924" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
     <definedName name="関連表" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="関連表">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <customWorkbookViews>
     <customWorkbookView name="R0008277 - 個人用ビュー" guid="{2BF0ECC2-2E9B-49D0-841E-7AECE826C35D}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="936" tabRatio="924" activeSheetId="5"/>
     <customWorkbookView name="R0008710 - 個人用ビュー" guid="{6B86448E-35F7-4037-AE73-0F71B2959B36}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1186" tabRatio="924" activeSheetId="5"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
   <si>
     <t>■ 変更履歴</t>
     <rPh sb="2" eb="6">
@@ -474,18 +474,106 @@
     <t>設定および保守 &gt; タスク &gt; 検索</t>
     <phoneticPr fontId="31"/>
   </si>
+  <si>
+    <t>SCSK
+細沼</t>
+    <rPh sb="5" eb="7">
+      <t>ホソヌマ</t>
+    </rPh>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>Lookup_01参照タイプ
+Lookup_02参照コード</t>
+  </si>
+  <si>
+    <t>E_本稼動_20247 STEP4 AP部門入力対応
+AP_SKIP_SOA_APPROVAL　追加</t>
+    <rPh sb="48" eb="50">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>AP_SKIP_SOA_APPROVAL</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>Setting Invoices as Auto Approved</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>Setting Invoices as Auto Approved</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>買掛管理</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>認証済</t>
+    <rPh sb="0" eb="3">
+      <t>ニンショウズ</t>
+    </rPh>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>AP_SKIP_SOA_APPROVAL</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>AP_SKIP_SOA_APPROVAL</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>XX03_ENTRY</t>
+  </si>
+  <si>
+    <t>EMP_EXPENSE_REPORT</t>
+  </si>
+  <si>
+    <t>ERS</t>
+  </si>
+  <si>
+    <t>SelfService</t>
+  </si>
+  <si>
+    <t>EBS-ERS</t>
+  </si>
+  <si>
+    <t>SALES_DEDUCTION</t>
+  </si>
+  <si>
+    <t>MFG_ACCOUNT</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="22"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="22"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.00;[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="179" formatCode="&quot;SFr.&quot;#,##0;[Red]&quot;SFr.&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="88">
+  <fonts count="89">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1113,8 +1201,15 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="47">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1369,6 +1464,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2056,7 +2157,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2277,6 +2378,34 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="88" fillId="0" borderId="10" xfId="30" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="10" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="10" xfId="30" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="88" fillId="0" borderId="10" xfId="30" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="10" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="47" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="10" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="47" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="11" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="10" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="47" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2300,6 +2429,12 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2320,6 +2455,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="10" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2486,6 +2624,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FFD8D8D8"/>
     </mruColors>
@@ -3934,7 +4073,7 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -4354,26 +4493,26 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="92" t="s">
+      <c r="G15" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="94"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="105"/>
+      <c r="X15" s="106"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
@@ -4385,24 +4524,24 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="97"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="108"/>
+      <c r="S16" s="108"/>
+      <c r="T16" s="108"/>
+      <c r="U16" s="108"/>
+      <c r="V16" s="108"/>
+      <c r="W16" s="108"/>
+      <c r="X16" s="109"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
@@ -4414,24 +4553,24 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="96"/>
-      <c r="X17" s="97"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="108"/>
+      <c r="U17" s="108"/>
+      <c r="V17" s="108"/>
+      <c r="W17" s="108"/>
+      <c r="X17" s="109"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
@@ -4443,24 +4582,24 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="96"/>
-      <c r="X18" s="97"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="108"/>
+      <c r="S18" s="108"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="108"/>
+      <c r="V18" s="108"/>
+      <c r="W18" s="108"/>
+      <c r="X18" s="109"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
@@ -4472,24 +4611,24 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="97"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="108"/>
+      <c r="S19" s="108"/>
+      <c r="T19" s="108"/>
+      <c r="U19" s="108"/>
+      <c r="V19" s="108"/>
+      <c r="W19" s="108"/>
+      <c r="X19" s="109"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
@@ -4501,24 +4640,24 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="97"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="108"/>
+      <c r="V20" s="108"/>
+      <c r="W20" s="108"/>
+      <c r="X20" s="109"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
@@ -4530,24 +4669,24 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="99"/>
-      <c r="T21" s="99"/>
-      <c r="U21" s="99"/>
-      <c r="V21" s="99"/>
-      <c r="W21" s="99"/>
-      <c r="X21" s="100"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="112"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
@@ -4617,24 +4756,24 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="108"/>
+      <c r="R24" s="108"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="108"/>
+      <c r="U24" s="108"/>
+      <c r="V24" s="108"/>
+      <c r="W24" s="108"/>
+      <c r="X24" s="108"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
@@ -4646,24 +4785,24 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="108"/>
+      <c r="R25" s="108"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="108"/>
+      <c r="U25" s="108"/>
+      <c r="V25" s="108"/>
+      <c r="W25" s="108"/>
+      <c r="X25" s="108"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
@@ -33001,17 +33140,19 @@
   </sheetPr>
   <dimension ref="A5:G32"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="28" customWidth="1"/>
+    <col min="1" max="1" width="4.8984375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" style="28" customWidth="1"/>
     <col min="3" max="3" width="9" style="28" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="28" customWidth="1"/>
     <col min="6" max="6" width="57" style="28" customWidth="1"/>
-    <col min="7" max="7" width="25.875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="25.8984375" style="17" customWidth="1"/>
     <col min="8" max="16384" width="8" style="17"/>
   </cols>
   <sheetData>
@@ -33049,7 +33190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.5">
+    <row r="7" spans="1:7" ht="28.8">
       <c r="A7" s="22">
         <v>0</v>
       </c>
@@ -33070,15 +33211,25 @@
       </c>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
+    <row r="8" spans="1:7" ht="28.8">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="31"/>
+      <c r="B8" s="92">
+        <v>45665</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="96" t="s">
+        <v>58</v>
+      </c>
       <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
@@ -33431,10 +33582,10 @@
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5" style="9" customWidth="1"/>
     <col min="2" max="2" width="26" style="9" bestFit="1" customWidth="1"/>
@@ -33442,7 +33593,7 @@
     <col min="4" max="4" width="20.5" style="9" customWidth="1"/>
     <col min="5" max="5" width="27" style="9" customWidth="1"/>
     <col min="6" max="6" width="28.5" style="9" customWidth="1"/>
-    <col min="7" max="7" width="22.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22.8984375" style="9" customWidth="1"/>
     <col min="8" max="8" width="28.5" style="9" customWidth="1"/>
     <col min="9" max="16384" width="9" style="9"/>
   </cols>
@@ -33453,7 +33604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31.5">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
@@ -33479,7 +33630,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" ht="31.5">
+    <row r="4" spans="1:8" s="10" customFormat="1">
       <c r="A4" s="52" t="s">
         <v>38</v>
       </c>
@@ -33497,7 +33648,7 @@
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="31.5">
+    <row r="5" spans="1:8" s="10" customFormat="1">
       <c r="A5" s="52" t="s">
         <v>39</v>
       </c>
@@ -33850,14 +34001,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FFFF99CC"/>
+  </sheetPr>
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D9"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="15" style="61" customWidth="1"/>
     <col min="2" max="4" width="7.5" style="61"/>
@@ -33869,11 +34020,11 @@
     <col min="10" max="10" width="14.5" style="61" customWidth="1"/>
     <col min="11" max="11" width="16" style="61" customWidth="1"/>
     <col min="12" max="12" width="18.5" style="61" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="61" customWidth="1"/>
-    <col min="14" max="14" width="16.375" style="61" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="11.875" style="61" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="13.875" style="61" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="16.375" style="61" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="11.8984375" style="61" customWidth="1"/>
+    <col min="14" max="14" width="16.3984375" style="61" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="11.8984375" style="61" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="13.8984375" style="61" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="16.3984375" style="61" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="11" style="61" customWidth="1" outlineLevel="1"/>
     <col min="19" max="24" width="7" style="61" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="25" max="16384" width="7.5" style="61"/>
@@ -33887,24 +34038,24 @@
       <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="36"/>
@@ -33912,11 +34063,11 @@
       <c r="C4" s="37"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="125"/>
       <c r="D5" s="63" t="s">
         <v>48</v>
       </c>
@@ -33930,24 +34081,24 @@
       <c r="A7" s="39"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108" t="s">
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
       <c r="H8" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="104" t="s">
+      <c r="I8" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="103"/>
+      <c r="J8" s="115"/>
       <c r="K8" s="60" t="s">
         <v>22</v>
       </c>
@@ -33955,23 +34106,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A9" s="105" t="s">
+    <row r="9" spans="1:12" ht="15.9" customHeight="1">
+      <c r="A9" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105" t="s">
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
       <c r="H9" s="50"/>
-      <c r="I9" s="102" t="s">
+      <c r="I9" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="103"/>
+      <c r="J9" s="115"/>
       <c r="K9" s="62" t="s">
         <v>47</v>
       </c>
@@ -33979,185 +34130,197 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A11" s="105"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
+    <row r="10" spans="1:12" ht="15.9" customHeight="1">
+      <c r="A10" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="126"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="117" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="118"/>
+      <c r="K10" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="97" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.9" customHeight="1">
+      <c r="A11" s="119"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
       <c r="H11" s="90"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="103"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="115"/>
       <c r="K11" s="62"/>
       <c r="L11" s="62"/>
     </row>
-    <row r="12" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A12" s="105"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
+    <row r="12" spans="1:12" ht="15.9" customHeight="1">
+      <c r="A12" s="119"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
       <c r="H12" s="90"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="103"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="115"/>
       <c r="K12" s="62"/>
       <c r="L12" s="62"/>
     </row>
-    <row r="13" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A13" s="105"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
+    <row r="13" spans="1:12" ht="15.9" customHeight="1">
+      <c r="A13" s="119"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
       <c r="H13" s="90"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="103"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
       <c r="K13" s="62"/>
       <c r="L13" s="62"/>
     </row>
-    <row r="14" spans="1:12" s="79" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A14" s="105"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
+    <row r="14" spans="1:12" s="79" customFormat="1" ht="15.9" customHeight="1">
+      <c r="A14" s="119"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
       <c r="H14" s="90"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="103"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="115"/>
       <c r="K14" s="78"/>
       <c r="L14" s="78"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="105"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
       <c r="H15" s="90"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="103"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="115"/>
       <c r="K15" s="62"/>
       <c r="L15" s="62"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="105"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
       <c r="H16" s="90"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="103"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="115"/>
       <c r="K16" s="62"/>
       <c r="L16" s="62"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="105"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
       <c r="H17" s="90"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="103"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="115"/>
       <c r="K17" s="62"/>
       <c r="L17" s="62"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="105"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
       <c r="H18" s="90"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="103"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="115"/>
       <c r="K18" s="62"/>
       <c r="L18" s="62"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="105"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
       <c r="H19" s="90"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="103"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="115"/>
       <c r="K19" s="62"/>
       <c r="L19" s="62"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="105"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
       <c r="H20" s="90"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="103"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="115"/>
       <c r="K20" s="62"/>
       <c r="L20" s="62"/>
     </row>
     <row r="21" spans="1:12" s="84" customFormat="1">
-      <c r="A21" s="105"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="119"/>
       <c r="H21" s="90"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="103"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="115"/>
       <c r="K21" s="62"/>
       <c r="L21" s="62"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
+      <c r="A22" s="119"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
       <c r="H22" s="90"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="103"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="115"/>
       <c r="K22" s="62"/>
       <c r="L22" s="62"/>
     </row>
@@ -34243,72 +34406,75 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+  </sheetPr>
   <dimension ref="A1:I818"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="37.125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="35" customWidth="1"/>
+    <col min="1" max="2" width="37.09765625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" style="35" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.5" style="35" customWidth="1"/>
     <col min="8" max="8" width="30.5" style="35" customWidth="1"/>
     <col min="9" max="9" width="14.5" style="35" customWidth="1"/>
     <col min="10" max="16384" width="7.5" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="34"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="106" t="s">
+    <row r="2" spans="1:9" ht="15">
+      <c r="A2" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="112" t="s">
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+    </row>
+    <row r="3" spans="1:9" ht="15">
+      <c r="A3" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="129"/>
       <c r="F3" s="58"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="36"/>
       <c r="B4" s="37"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="115" t="s">
+    <row r="5" spans="1:9" ht="15">
+      <c r="A5" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="130"/>
       <c r="C5" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="38"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="40" t="s">
         <v>32</v>
       </c>
@@ -34337,7 +34503,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="46" t="s">
         <v>50</v>
       </c>
@@ -34356,172 +34522,256 @@
       <c r="H8" s="49"/>
       <c r="I8" s="44"/>
     </row>
-    <row r="9" spans="1:9" ht="14.45" customHeight="1">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="44"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="44"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="44"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="44"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="44"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="44"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="44"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="46"/>
+    <row r="9" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A9" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="99">
+        <v>10</v>
+      </c>
+      <c r="D9" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="103"/>
+    </row>
+    <row r="10" spans="1:9" ht="15">
+      <c r="A10" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="99">
+        <v>20</v>
+      </c>
+      <c r="D10" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="103"/>
+    </row>
+    <row r="11" spans="1:9" ht="15">
+      <c r="A11" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="99">
+        <v>30</v>
+      </c>
+      <c r="D11" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="103"/>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="99">
+        <v>40</v>
+      </c>
+      <c r="D12" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="103"/>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="99">
+        <v>50</v>
+      </c>
+      <c r="D13" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="103"/>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="99">
+        <v>60</v>
+      </c>
+      <c r="D14" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="103"/>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="99">
+        <v>70</v>
+      </c>
+      <c r="D15" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="101" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="103"/>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" s="59"/>
       <c r="B16" s="46"/>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="48"/>
-      <c r="H16" s="49"/>
+      <c r="H16" s="48"/>
       <c r="I16" s="43"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75">
-      <c r="A17" s="46"/>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" s="59"/>
       <c r="B17" s="46"/>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
+      <c r="H17" s="48"/>
       <c r="I17" s="43"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="46"/>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" s="59"/>
       <c r="B18" s="46"/>
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
       <c r="E18" s="47"/>
       <c r="F18" s="47"/>
       <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
+      <c r="H18" s="48"/>
       <c r="I18" s="43"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="46"/>
+    <row r="19" spans="1:9" ht="15">
+      <c r="A19" s="59"/>
       <c r="B19" s="46"/>
       <c r="C19" s="42"/>
       <c r="D19" s="42"/>
       <c r="E19" s="47"/>
       <c r="F19" s="47"/>
       <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
+      <c r="H19" s="48"/>
       <c r="I19" s="43"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="46"/>
+    <row r="20" spans="1:9" ht="15">
+      <c r="A20" s="59"/>
       <c r="B20" s="46"/>
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>
       <c r="E20" s="47"/>
       <c r="F20" s="47"/>
       <c r="G20" s="48"/>
-      <c r="H20" s="49"/>
+      <c r="H20" s="48"/>
       <c r="I20" s="43"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75">
-      <c r="A21" s="46"/>
+    <row r="21" spans="1:9" ht="15">
+      <c r="A21" s="59"/>
       <c r="B21" s="46"/>
       <c r="C21" s="42"/>
       <c r="D21" s="42"/>
       <c r="E21" s="47"/>
       <c r="F21" s="47"/>
       <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="H21" s="48"/>
       <c r="I21" s="43"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="46"/>
+    <row r="22" spans="1:9" ht="15">
+      <c r="A22" s="59"/>
       <c r="B22" s="46"/>
       <c r="C22" s="42"/>
       <c r="D22" s="42"/>
       <c r="E22" s="47"/>
       <c r="F22" s="47"/>
       <c r="G22" s="48"/>
-      <c r="H22" s="49"/>
+      <c r="H22" s="48"/>
       <c r="I22" s="43"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75">
-      <c r="A23" s="46"/>
+    <row r="23" spans="1:9" ht="15">
+      <c r="A23" s="59"/>
       <c r="B23" s="46"/>
       <c r="C23" s="42"/>
       <c r="D23" s="42"/>
       <c r="E23" s="47"/>
       <c r="F23" s="47"/>
       <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
+      <c r="H23" s="48"/>
       <c r="I23" s="43"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="59"/>
       <c r="B24" s="46"/>
       <c r="C24" s="42"/>
@@ -34532,7 +34782,7 @@
       <c r="H24" s="48"/>
       <c r="I24" s="43"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="59"/>
       <c r="B25" s="46"/>
       <c r="C25" s="42"/>
@@ -34543,7 +34793,7 @@
       <c r="H25" s="48"/>
       <c r="I25" s="43"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="59"/>
       <c r="B26" s="46"/>
       <c r="C26" s="42"/>
@@ -34554,7 +34804,7 @@
       <c r="H26" s="48"/>
       <c r="I26" s="43"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="59"/>
       <c r="B27" s="46"/>
       <c r="C27" s="42"/>
@@ -34565,7 +34815,7 @@
       <c r="H27" s="48"/>
       <c r="I27" s="43"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="59"/>
       <c r="B28" s="46"/>
       <c r="C28" s="42"/>
@@ -34576,7 +34826,7 @@
       <c r="H28" s="48"/>
       <c r="I28" s="43"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="59"/>
       <c r="B29" s="46"/>
       <c r="C29" s="42"/>
@@ -34587,7 +34837,7 @@
       <c r="H29" s="48"/>
       <c r="I29" s="43"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="63"/>
       <c r="B30" s="46"/>
       <c r="C30" s="42"/>
@@ -34598,7 +34848,7 @@
       <c r="H30" s="48"/>
       <c r="I30" s="43"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="63"/>
       <c r="B31" s="46"/>
       <c r="C31" s="42"/>
@@ -34609,7 +34859,7 @@
       <c r="H31" s="48"/>
       <c r="I31" s="43"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="63"/>
       <c r="B32" s="46"/>
       <c r="C32" s="42"/>
@@ -34620,7 +34870,7 @@
       <c r="H32" s="48"/>
       <c r="I32" s="43"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="63"/>
       <c r="B33" s="46"/>
       <c r="C33" s="42"/>
@@ -34631,7 +34881,7 @@
       <c r="H33" s="48"/>
       <c r="I33" s="43"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="63"/>
       <c r="B34" s="46"/>
       <c r="C34" s="42"/>
@@ -34642,7 +34892,7 @@
       <c r="H34" s="49"/>
       <c r="I34" s="43"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="63"/>
       <c r="B35" s="46"/>
       <c r="C35" s="42"/>
@@ -34653,7 +34903,7 @@
       <c r="H35" s="49"/>
       <c r="I35" s="43"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="46"/>
       <c r="B36" s="46"/>
       <c r="C36" s="42"/>
@@ -34664,7 +34914,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="43"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="46"/>
       <c r="B37" s="46"/>
       <c r="C37" s="42"/>
@@ -34675,7 +34925,7 @@
       <c r="H37" s="46"/>
       <c r="I37" s="43"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="66"/>
       <c r="B38" s="67"/>
       <c r="C38" s="68"/>
@@ -34686,7 +34936,7 @@
       <c r="H38" s="71"/>
       <c r="I38" s="72"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="66"/>
       <c r="B39" s="67"/>
       <c r="C39" s="68"/>
@@ -34697,7 +34947,7 @@
       <c r="H39" s="71"/>
       <c r="I39" s="72"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="66"/>
       <c r="B40" s="67"/>
       <c r="C40" s="68"/>
@@ -34708,7 +34958,7 @@
       <c r="H40" s="71"/>
       <c r="I40" s="72"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="66"/>
       <c r="B41" s="67"/>
       <c r="C41" s="68"/>
@@ -34719,7 +34969,7 @@
       <c r="H41" s="71"/>
       <c r="I41" s="72"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="66"/>
       <c r="B42" s="67"/>
       <c r="C42" s="68"/>
@@ -34730,7 +34980,7 @@
       <c r="H42" s="71"/>
       <c r="I42" s="72"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="66"/>
       <c r="B43" s="67"/>
       <c r="C43" s="68"/>
@@ -34741,7 +34991,7 @@
       <c r="H43" s="71"/>
       <c r="I43" s="72"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="66"/>
       <c r="B44" s="67"/>
       <c r="C44" s="68"/>
@@ -34752,7 +35002,7 @@
       <c r="H44" s="71"/>
       <c r="I44" s="72"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="66"/>
       <c r="B45" s="67"/>
       <c r="C45" s="68"/>
@@ -34763,7 +35013,7 @@
       <c r="H45" s="71"/>
       <c r="I45" s="72"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="74"/>
       <c r="B46" s="67"/>
       <c r="C46" s="75"/>
@@ -34774,7 +35024,7 @@
       <c r="H46" s="71"/>
       <c r="I46" s="77"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="74"/>
       <c r="B47" s="67"/>
       <c r="C47" s="75"/>
@@ -34785,7 +35035,7 @@
       <c r="H47" s="71"/>
       <c r="I47" s="77"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="74"/>
       <c r="B48" s="67"/>
       <c r="C48" s="75"/>
@@ -34796,7 +35046,7 @@
       <c r="H48" s="71"/>
       <c r="I48" s="77"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="74"/>
       <c r="B49" s="67"/>
       <c r="C49" s="75"/>
@@ -34807,7 +35057,7 @@
       <c r="H49" s="71"/>
       <c r="I49" s="77"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="74"/>
       <c r="B50" s="67"/>
       <c r="C50" s="75"/>
@@ -34818,7 +35068,7 @@
       <c r="H50" s="71"/>
       <c r="I50" s="77"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="74"/>
       <c r="B51" s="67"/>
       <c r="C51" s="75"/>
@@ -34829,7 +35079,7 @@
       <c r="H51" s="71"/>
       <c r="I51" s="77"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="74"/>
       <c r="B52" s="67"/>
       <c r="C52" s="75"/>
@@ -34840,7 +35090,7 @@
       <c r="H52" s="71"/>
       <c r="I52" s="77"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="74"/>
       <c r="B53" s="67"/>
       <c r="C53" s="75"/>
@@ -34851,7 +35101,7 @@
       <c r="H53" s="71"/>
       <c r="I53" s="77"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="74"/>
       <c r="B54" s="67"/>
       <c r="C54" s="75"/>
@@ -34862,7 +35112,7 @@
       <c r="H54" s="71"/>
       <c r="I54" s="77"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="74"/>
       <c r="B55" s="67"/>
       <c r="C55" s="75"/>
@@ -34873,7 +35123,7 @@
       <c r="H55" s="71"/>
       <c r="I55" s="77"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="74"/>
       <c r="B56" s="67"/>
       <c r="C56" s="75"/>
@@ -34884,7 +35134,7 @@
       <c r="H56" s="71"/>
       <c r="I56" s="77"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="74"/>
       <c r="B57" s="67"/>
       <c r="C57" s="75"/>
@@ -34895,7 +35145,7 @@
       <c r="H57" s="71"/>
       <c r="I57" s="77"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="74"/>
       <c r="B58" s="67"/>
       <c r="C58" s="75"/>
@@ -34906,7 +35156,7 @@
       <c r="H58" s="71"/>
       <c r="I58" s="77"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="74"/>
       <c r="B59" s="67"/>
       <c r="C59" s="75"/>
@@ -34917,7 +35167,7 @@
       <c r="H59" s="71"/>
       <c r="I59" s="77"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="74"/>
       <c r="B60" s="67"/>
       <c r="C60" s="75"/>
@@ -34928,7 +35178,7 @@
       <c r="H60" s="71"/>
       <c r="I60" s="77"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="74"/>
       <c r="B61" s="67"/>
       <c r="C61" s="75"/>
@@ -34939,7 +35189,7 @@
       <c r="H61" s="71"/>
       <c r="I61" s="77"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="66"/>
       <c r="B62" s="67"/>
       <c r="C62" s="68"/>
@@ -34950,7 +35200,7 @@
       <c r="H62" s="71"/>
       <c r="I62" s="72"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="66"/>
       <c r="B63" s="67"/>
       <c r="C63" s="75"/>
@@ -34961,7 +35211,7 @@
       <c r="H63" s="71"/>
       <c r="I63" s="72"/>
     </row>
-    <row r="64" spans="1:9" ht="15.75">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="66"/>
       <c r="B64" s="67"/>
       <c r="C64" s="68"/>
@@ -34972,7 +35222,7 @@
       <c r="H64" s="71"/>
       <c r="I64" s="72"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="66"/>
       <c r="B65" s="67"/>
       <c r="C65" s="75"/>
@@ -34983,7 +35233,7 @@
       <c r="H65" s="71"/>
       <c r="I65" s="72"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="66"/>
       <c r="B66" s="67"/>
       <c r="C66" s="68"/>
@@ -34994,7 +35244,7 @@
       <c r="H66" s="71"/>
       <c r="I66" s="72"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="66"/>
       <c r="B67" s="67"/>
       <c r="C67" s="75"/>
@@ -35005,7 +35255,7 @@
       <c r="H67" s="71"/>
       <c r="I67" s="72"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="66"/>
       <c r="B68" s="67"/>
       <c r="C68" s="68"/>
@@ -35016,7 +35266,7 @@
       <c r="H68" s="71"/>
       <c r="I68" s="72"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="66"/>
       <c r="B69" s="67"/>
       <c r="C69" s="75"/>
@@ -35027,7 +35277,7 @@
       <c r="H69" s="71"/>
       <c r="I69" s="72"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="66"/>
       <c r="B70" s="67"/>
       <c r="C70" s="68"/>
@@ -35038,7 +35288,7 @@
       <c r="H70" s="71"/>
       <c r="I70" s="72"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="66"/>
       <c r="B71" s="67"/>
       <c r="C71" s="75"/>
@@ -35049,7 +35299,7 @@
       <c r="H71" s="71"/>
       <c r="I71" s="72"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="66"/>
       <c r="B72" s="67"/>
       <c r="C72" s="68"/>
@@ -35060,7 +35310,7 @@
       <c r="H72" s="71"/>
       <c r="I72" s="72"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="66"/>
       <c r="B73" s="67"/>
       <c r="C73" s="75"/>
@@ -35071,7 +35321,7 @@
       <c r="H73" s="71"/>
       <c r="I73" s="72"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="66"/>
       <c r="B74" s="67"/>
       <c r="C74" s="68"/>
@@ -35082,7 +35332,7 @@
       <c r="H74" s="71"/>
       <c r="I74" s="72"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="66"/>
       <c r="B75" s="67"/>
       <c r="C75" s="75"/>
@@ -35093,7 +35343,7 @@
       <c r="H75" s="71"/>
       <c r="I75" s="72"/>
     </row>
-    <row r="76" spans="1:9" ht="15.75">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="66"/>
       <c r="B76" s="67"/>
       <c r="C76" s="68"/>
@@ -35104,7 +35354,7 @@
       <c r="H76" s="71"/>
       <c r="I76" s="72"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="66"/>
       <c r="B77" s="67"/>
       <c r="C77" s="75"/>
@@ -35115,7 +35365,7 @@
       <c r="H77" s="71"/>
       <c r="I77" s="72"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="66"/>
       <c r="B78" s="67"/>
       <c r="C78" s="68"/>
@@ -35126,7 +35376,7 @@
       <c r="H78" s="71"/>
       <c r="I78" s="72"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="66"/>
       <c r="B79" s="67"/>
       <c r="C79" s="75"/>
@@ -35137,7 +35387,7 @@
       <c r="H79" s="71"/>
       <c r="I79" s="72"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="66"/>
       <c r="B80" s="67"/>
       <c r="C80" s="68"/>
@@ -35148,7 +35398,7 @@
       <c r="H80" s="71"/>
       <c r="I80" s="72"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="66"/>
       <c r="B81" s="67"/>
       <c r="C81" s="75"/>
@@ -35159,7 +35409,7 @@
       <c r="H81" s="71"/>
       <c r="I81" s="72"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="66"/>
       <c r="B82" s="67"/>
       <c r="C82" s="68"/>
@@ -35170,7 +35420,7 @@
       <c r="H82" s="71"/>
       <c r="I82" s="72"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="66"/>
       <c r="B83" s="67"/>
       <c r="C83" s="75"/>
@@ -35181,7 +35431,7 @@
       <c r="H83" s="71"/>
       <c r="I83" s="72"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="66"/>
       <c r="B84" s="67"/>
       <c r="C84" s="68"/>
@@ -35192,7 +35442,7 @@
       <c r="H84" s="71"/>
       <c r="I84" s="72"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="67"/>
       <c r="B85" s="67"/>
       <c r="C85" s="68"/>
@@ -35203,7 +35453,7 @@
       <c r="H85" s="82"/>
       <c r="I85" s="72"/>
     </row>
-    <row r="86" spans="1:9" s="88" customFormat="1" ht="15.75">
+    <row r="86" spans="1:9" s="88" customFormat="1" ht="15">
       <c r="A86" s="85"/>
       <c r="B86" s="67"/>
       <c r="C86" s="68"/>
@@ -35214,7 +35464,7 @@
       <c r="H86" s="80"/>
       <c r="I86" s="87"/>
     </row>
-    <row r="87" spans="1:9" s="88" customFormat="1" ht="15.75">
+    <row r="87" spans="1:9" s="88" customFormat="1" ht="15">
       <c r="A87" s="85"/>
       <c r="B87" s="67"/>
       <c r="C87" s="68"/>
@@ -35225,7 +35475,7 @@
       <c r="H87" s="80"/>
       <c r="I87" s="87"/>
     </row>
-    <row r="88" spans="1:9" s="88" customFormat="1" ht="15.75">
+    <row r="88" spans="1:9" s="88" customFormat="1" ht="15">
       <c r="A88" s="85"/>
       <c r="B88" s="67"/>
       <c r="C88" s="68"/>
@@ -35236,7 +35486,7 @@
       <c r="H88" s="80"/>
       <c r="I88" s="87"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="67"/>
       <c r="B89" s="67"/>
       <c r="C89" s="68"/>
@@ -35247,7 +35497,7 @@
       <c r="H89" s="82"/>
       <c r="I89" s="72"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="67"/>
       <c r="B90" s="89"/>
       <c r="C90" s="68"/>
@@ -35258,7 +35508,7 @@
       <c r="H90" s="81"/>
       <c r="I90" s="72"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="46"/>
       <c r="B91" s="46"/>
       <c r="C91" s="42"/>
@@ -35269,7 +35519,7 @@
       <c r="H91" s="49"/>
       <c r="I91" s="43"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="46"/>
       <c r="B92" s="46"/>
       <c r="C92" s="42"/>
@@ -35280,7 +35530,7 @@
       <c r="H92" s="49"/>
       <c r="I92" s="43"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="46"/>
       <c r="B93" s="46"/>
       <c r="C93" s="42"/>
@@ -35291,7 +35541,7 @@
       <c r="H93" s="49"/>
       <c r="I93" s="43"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="46"/>
       <c r="B94" s="46"/>
       <c r="C94" s="42"/>
@@ -35302,7 +35552,7 @@
       <c r="H94" s="49"/>
       <c r="I94" s="43"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="46"/>
       <c r="B95" s="46"/>
       <c r="C95" s="42"/>
@@ -35313,7 +35563,7 @@
       <c r="H95" s="49"/>
       <c r="I95" s="43"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="46"/>
       <c r="B96" s="46"/>
       <c r="C96" s="42"/>
@@ -35324,7 +35574,7 @@
       <c r="H96" s="49"/>
       <c r="I96" s="43"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="46"/>
       <c r="B97" s="46"/>
       <c r="C97" s="42"/>
@@ -35335,7 +35585,7 @@
       <c r="H97" s="49"/>
       <c r="I97" s="43"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="46"/>
       <c r="B98" s="46"/>
       <c r="C98" s="42"/>
@@ -35346,7 +35596,7 @@
       <c r="H98" s="49"/>
       <c r="I98" s="43"/>
     </row>
-    <row r="99" spans="1:9" ht="15.75">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="46"/>
       <c r="B99" s="46"/>
       <c r="C99" s="42"/>
@@ -35357,7 +35607,7 @@
       <c r="H99" s="49"/>
       <c r="I99" s="43"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="46"/>
       <c r="B100" s="46"/>
       <c r="C100" s="42"/>
@@ -35368,7 +35618,7 @@
       <c r="H100" s="49"/>
       <c r="I100" s="43"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="46"/>
       <c r="B101" s="46"/>
       <c r="C101" s="42"/>
@@ -35379,7 +35629,7 @@
       <c r="H101" s="49"/>
       <c r="I101" s="43"/>
     </row>
-    <row r="102" spans="1:9" ht="15.75">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="46"/>
       <c r="B102" s="46"/>
       <c r="C102" s="42"/>
@@ -35390,7 +35640,7 @@
       <c r="H102" s="49"/>
       <c r="I102" s="43"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="46"/>
       <c r="B103" s="46"/>
       <c r="C103" s="42"/>
@@ -35401,7 +35651,7 @@
       <c r="H103" s="49"/>
       <c r="I103" s="43"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="46"/>
       <c r="B104" s="46"/>
       <c r="C104" s="42"/>
@@ -35412,7 +35662,7 @@
       <c r="H104" s="49"/>
       <c r="I104" s="43"/>
     </row>
-    <row r="105" spans="1:9" ht="15.75">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="46"/>
       <c r="B105" s="46"/>
       <c r="C105" s="42"/>
@@ -35423,7 +35673,7 @@
       <c r="H105" s="49"/>
       <c r="I105" s="43"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="46"/>
       <c r="B106" s="46"/>
       <c r="C106" s="42"/>
@@ -35434,7 +35684,7 @@
       <c r="H106" s="49"/>
       <c r="I106" s="43"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="46"/>
       <c r="B107" s="46"/>
       <c r="C107" s="42"/>
@@ -35445,7 +35695,7 @@
       <c r="H107" s="49"/>
       <c r="I107" s="43"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="46"/>
       <c r="B108" s="46"/>
       <c r="C108" s="42"/>
@@ -35456,7 +35706,7 @@
       <c r="H108" s="49"/>
       <c r="I108" s="43"/>
     </row>
-    <row r="109" spans="1:9" ht="15.75">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="46"/>
       <c r="B109" s="46"/>
       <c r="C109" s="42"/>
@@ -35467,7 +35717,7 @@
       <c r="H109" s="49"/>
       <c r="I109" s="43"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="46"/>
       <c r="B110" s="46"/>
       <c r="C110" s="42"/>
@@ -35478,7 +35728,7 @@
       <c r="H110" s="49"/>
       <c r="I110" s="43"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="46"/>
       <c r="B111" s="46"/>
       <c r="C111" s="42"/>
@@ -35489,7 +35739,7 @@
       <c r="H111" s="49"/>
       <c r="I111" s="43"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="46"/>
       <c r="B112" s="46"/>
       <c r="C112" s="42"/>
@@ -35500,7 +35750,7 @@
       <c r="H112" s="49"/>
       <c r="I112" s="43"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="46"/>
       <c r="B113" s="46"/>
       <c r="C113" s="42"/>
@@ -35511,7 +35761,7 @@
       <c r="H113" s="49"/>
       <c r="I113" s="43"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="46"/>
       <c r="B114" s="46"/>
       <c r="C114" s="42"/>
@@ -35522,7 +35772,7 @@
       <c r="H114" s="49"/>
       <c r="I114" s="43"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="46"/>
       <c r="B115" s="46"/>
       <c r="C115" s="42"/>
@@ -35533,7 +35783,7 @@
       <c r="H115" s="49"/>
       <c r="I115" s="43"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="46"/>
       <c r="B116" s="46"/>
       <c r="C116" s="42"/>
@@ -35544,7 +35794,7 @@
       <c r="H116" s="49"/>
       <c r="I116" s="43"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="46"/>
       <c r="B117" s="46"/>
       <c r="C117" s="42"/>
@@ -35555,7 +35805,7 @@
       <c r="H117" s="49"/>
       <c r="I117" s="43"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="46"/>
       <c r="B118" s="46"/>
       <c r="C118" s="42"/>
@@ -35566,7 +35816,7 @@
       <c r="H118" s="49"/>
       <c r="I118" s="43"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="46"/>
       <c r="B119" s="46"/>
       <c r="C119" s="42"/>
@@ -35577,7 +35827,7 @@
       <c r="H119" s="49"/>
       <c r="I119" s="43"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="46"/>
       <c r="B120" s="46"/>
       <c r="C120" s="42"/>
@@ -35588,7 +35838,7 @@
       <c r="H120" s="49"/>
       <c r="I120" s="43"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="46"/>
       <c r="B121" s="46"/>
       <c r="C121" s="42"/>
@@ -35599,7 +35849,7 @@
       <c r="H121" s="49"/>
       <c r="I121" s="43"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="46"/>
       <c r="B122" s="46"/>
       <c r="C122" s="42"/>
@@ -35610,7 +35860,7 @@
       <c r="H122" s="49"/>
       <c r="I122" s="43"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="46"/>
       <c r="B123" s="46"/>
       <c r="C123" s="42"/>
@@ -35621,7 +35871,7 @@
       <c r="H123" s="49"/>
       <c r="I123" s="43"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="46"/>
       <c r="B124" s="46"/>
       <c r="C124" s="42"/>
@@ -35632,7 +35882,7 @@
       <c r="H124" s="49"/>
       <c r="I124" s="43"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="46"/>
       <c r="B125" s="46"/>
       <c r="C125" s="42"/>
@@ -35643,7 +35893,7 @@
       <c r="H125" s="49"/>
       <c r="I125" s="43"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="46"/>
       <c r="B126" s="46"/>
       <c r="C126" s="42"/>
@@ -35654,7 +35904,7 @@
       <c r="H126" s="49"/>
       <c r="I126" s="43"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="46"/>
       <c r="B127" s="46"/>
       <c r="C127" s="42"/>
@@ -35665,7 +35915,7 @@
       <c r="H127" s="49"/>
       <c r="I127" s="43"/>
     </row>
-    <row r="128" spans="1:9" ht="15.75">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="46"/>
       <c r="B128" s="46"/>
       <c r="C128" s="42"/>
@@ -35676,7 +35926,7 @@
       <c r="H128" s="49"/>
       <c r="I128" s="43"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="46"/>
       <c r="B129" s="46"/>
       <c r="C129" s="42"/>
@@ -35687,7 +35937,7 @@
       <c r="H129" s="49"/>
       <c r="I129" s="43"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="46"/>
       <c r="B130" s="46"/>
       <c r="C130" s="42"/>
@@ -35698,7 +35948,7 @@
       <c r="H130" s="49"/>
       <c r="I130" s="43"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="46"/>
       <c r="B131" s="46"/>
       <c r="C131" s="42"/>
@@ -35709,7 +35959,7 @@
       <c r="H131" s="49"/>
       <c r="I131" s="43"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="46"/>
       <c r="B132" s="46"/>
       <c r="C132" s="42"/>
@@ -35720,7 +35970,7 @@
       <c r="H132" s="49"/>
       <c r="I132" s="43"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="46"/>
       <c r="B133" s="46"/>
       <c r="C133" s="42"/>
@@ -35731,7 +35981,7 @@
       <c r="H133" s="49"/>
       <c r="I133" s="43"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="46"/>
       <c r="B134" s="46"/>
       <c r="C134" s="42"/>
@@ -35742,7 +35992,7 @@
       <c r="H134" s="49"/>
       <c r="I134" s="43"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="46"/>
       <c r="B135" s="46"/>
       <c r="C135" s="42"/>
@@ -35753,7 +36003,7 @@
       <c r="H135" s="49"/>
       <c r="I135" s="43"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="46"/>
       <c r="B136" s="46"/>
       <c r="C136" s="42"/>
@@ -35764,7 +36014,7 @@
       <c r="H136" s="49"/>
       <c r="I136" s="43"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="46"/>
       <c r="B137" s="46"/>
       <c r="C137" s="42"/>
@@ -35775,7 +36025,7 @@
       <c r="H137" s="49"/>
       <c r="I137" s="43"/>
     </row>
-    <row r="138" spans="1:9" ht="15.75">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="46"/>
       <c r="B138" s="46"/>
       <c r="C138" s="42"/>
@@ -35786,7 +36036,7 @@
       <c r="H138" s="49"/>
       <c r="I138" s="43"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="46"/>
       <c r="B139" s="46"/>
       <c r="C139" s="42"/>
@@ -35797,7 +36047,7 @@
       <c r="H139" s="49"/>
       <c r="I139" s="43"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="46"/>
       <c r="B140" s="46"/>
       <c r="C140" s="42"/>
@@ -35808,7 +36058,7 @@
       <c r="H140" s="49"/>
       <c r="I140" s="43"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="46"/>
       <c r="B141" s="46"/>
       <c r="C141" s="42"/>
@@ -35819,7 +36069,7 @@
       <c r="H141" s="49"/>
       <c r="I141" s="43"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="46"/>
       <c r="B142" s="46"/>
       <c r="C142" s="42"/>
@@ -35830,7 +36080,7 @@
       <c r="H142" s="49"/>
       <c r="I142" s="43"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="46"/>
       <c r="B143" s="46"/>
       <c r="C143" s="42"/>
@@ -35841,7 +36091,7 @@
       <c r="H143" s="49"/>
       <c r="I143" s="43"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="46"/>
       <c r="B144" s="46"/>
       <c r="C144" s="42"/>
@@ -35852,7 +36102,7 @@
       <c r="H144" s="49"/>
       <c r="I144" s="43"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="46"/>
       <c r="B145" s="46"/>
       <c r="C145" s="42"/>
@@ -35863,7 +36113,7 @@
       <c r="H145" s="49"/>
       <c r="I145" s="43"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="46"/>
       <c r="B146" s="46"/>
       <c r="C146" s="42"/>
@@ -35874,7 +36124,7 @@
       <c r="H146" s="49"/>
       <c r="I146" s="43"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="46"/>
       <c r="B147" s="46"/>
       <c r="C147" s="42"/>
@@ -35885,7 +36135,7 @@
       <c r="H147" s="49"/>
       <c r="I147" s="43"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="46"/>
       <c r="B148" s="46"/>
       <c r="C148" s="42"/>
@@ -35896,7 +36146,7 @@
       <c r="H148" s="49"/>
       <c r="I148" s="43"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="46"/>
       <c r="B149" s="46"/>
       <c r="C149" s="42"/>
@@ -35907,7 +36157,7 @@
       <c r="H149" s="49"/>
       <c r="I149" s="43"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="46"/>
       <c r="B150" s="46"/>
       <c r="C150" s="42"/>
@@ -35918,7 +36168,7 @@
       <c r="H150" s="49"/>
       <c r="I150" s="43"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="46"/>
       <c r="B151" s="46"/>
       <c r="C151" s="42"/>
@@ -35929,7 +36179,7 @@
       <c r="H151" s="49"/>
       <c r="I151" s="43"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="46"/>
       <c r="B152" s="46"/>
       <c r="C152" s="42"/>
@@ -35940,7 +36190,7 @@
       <c r="H152" s="49"/>
       <c r="I152" s="43"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="46"/>
       <c r="B153" s="46"/>
       <c r="C153" s="42"/>
@@ -35951,7 +36201,7 @@
       <c r="H153" s="49"/>
       <c r="I153" s="43"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="46"/>
       <c r="B154" s="46"/>
       <c r="C154" s="42"/>
@@ -35962,7 +36212,7 @@
       <c r="H154" s="49"/>
       <c r="I154" s="43"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="46"/>
       <c r="B155" s="46"/>
       <c r="C155" s="42"/>
@@ -35973,7 +36223,7 @@
       <c r="H155" s="49"/>
       <c r="I155" s="43"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="46"/>
       <c r="B156" s="46"/>
       <c r="C156" s="42"/>
@@ -35984,7 +36234,7 @@
       <c r="H156" s="49"/>
       <c r="I156" s="43"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="46"/>
       <c r="B157" s="46"/>
       <c r="C157" s="42"/>
@@ -35995,7 +36245,7 @@
       <c r="H157" s="49"/>
       <c r="I157" s="43"/>
     </row>
-    <row r="158" spans="1:9" ht="15.75">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="46"/>
       <c r="B158" s="46"/>
       <c r="C158" s="42"/>
@@ -36006,7 +36256,7 @@
       <c r="H158" s="49"/>
       <c r="I158" s="43"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="46"/>
       <c r="B159" s="46"/>
       <c r="C159" s="42"/>
@@ -36017,7 +36267,7 @@
       <c r="H159" s="49"/>
       <c r="I159" s="43"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="46"/>
       <c r="B160" s="46"/>
       <c r="C160" s="42"/>
@@ -36028,7 +36278,7 @@
       <c r="H160" s="49"/>
       <c r="I160" s="43"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="46"/>
       <c r="B161" s="46"/>
       <c r="C161" s="42"/>
@@ -36039,7 +36289,7 @@
       <c r="H161" s="49"/>
       <c r="I161" s="43"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="46"/>
       <c r="B162" s="46"/>
       <c r="C162" s="42"/>
@@ -36050,7 +36300,7 @@
       <c r="H162" s="49"/>
       <c r="I162" s="43"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="46"/>
       <c r="B163" s="46"/>
       <c r="C163" s="42"/>
@@ -36061,7 +36311,7 @@
       <c r="H163" s="49"/>
       <c r="I163" s="43"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="46"/>
       <c r="B164" s="46"/>
       <c r="C164" s="42"/>
@@ -36072,7 +36322,7 @@
       <c r="H164" s="49"/>
       <c r="I164" s="43"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="46"/>
       <c r="B165" s="46"/>
       <c r="C165" s="42"/>
@@ -36083,7 +36333,7 @@
       <c r="H165" s="49"/>
       <c r="I165" s="43"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="46"/>
       <c r="B166" s="46"/>
       <c r="C166" s="42"/>
@@ -36094,7 +36344,7 @@
       <c r="H166" s="49"/>
       <c r="I166" s="43"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="46"/>
       <c r="B167" s="46"/>
       <c r="C167" s="42"/>
@@ -36105,7 +36355,7 @@
       <c r="H167" s="49"/>
       <c r="I167" s="43"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="46"/>
       <c r="B168" s="46"/>
       <c r="C168" s="42"/>
@@ -36116,7 +36366,7 @@
       <c r="H168" s="49"/>
       <c r="I168" s="43"/>
     </row>
-    <row r="169" spans="1:9" ht="15.75">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="46"/>
       <c r="B169" s="46"/>
       <c r="C169" s="42"/>
@@ -36127,7 +36377,7 @@
       <c r="H169" s="49"/>
       <c r="I169" s="43"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="46"/>
       <c r="B170" s="46"/>
       <c r="C170" s="42"/>
@@ -36138,7 +36388,7 @@
       <c r="H170" s="49"/>
       <c r="I170" s="43"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="46"/>
       <c r="B171" s="46"/>
       <c r="C171" s="42"/>
@@ -36149,7 +36399,7 @@
       <c r="H171" s="49"/>
       <c r="I171" s="43"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="46"/>
       <c r="B172" s="46"/>
       <c r="C172" s="42"/>
@@ -36160,7 +36410,7 @@
       <c r="H172" s="49"/>
       <c r="I172" s="43"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="46"/>
       <c r="B173" s="46"/>
       <c r="C173" s="42"/>
@@ -36171,7 +36421,7 @@
       <c r="H173" s="49"/>
       <c r="I173" s="43"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="46"/>
       <c r="B174" s="46"/>
       <c r="C174" s="42"/>
@@ -36182,7 +36432,7 @@
       <c r="H174" s="49"/>
       <c r="I174" s="43"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="46"/>
       <c r="B175" s="46"/>
       <c r="C175" s="42"/>
@@ -36193,7 +36443,7 @@
       <c r="H175" s="49"/>
       <c r="I175" s="43"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="46"/>
       <c r="B176" s="46"/>
       <c r="C176" s="42"/>
@@ -36204,7 +36454,7 @@
       <c r="H176" s="49"/>
       <c r="I176" s="43"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="46"/>
       <c r="B177" s="46"/>
       <c r="C177" s="42"/>
@@ -36215,7 +36465,7 @@
       <c r="H177" s="49"/>
       <c r="I177" s="43"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="46"/>
       <c r="B178" s="46"/>
       <c r="C178" s="42"/>
@@ -36226,7 +36476,7 @@
       <c r="H178" s="49"/>
       <c r="I178" s="43"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="46"/>
       <c r="B179" s="46"/>
       <c r="C179" s="42"/>
@@ -36237,7 +36487,7 @@
       <c r="H179" s="49"/>
       <c r="I179" s="43"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="46"/>
       <c r="B180" s="46"/>
       <c r="C180" s="42"/>
@@ -36248,7 +36498,7 @@
       <c r="H180" s="49"/>
       <c r="I180" s="43"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="46"/>
       <c r="B181" s="46"/>
       <c r="C181" s="42"/>
@@ -36259,7 +36509,7 @@
       <c r="H181" s="49"/>
       <c r="I181" s="43"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="46"/>
       <c r="B182" s="46"/>
       <c r="C182" s="42"/>
@@ -36270,7 +36520,7 @@
       <c r="H182" s="49"/>
       <c r="I182" s="43"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="46"/>
       <c r="B183" s="46"/>
       <c r="C183" s="42"/>
@@ -36281,7 +36531,7 @@
       <c r="H183" s="49"/>
       <c r="I183" s="43"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="46"/>
       <c r="B184" s="46"/>
       <c r="C184" s="42"/>
@@ -36292,7 +36542,7 @@
       <c r="H184" s="49"/>
       <c r="I184" s="43"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="46"/>
       <c r="B185" s="46"/>
       <c r="C185" s="42"/>
@@ -36303,7 +36553,7 @@
       <c r="H185" s="49"/>
       <c r="I185" s="43"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="46"/>
       <c r="B186" s="46"/>
       <c r="C186" s="42"/>
@@ -36314,7 +36564,7 @@
       <c r="H186" s="49"/>
       <c r="I186" s="43"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="46"/>
       <c r="B187" s="46"/>
       <c r="C187" s="42"/>
@@ -36325,7 +36575,7 @@
       <c r="H187" s="49"/>
       <c r="I187" s="43"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="46"/>
       <c r="B188" s="46"/>
       <c r="C188" s="42"/>
@@ -36336,7 +36586,7 @@
       <c r="H188" s="49"/>
       <c r="I188" s="43"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="46"/>
       <c r="B189" s="46"/>
       <c r="C189" s="42"/>
@@ -36347,7 +36597,7 @@
       <c r="H189" s="49"/>
       <c r="I189" s="43"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="46"/>
       <c r="B190" s="46"/>
       <c r="C190" s="42"/>
@@ -36358,7 +36608,7 @@
       <c r="H190" s="49"/>
       <c r="I190" s="43"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="46"/>
       <c r="B191" s="46"/>
       <c r="C191" s="42"/>
@@ -36369,7 +36619,7 @@
       <c r="H191" s="49"/>
       <c r="I191" s="43"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="46"/>
       <c r="B192" s="46"/>
       <c r="C192" s="42"/>
@@ -36380,7 +36630,7 @@
       <c r="H192" s="49"/>
       <c r="I192" s="43"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="46"/>
       <c r="B193" s="46"/>
       <c r="C193" s="42"/>
@@ -36391,7 +36641,7 @@
       <c r="H193" s="49"/>
       <c r="I193" s="43"/>
     </row>
-    <row r="194" spans="1:9" ht="15.75">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="46"/>
       <c r="B194" s="46"/>
       <c r="C194" s="42"/>
@@ -36402,7 +36652,7 @@
       <c r="H194" s="49"/>
       <c r="I194" s="43"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="46"/>
       <c r="B195" s="46"/>
       <c r="C195" s="42"/>
@@ -36413,7 +36663,7 @@
       <c r="H195" s="49"/>
       <c r="I195" s="43"/>
     </row>
-    <row r="196" spans="1:9" ht="15.75">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="46"/>
       <c r="B196" s="46"/>
       <c r="C196" s="42"/>
@@ -36424,7 +36674,7 @@
       <c r="H196" s="49"/>
       <c r="I196" s="43"/>
     </row>
-    <row r="197" spans="1:9" ht="15.75">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="46"/>
       <c r="B197" s="46"/>
       <c r="C197" s="42"/>
@@ -36435,7 +36685,7 @@
       <c r="H197" s="49"/>
       <c r="I197" s="43"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="46"/>
       <c r="B198" s="46"/>
       <c r="C198" s="42"/>
@@ -36446,7 +36696,7 @@
       <c r="H198" s="49"/>
       <c r="I198" s="43"/>
     </row>
-    <row r="199" spans="1:9" ht="15.75">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="46"/>
       <c r="B199" s="46"/>
       <c r="C199" s="42"/>
@@ -36457,7 +36707,7 @@
       <c r="H199" s="49"/>
       <c r="I199" s="43"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="46"/>
       <c r="B200" s="46"/>
       <c r="C200" s="42"/>
@@ -36468,7 +36718,7 @@
       <c r="H200" s="49"/>
       <c r="I200" s="43"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="46"/>
       <c r="B201" s="46"/>
       <c r="C201" s="42"/>
@@ -36479,7 +36729,7 @@
       <c r="H201" s="49"/>
       <c r="I201" s="43"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="46"/>
       <c r="B202" s="46"/>
       <c r="C202" s="42"/>
@@ -36490,7 +36740,7 @@
       <c r="H202" s="49"/>
       <c r="I202" s="43"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="46"/>
       <c r="B203" s="46"/>
       <c r="C203" s="42"/>
@@ -36501,7 +36751,7 @@
       <c r="H203" s="49"/>
       <c r="I203" s="43"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="46"/>
       <c r="B204" s="46"/>
       <c r="C204" s="42"/>
@@ -36512,7 +36762,7 @@
       <c r="H204" s="49"/>
       <c r="I204" s="43"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="46"/>
       <c r="B205" s="46"/>
       <c r="C205" s="42"/>
@@ -36523,7 +36773,7 @@
       <c r="H205" s="49"/>
       <c r="I205" s="43"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="46"/>
       <c r="B206" s="46"/>
       <c r="C206" s="42"/>
@@ -36534,7 +36784,7 @@
       <c r="H206" s="49"/>
       <c r="I206" s="43"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="46"/>
       <c r="B207" s="46"/>
       <c r="C207" s="42"/>
@@ -36545,7 +36795,7 @@
       <c r="H207" s="49"/>
       <c r="I207" s="43"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="46"/>
       <c r="B208" s="46"/>
       <c r="C208" s="42"/>
@@ -36556,7 +36806,7 @@
       <c r="H208" s="49"/>
       <c r="I208" s="43"/>
     </row>
-    <row r="209" spans="1:9" ht="15.75">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="46"/>
       <c r="B209" s="46"/>
       <c r="C209" s="42"/>
@@ -36567,7 +36817,7 @@
       <c r="H209" s="49"/>
       <c r="I209" s="43"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="46"/>
       <c r="B210" s="46"/>
       <c r="C210" s="42"/>
@@ -36578,7 +36828,7 @@
       <c r="H210" s="49"/>
       <c r="I210" s="43"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="46"/>
       <c r="B211" s="46"/>
       <c r="C211" s="42"/>
@@ -36589,7 +36839,7 @@
       <c r="H211" s="49"/>
       <c r="I211" s="43"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="46"/>
       <c r="B212" s="46"/>
       <c r="C212" s="42"/>
@@ -36600,7 +36850,7 @@
       <c r="H212" s="49"/>
       <c r="I212" s="43"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="46"/>
       <c r="B213" s="46"/>
       <c r="C213" s="42"/>
@@ -36611,7 +36861,7 @@
       <c r="H213" s="49"/>
       <c r="I213" s="43"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="46"/>
       <c r="B214" s="46"/>
       <c r="C214" s="42"/>
@@ -36622,7 +36872,7 @@
       <c r="H214" s="49"/>
       <c r="I214" s="43"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="46"/>
       <c r="B215" s="46"/>
       <c r="C215" s="42"/>
@@ -36633,7 +36883,7 @@
       <c r="H215" s="49"/>
       <c r="I215" s="43"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="46"/>
       <c r="B216" s="46"/>
       <c r="C216" s="42"/>
@@ -36644,7 +36894,7 @@
       <c r="H216" s="49"/>
       <c r="I216" s="43"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="46"/>
       <c r="B217" s="46"/>
       <c r="C217" s="42"/>
@@ -36655,7 +36905,7 @@
       <c r="H217" s="49"/>
       <c r="I217" s="43"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="46"/>
       <c r="B218" s="46"/>
       <c r="C218" s="42"/>
@@ -36666,7 +36916,7 @@
       <c r="H218" s="49"/>
       <c r="I218" s="43"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="46"/>
       <c r="B219" s="46"/>
       <c r="C219" s="42"/>
@@ -36677,7 +36927,7 @@
       <c r="H219" s="49"/>
       <c r="I219" s="43"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="46"/>
       <c r="B220" s="46"/>
       <c r="C220" s="42"/>
@@ -36688,7 +36938,7 @@
       <c r="H220" s="49"/>
       <c r="I220" s="43"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="46"/>
       <c r="B221" s="46"/>
       <c r="C221" s="42"/>
@@ -36699,7 +36949,7 @@
       <c r="H221" s="49"/>
       <c r="I221" s="43"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="46"/>
       <c r="B222" s="46"/>
       <c r="C222" s="42"/>
@@ -36710,7 +36960,7 @@
       <c r="H222" s="49"/>
       <c r="I222" s="43"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="46"/>
       <c r="B223" s="46"/>
       <c r="C223" s="42"/>
@@ -36721,7 +36971,7 @@
       <c r="H223" s="49"/>
       <c r="I223" s="43"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="46"/>
       <c r="B224" s="46"/>
       <c r="C224" s="42"/>
@@ -36732,7 +36982,7 @@
       <c r="H224" s="49"/>
       <c r="I224" s="43"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="46"/>
       <c r="B225" s="46"/>
       <c r="C225" s="42"/>
@@ -36743,7 +36993,7 @@
       <c r="H225" s="49"/>
       <c r="I225" s="43"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="46"/>
       <c r="B226" s="46"/>
       <c r="C226" s="42"/>
@@ -36754,7 +37004,7 @@
       <c r="H226" s="49"/>
       <c r="I226" s="43"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="46"/>
       <c r="B227" s="46"/>
       <c r="C227" s="42"/>
@@ -36765,7 +37015,7 @@
       <c r="H227" s="49"/>
       <c r="I227" s="43"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="46"/>
       <c r="B228" s="46"/>
       <c r="C228" s="42"/>
@@ -36776,7 +37026,7 @@
       <c r="H228" s="49"/>
       <c r="I228" s="43"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="46"/>
       <c r="B229" s="46"/>
       <c r="C229" s="42"/>
@@ -36787,7 +37037,7 @@
       <c r="H229" s="49"/>
       <c r="I229" s="43"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="46"/>
       <c r="B230" s="46"/>
       <c r="C230" s="42"/>
@@ -36798,7 +37048,7 @@
       <c r="H230" s="49"/>
       <c r="I230" s="43"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="46"/>
       <c r="B231" s="46"/>
       <c r="C231" s="42"/>
@@ -36809,7 +37059,7 @@
       <c r="H231" s="49"/>
       <c r="I231" s="43"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="46"/>
       <c r="B232" s="46"/>
       <c r="C232" s="42"/>
@@ -36820,7 +37070,7 @@
       <c r="H232" s="49"/>
       <c r="I232" s="43"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="46"/>
       <c r="B233" s="46"/>
       <c r="C233" s="42"/>
@@ -36831,7 +37081,7 @@
       <c r="H233" s="49"/>
       <c r="I233" s="43"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="46"/>
       <c r="B234" s="46"/>
       <c r="C234" s="42"/>
@@ -36842,7 +37092,7 @@
       <c r="H234" s="49"/>
       <c r="I234" s="43"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="46"/>
       <c r="B235" s="46"/>
       <c r="C235" s="42"/>
@@ -36853,7 +37103,7 @@
       <c r="H235" s="49"/>
       <c r="I235" s="43"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="46"/>
       <c r="B236" s="46"/>
       <c r="C236" s="42"/>
@@ -36864,7 +37114,7 @@
       <c r="H236" s="49"/>
       <c r="I236" s="43"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="46"/>
       <c r="B237" s="46"/>
       <c r="C237" s="42"/>
@@ -36875,7 +37125,7 @@
       <c r="H237" s="49"/>
       <c r="I237" s="43"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="46"/>
       <c r="B238" s="46"/>
       <c r="C238" s="42"/>
@@ -36886,7 +37136,7 @@
       <c r="H238" s="49"/>
       <c r="I238" s="43"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="46"/>
       <c r="B239" s="46"/>
       <c r="C239" s="42"/>
@@ -36897,7 +37147,7 @@
       <c r="H239" s="49"/>
       <c r="I239" s="43"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="46"/>
       <c r="B240" s="46"/>
       <c r="C240" s="42"/>
@@ -36908,7 +37158,7 @@
       <c r="H240" s="49"/>
       <c r="I240" s="43"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="46"/>
       <c r="B241" s="46"/>
       <c r="C241" s="42"/>
@@ -36919,7 +37169,7 @@
       <c r="H241" s="49"/>
       <c r="I241" s="43"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="46"/>
       <c r="B242" s="46"/>
       <c r="C242" s="42"/>
@@ -36930,7 +37180,7 @@
       <c r="H242" s="49"/>
       <c r="I242" s="43"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="46"/>
       <c r="B243" s="46"/>
       <c r="C243" s="42"/>
@@ -36941,7 +37191,7 @@
       <c r="H243" s="49"/>
       <c r="I243" s="43"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="46"/>
       <c r="B244" s="46"/>
       <c r="C244" s="42"/>
@@ -36952,7 +37202,7 @@
       <c r="H244" s="49"/>
       <c r="I244" s="43"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="46"/>
       <c r="B245" s="46"/>
       <c r="C245" s="42"/>
@@ -36963,7 +37213,7 @@
       <c r="H245" s="49"/>
       <c r="I245" s="43"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="46"/>
       <c r="B246" s="46"/>
       <c r="C246" s="42"/>
@@ -36974,7 +37224,7 @@
       <c r="H246" s="49"/>
       <c r="I246" s="43"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="46"/>
       <c r="B247" s="46"/>
       <c r="C247" s="42"/>
@@ -36985,7 +37235,7 @@
       <c r="H247" s="49"/>
       <c r="I247" s="43"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="46"/>
       <c r="B248" s="46"/>
       <c r="C248" s="42"/>
@@ -36996,7 +37246,7 @@
       <c r="H248" s="49"/>
       <c r="I248" s="43"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="46"/>
       <c r="B249" s="46"/>
       <c r="C249" s="42"/>
@@ -37007,7 +37257,7 @@
       <c r="H249" s="49"/>
       <c r="I249" s="43"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="46"/>
       <c r="B250" s="46"/>
       <c r="C250" s="42"/>
@@ -37018,7 +37268,7 @@
       <c r="H250" s="49"/>
       <c r="I250" s="43"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="46"/>
       <c r="B251" s="46"/>
       <c r="C251" s="42"/>
@@ -37029,7 +37279,7 @@
       <c r="H251" s="49"/>
       <c r="I251" s="43"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="46"/>
       <c r="B252" s="46"/>
       <c r="C252" s="42"/>
@@ -37040,7 +37290,7 @@
       <c r="H252" s="49"/>
       <c r="I252" s="43"/>
     </row>
-    <row r="253" spans="1:9" ht="15.75">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="46"/>
       <c r="B253" s="46"/>
       <c r="C253" s="42"/>
@@ -37051,7 +37301,7 @@
       <c r="H253" s="49"/>
       <c r="I253" s="43"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="46"/>
       <c r="B254" s="46"/>
       <c r="C254" s="42"/>
@@ -37062,7 +37312,7 @@
       <c r="H254" s="49"/>
       <c r="I254" s="43"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="46"/>
       <c r="B255" s="46"/>
       <c r="C255" s="42"/>
@@ -37073,7 +37323,7 @@
       <c r="H255" s="49"/>
       <c r="I255" s="43"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="46"/>
       <c r="B256" s="46"/>
       <c r="C256" s="42"/>
@@ -37084,7 +37334,7 @@
       <c r="H256" s="49"/>
       <c r="I256" s="43"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="46"/>
       <c r="B257" s="46"/>
       <c r="C257" s="42"/>
@@ -37095,7 +37345,7 @@
       <c r="H257" s="49"/>
       <c r="I257" s="43"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="46"/>
       <c r="B258" s="46"/>
       <c r="C258" s="42"/>
@@ -37106,7 +37356,7 @@
       <c r="H258" s="49"/>
       <c r="I258" s="43"/>
     </row>
-    <row r="259" spans="1:9" ht="15.75">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="46"/>
       <c r="B259" s="46"/>
       <c r="C259" s="42"/>
@@ -37117,7 +37367,7 @@
       <c r="H259" s="49"/>
       <c r="I259" s="43"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="46"/>
       <c r="B260" s="46"/>
       <c r="C260" s="42"/>
@@ -37128,7 +37378,7 @@
       <c r="H260" s="49"/>
       <c r="I260" s="43"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="46"/>
       <c r="B261" s="46"/>
       <c r="C261" s="42"/>
@@ -37139,7 +37389,7 @@
       <c r="H261" s="49"/>
       <c r="I261" s="43"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="46"/>
       <c r="B262" s="46"/>
       <c r="C262" s="42"/>
@@ -37150,7 +37400,7 @@
       <c r="H262" s="49"/>
       <c r="I262" s="43"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="46"/>
       <c r="B263" s="46"/>
       <c r="C263" s="42"/>
@@ -37161,7 +37411,7 @@
       <c r="H263" s="49"/>
       <c r="I263" s="43"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="46"/>
       <c r="B264" s="46"/>
       <c r="C264" s="42"/>
@@ -37172,7 +37422,7 @@
       <c r="H264" s="49"/>
       <c r="I264" s="43"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="46"/>
       <c r="B265" s="46"/>
       <c r="C265" s="42"/>
@@ -37183,7 +37433,7 @@
       <c r="H265" s="49"/>
       <c r="I265" s="43"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="46"/>
       <c r="B266" s="46"/>
       <c r="C266" s="42"/>
@@ -37194,7 +37444,7 @@
       <c r="H266" s="49"/>
       <c r="I266" s="43"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="46"/>
       <c r="B267" s="46"/>
       <c r="C267" s="42"/>
@@ -37205,7 +37455,7 @@
       <c r="H267" s="49"/>
       <c r="I267" s="43"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="46"/>
       <c r="B268" s="46"/>
       <c r="C268" s="42"/>
@@ -37216,7 +37466,7 @@
       <c r="H268" s="49"/>
       <c r="I268" s="43"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="46"/>
       <c r="B269" s="46"/>
       <c r="C269" s="42"/>
@@ -37227,7 +37477,7 @@
       <c r="H269" s="49"/>
       <c r="I269" s="43"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="46"/>
       <c r="B270" s="46"/>
       <c r="C270" s="42"/>
@@ -37238,7 +37488,7 @@
       <c r="H270" s="49"/>
       <c r="I270" s="43"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="46"/>
       <c r="B271" s="46"/>
       <c r="C271" s="42"/>
@@ -37249,7 +37499,7 @@
       <c r="H271" s="49"/>
       <c r="I271" s="43"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="46"/>
       <c r="B272" s="46"/>
       <c r="C272" s="42"/>
@@ -37260,7 +37510,7 @@
       <c r="H272" s="49"/>
       <c r="I272" s="43"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="46"/>
       <c r="B273" s="46"/>
       <c r="C273" s="42"/>
@@ -37271,7 +37521,7 @@
       <c r="H273" s="49"/>
       <c r="I273" s="43"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="46"/>
       <c r="B274" s="46"/>
       <c r="C274" s="42"/>
@@ -37282,7 +37532,7 @@
       <c r="H274" s="49"/>
       <c r="I274" s="43"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="46"/>
       <c r="B275" s="46"/>
       <c r="C275" s="42"/>
@@ -37293,7 +37543,7 @@
       <c r="H275" s="49"/>
       <c r="I275" s="43"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="46"/>
       <c r="B276" s="46"/>
       <c r="C276" s="42"/>
@@ -37304,7 +37554,7 @@
       <c r="H276" s="49"/>
       <c r="I276" s="43"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="46"/>
       <c r="B277" s="46"/>
       <c r="C277" s="42"/>
@@ -37315,7 +37565,7 @@
       <c r="H277" s="49"/>
       <c r="I277" s="43"/>
     </row>
-    <row r="278" spans="1:9" ht="15.75">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="46"/>
       <c r="B278" s="46"/>
       <c r="C278" s="42"/>
@@ -37326,7 +37576,7 @@
       <c r="H278" s="49"/>
       <c r="I278" s="43"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="46"/>
       <c r="B279" s="46"/>
       <c r="C279" s="42"/>
@@ -37337,7 +37587,7 @@
       <c r="H279" s="49"/>
       <c r="I279" s="43"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="46"/>
       <c r="B280" s="46"/>
       <c r="C280" s="42"/>
@@ -37348,7 +37598,7 @@
       <c r="H280" s="49"/>
       <c r="I280" s="43"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="46"/>
       <c r="B281" s="46"/>
       <c r="C281" s="42"/>
@@ -37359,7 +37609,7 @@
       <c r="H281" s="49"/>
       <c r="I281" s="43"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="46"/>
       <c r="B282" s="46"/>
       <c r="C282" s="42"/>
@@ -37370,7 +37620,7 @@
       <c r="H282" s="49"/>
       <c r="I282" s="43"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="46"/>
       <c r="B283" s="46"/>
       <c r="C283" s="42"/>
@@ -37381,7 +37631,7 @@
       <c r="H283" s="49"/>
       <c r="I283" s="43"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="46"/>
       <c r="B284" s="46"/>
       <c r="C284" s="42"/>
@@ -37392,7 +37642,7 @@
       <c r="H284" s="49"/>
       <c r="I284" s="43"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="46"/>
       <c r="B285" s="46"/>
       <c r="C285" s="42"/>
@@ -37403,7 +37653,7 @@
       <c r="H285" s="49"/>
       <c r="I285" s="43"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="46"/>
       <c r="B286" s="46"/>
       <c r="C286" s="42"/>
@@ -37414,7 +37664,7 @@
       <c r="H286" s="49"/>
       <c r="I286" s="43"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="46"/>
       <c r="B287" s="46"/>
       <c r="C287" s="42"/>
@@ -37425,7 +37675,7 @@
       <c r="H287" s="49"/>
       <c r="I287" s="43"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="46"/>
       <c r="B288" s="46"/>
       <c r="C288" s="42"/>
@@ -37436,7 +37686,7 @@
       <c r="H288" s="49"/>
       <c r="I288" s="43"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="46"/>
       <c r="B289" s="46"/>
       <c r="C289" s="42"/>
@@ -37447,7 +37697,7 @@
       <c r="H289" s="49"/>
       <c r="I289" s="43"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="46"/>
       <c r="B290" s="46"/>
       <c r="C290" s="42"/>
@@ -37458,7 +37708,7 @@
       <c r="H290" s="49"/>
       <c r="I290" s="43"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="46"/>
       <c r="B291" s="46"/>
       <c r="C291" s="42"/>
@@ -37469,7 +37719,7 @@
       <c r="H291" s="49"/>
       <c r="I291" s="43"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="46"/>
       <c r="B292" s="46"/>
       <c r="C292" s="42"/>
@@ -37480,7 +37730,7 @@
       <c r="H292" s="49"/>
       <c r="I292" s="43"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="46"/>
       <c r="B293" s="46"/>
       <c r="C293" s="42"/>
@@ -37491,7 +37741,7 @@
       <c r="H293" s="49"/>
       <c r="I293" s="43"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="46"/>
       <c r="B294" s="46"/>
       <c r="C294" s="42"/>
@@ -37502,7 +37752,7 @@
       <c r="H294" s="49"/>
       <c r="I294" s="43"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="46"/>
       <c r="B295" s="46"/>
       <c r="C295" s="42"/>
@@ -37513,7 +37763,7 @@
       <c r="H295" s="49"/>
       <c r="I295" s="43"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="46"/>
       <c r="B296" s="46"/>
       <c r="C296" s="42"/>
@@ -37524,7 +37774,7 @@
       <c r="H296" s="49"/>
       <c r="I296" s="43"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="46"/>
       <c r="B297" s="46"/>
       <c r="C297" s="42"/>
@@ -37535,7 +37785,7 @@
       <c r="H297" s="49"/>
       <c r="I297" s="43"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="46"/>
       <c r="B298" s="46"/>
       <c r="C298" s="42"/>
@@ -37546,7 +37796,7 @@
       <c r="H298" s="49"/>
       <c r="I298" s="43"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="46"/>
       <c r="B299" s="46"/>
       <c r="C299" s="42"/>
@@ -37557,7 +37807,7 @@
       <c r="H299" s="49"/>
       <c r="I299" s="43"/>
     </row>
-    <row r="300" spans="1:9" ht="15.75">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="46"/>
       <c r="B300" s="46"/>
       <c r="C300" s="42"/>
@@ -37568,7 +37818,7 @@
       <c r="H300" s="49"/>
       <c r="I300" s="43"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="46"/>
       <c r="B301" s="46"/>
       <c r="C301" s="42"/>
@@ -37579,7 +37829,7 @@
       <c r="H301" s="49"/>
       <c r="I301" s="43"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="46"/>
       <c r="B302" s="46"/>
       <c r="C302" s="42"/>
@@ -37590,7 +37840,7 @@
       <c r="H302" s="49"/>
       <c r="I302" s="43"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="46"/>
       <c r="B303" s="46"/>
       <c r="C303" s="42"/>
@@ -37601,7 +37851,7 @@
       <c r="H303" s="49"/>
       <c r="I303" s="43"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="46"/>
       <c r="B304" s="46"/>
       <c r="C304" s="42"/>
@@ -37612,7 +37862,7 @@
       <c r="H304" s="49"/>
       <c r="I304" s="43"/>
     </row>
-    <row r="305" spans="1:9" ht="15.75">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="46"/>
       <c r="B305" s="46"/>
       <c r="C305" s="42"/>
@@ -37623,7 +37873,7 @@
       <c r="H305" s="49"/>
       <c r="I305" s="43"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="46"/>
       <c r="B306" s="46"/>
       <c r="C306" s="42"/>
@@ -37634,7 +37884,7 @@
       <c r="H306" s="49"/>
       <c r="I306" s="43"/>
     </row>
-    <row r="307" spans="1:9" ht="15.75">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="46"/>
       <c r="B307" s="46"/>
       <c r="C307" s="42"/>
@@ -37645,7 +37895,7 @@
       <c r="H307" s="49"/>
       <c r="I307" s="43"/>
     </row>
-    <row r="308" spans="1:9" ht="15.75">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="46"/>
       <c r="B308" s="46"/>
       <c r="C308" s="42"/>
@@ -37656,7 +37906,7 @@
       <c r="H308" s="49"/>
       <c r="I308" s="43"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="46"/>
       <c r="B309" s="46"/>
       <c r="C309" s="42"/>
@@ -37667,7 +37917,7 @@
       <c r="H309" s="49"/>
       <c r="I309" s="43"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="46"/>
       <c r="B310" s="46"/>
       <c r="C310" s="42"/>
@@ -37678,7 +37928,7 @@
       <c r="H310" s="49"/>
       <c r="I310" s="43"/>
     </row>
-    <row r="311" spans="1:9" ht="15.75">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="46"/>
       <c r="B311" s="46"/>
       <c r="C311" s="42"/>
@@ -37689,7 +37939,7 @@
       <c r="H311" s="49"/>
       <c r="I311" s="43"/>
     </row>
-    <row r="312" spans="1:9" ht="15.75">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="46"/>
       <c r="B312" s="46"/>
       <c r="C312" s="42"/>
@@ -37700,7 +37950,7 @@
       <c r="H312" s="49"/>
       <c r="I312" s="43"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="46"/>
       <c r="B313" s="46"/>
       <c r="C313" s="42"/>
@@ -37711,7 +37961,7 @@
       <c r="H313" s="49"/>
       <c r="I313" s="43"/>
     </row>
-    <row r="314" spans="1:9" ht="15.75">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="46"/>
       <c r="B314" s="46"/>
       <c r="C314" s="42"/>
@@ -37722,7 +37972,7 @@
       <c r="H314" s="49"/>
       <c r="I314" s="43"/>
     </row>
-    <row r="315" spans="1:9" ht="15.75">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="46"/>
       <c r="B315" s="46"/>
       <c r="C315" s="42"/>
@@ -37733,7 +37983,7 @@
       <c r="H315" s="49"/>
       <c r="I315" s="43"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="46"/>
       <c r="B316" s="46"/>
       <c r="C316" s="42"/>
@@ -37744,7 +37994,7 @@
       <c r="H316" s="49"/>
       <c r="I316" s="43"/>
     </row>
-    <row r="317" spans="1:9" ht="15.75">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="46"/>
       <c r="B317" s="46"/>
       <c r="C317" s="42"/>
@@ -37755,7 +38005,7 @@
       <c r="H317" s="49"/>
       <c r="I317" s="43"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="46"/>
       <c r="B318" s="46"/>
       <c r="C318" s="42"/>
@@ -37766,7 +38016,7 @@
       <c r="H318" s="49"/>
       <c r="I318" s="43"/>
     </row>
-    <row r="319" spans="1:9" ht="15.75">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="46"/>
       <c r="B319" s="46"/>
       <c r="C319" s="42"/>
@@ -37777,7 +38027,7 @@
       <c r="H319" s="49"/>
       <c r="I319" s="43"/>
     </row>
-    <row r="320" spans="1:9" ht="15.75">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="46"/>
       <c r="B320" s="46"/>
       <c r="C320" s="42"/>
@@ -37788,7 +38038,7 @@
       <c r="H320" s="49"/>
       <c r="I320" s="43"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="46"/>
       <c r="B321" s="46"/>
       <c r="C321" s="42"/>
@@ -37799,7 +38049,7 @@
       <c r="H321" s="49"/>
       <c r="I321" s="43"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="46"/>
       <c r="B322" s="46"/>
       <c r="C322" s="42"/>
@@ -37810,7 +38060,7 @@
       <c r="H322" s="49"/>
       <c r="I322" s="43"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="46"/>
       <c r="B323" s="46"/>
       <c r="C323" s="42"/>
@@ -37821,7 +38071,7 @@
       <c r="H323" s="49"/>
       <c r="I323" s="43"/>
     </row>
-    <row r="324" spans="1:9" ht="15.75">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="46"/>
       <c r="B324" s="46"/>
       <c r="C324" s="42"/>
@@ -37832,7 +38082,7 @@
       <c r="H324" s="49"/>
       <c r="I324" s="43"/>
     </row>
-    <row r="325" spans="1:9" ht="15.75">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="46"/>
       <c r="B325" s="46"/>
       <c r="C325" s="42"/>
@@ -37843,7 +38093,7 @@
       <c r="H325" s="49"/>
       <c r="I325" s="43"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="46"/>
       <c r="B326" s="46"/>
       <c r="C326" s="42"/>
@@ -37854,7 +38104,7 @@
       <c r="H326" s="49"/>
       <c r="I326" s="43"/>
     </row>
-    <row r="327" spans="1:9" ht="15.75">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="46"/>
       <c r="B327" s="46"/>
       <c r="C327" s="42"/>
@@ -37865,7 +38115,7 @@
       <c r="H327" s="49"/>
       <c r="I327" s="43"/>
     </row>
-    <row r="328" spans="1:9" ht="15.75">
+    <row r="328" spans="1:9" ht="15">
       <c r="A328" s="46"/>
       <c r="B328" s="46"/>
       <c r="C328" s="42"/>
@@ -37876,7 +38126,7 @@
       <c r="H328" s="49"/>
       <c r="I328" s="43"/>
     </row>
-    <row r="329" spans="1:9" ht="15.75">
+    <row r="329" spans="1:9" ht="15">
       <c r="A329" s="46"/>
       <c r="B329" s="46"/>
       <c r="C329" s="42"/>
@@ -37887,7 +38137,7 @@
       <c r="H329" s="49"/>
       <c r="I329" s="43"/>
     </row>
-    <row r="330" spans="1:9" ht="15.75">
+    <row r="330" spans="1:9" ht="15">
       <c r="A330" s="46"/>
       <c r="B330" s="46"/>
       <c r="C330" s="42"/>
@@ -37898,7 +38148,7 @@
       <c r="H330" s="49"/>
       <c r="I330" s="43"/>
     </row>
-    <row r="331" spans="1:9" ht="15.75">
+    <row r="331" spans="1:9" ht="15">
       <c r="A331" s="46"/>
       <c r="B331" s="46"/>
       <c r="C331" s="42"/>
@@ -37909,7 +38159,7 @@
       <c r="H331" s="49"/>
       <c r="I331" s="43"/>
     </row>
-    <row r="332" spans="1:9" ht="15.75">
+    <row r="332" spans="1:9" ht="15">
       <c r="A332" s="46"/>
       <c r="B332" s="46"/>
       <c r="C332" s="42"/>
@@ -37920,7 +38170,7 @@
       <c r="H332" s="49"/>
       <c r="I332" s="43"/>
     </row>
-    <row r="333" spans="1:9" ht="15.75">
+    <row r="333" spans="1:9" ht="15">
       <c r="A333" s="46"/>
       <c r="B333" s="46"/>
       <c r="C333" s="42"/>
@@ -37931,7 +38181,7 @@
       <c r="H333" s="49"/>
       <c r="I333" s="43"/>
     </row>
-    <row r="334" spans="1:9" ht="15.75">
+    <row r="334" spans="1:9" ht="15">
       <c r="A334" s="46"/>
       <c r="B334" s="46"/>
       <c r="C334" s="42"/>
@@ -37942,7 +38192,7 @@
       <c r="H334" s="49"/>
       <c r="I334" s="43"/>
     </row>
-    <row r="335" spans="1:9" ht="15.75">
+    <row r="335" spans="1:9" ht="15">
       <c r="A335" s="46"/>
       <c r="B335" s="46"/>
       <c r="C335" s="42"/>
@@ -37953,7 +38203,7 @@
       <c r="H335" s="49"/>
       <c r="I335" s="43"/>
     </row>
-    <row r="336" spans="1:9" ht="15.75">
+    <row r="336" spans="1:9" ht="15">
       <c r="A336" s="46"/>
       <c r="B336" s="46"/>
       <c r="C336" s="42"/>
@@ -37964,7 +38214,7 @@
       <c r="H336" s="49"/>
       <c r="I336" s="43"/>
     </row>
-    <row r="337" spans="1:9" ht="15.75">
+    <row r="337" spans="1:9" ht="15">
       <c r="A337" s="46"/>
       <c r="B337" s="46"/>
       <c r="C337" s="42"/>
@@ -37975,7 +38225,7 @@
       <c r="H337" s="49"/>
       <c r="I337" s="43"/>
     </row>
-    <row r="338" spans="1:9" ht="15.75">
+    <row r="338" spans="1:9" ht="15">
       <c r="A338" s="46"/>
       <c r="B338" s="46"/>
       <c r="C338" s="42"/>
@@ -37986,7 +38236,7 @@
       <c r="H338" s="49"/>
       <c r="I338" s="43"/>
     </row>
-    <row r="339" spans="1:9" ht="15.75">
+    <row r="339" spans="1:9" ht="15">
       <c r="A339" s="46"/>
       <c r="B339" s="46"/>
       <c r="C339" s="42"/>
@@ -37997,7 +38247,7 @@
       <c r="H339" s="49"/>
       <c r="I339" s="43"/>
     </row>
-    <row r="340" spans="1:9" ht="15.75">
+    <row r="340" spans="1:9" ht="15">
       <c r="A340" s="46"/>
       <c r="B340" s="46"/>
       <c r="C340" s="42"/>
@@ -38008,7 +38258,7 @@
       <c r="H340" s="49"/>
       <c r="I340" s="43"/>
     </row>
-    <row r="341" spans="1:9" ht="15.75">
+    <row r="341" spans="1:9" ht="15">
       <c r="A341" s="46"/>
       <c r="B341" s="46"/>
       <c r="C341" s="42"/>
@@ -38019,7 +38269,7 @@
       <c r="H341" s="49"/>
       <c r="I341" s="43"/>
     </row>
-    <row r="342" spans="1:9" ht="15.75">
+    <row r="342" spans="1:9" ht="15">
       <c r="A342" s="46"/>
       <c r="B342" s="46"/>
       <c r="C342" s="42"/>
@@ -38030,7 +38280,7 @@
       <c r="H342" s="49"/>
       <c r="I342" s="43"/>
     </row>
-    <row r="343" spans="1:9" ht="15.75">
+    <row r="343" spans="1:9" ht="15">
       <c r="A343" s="46"/>
       <c r="B343" s="46"/>
       <c r="C343" s="42"/>
@@ -38041,7 +38291,7 @@
       <c r="H343" s="49"/>
       <c r="I343" s="43"/>
     </row>
-    <row r="344" spans="1:9" ht="15.75">
+    <row r="344" spans="1:9" ht="15">
       <c r="A344" s="46"/>
       <c r="B344" s="46"/>
       <c r="C344" s="42"/>
@@ -38052,7 +38302,7 @@
       <c r="H344" s="49"/>
       <c r="I344" s="43"/>
     </row>
-    <row r="345" spans="1:9" ht="15.75">
+    <row r="345" spans="1:9" ht="15">
       <c r="A345" s="46"/>
       <c r="B345" s="46"/>
       <c r="C345" s="42"/>
@@ -38063,7 +38313,7 @@
       <c r="H345" s="49"/>
       <c r="I345" s="43"/>
     </row>
-    <row r="346" spans="1:9" ht="15.75">
+    <row r="346" spans="1:9" ht="15">
       <c r="A346" s="46"/>
       <c r="B346" s="46"/>
       <c r="C346" s="42"/>
@@ -38074,7 +38324,7 @@
       <c r="H346" s="49"/>
       <c r="I346" s="43"/>
     </row>
-    <row r="347" spans="1:9" ht="15.75">
+    <row r="347" spans="1:9" ht="15">
       <c r="A347" s="46"/>
       <c r="B347" s="46"/>
       <c r="C347" s="42"/>
@@ -38085,7 +38335,7 @@
       <c r="H347" s="49"/>
       <c r="I347" s="43"/>
     </row>
-    <row r="348" spans="1:9" ht="15.75">
+    <row r="348" spans="1:9" ht="15">
       <c r="A348" s="46"/>
       <c r="B348" s="46"/>
       <c r="C348" s="42"/>
@@ -38096,7 +38346,7 @@
       <c r="H348" s="49"/>
       <c r="I348" s="43"/>
     </row>
-    <row r="349" spans="1:9" ht="15.75">
+    <row r="349" spans="1:9" ht="15">
       <c r="A349" s="46"/>
       <c r="B349" s="46"/>
       <c r="C349" s="42"/>
@@ -38107,7 +38357,7 @@
       <c r="H349" s="49"/>
       <c r="I349" s="43"/>
     </row>
-    <row r="350" spans="1:9" ht="15.75">
+    <row r="350" spans="1:9" ht="15">
       <c r="A350" s="46"/>
       <c r="B350" s="46"/>
       <c r="C350" s="42"/>
@@ -38118,7 +38368,7 @@
       <c r="H350" s="49"/>
       <c r="I350" s="43"/>
     </row>
-    <row r="351" spans="1:9" ht="15.75">
+    <row r="351" spans="1:9" ht="15">
       <c r="A351" s="46"/>
       <c r="B351" s="46"/>
       <c r="C351" s="42"/>
@@ -38129,7 +38379,7 @@
       <c r="H351" s="49"/>
       <c r="I351" s="43"/>
     </row>
-    <row r="352" spans="1:9" ht="15.75">
+    <row r="352" spans="1:9" ht="15">
       <c r="A352" s="46"/>
       <c r="B352" s="46"/>
       <c r="C352" s="42"/>
@@ -38140,7 +38390,7 @@
       <c r="H352" s="49"/>
       <c r="I352" s="43"/>
     </row>
-    <row r="353" spans="1:9" ht="15.75">
+    <row r="353" spans="1:9" ht="15">
       <c r="A353" s="46"/>
       <c r="B353" s="46"/>
       <c r="C353" s="42"/>
@@ -38151,7 +38401,7 @@
       <c r="H353" s="49"/>
       <c r="I353" s="43"/>
     </row>
-    <row r="354" spans="1:9" ht="15.75">
+    <row r="354" spans="1:9" ht="15">
       <c r="A354" s="46"/>
       <c r="B354" s="46"/>
       <c r="C354" s="42"/>
@@ -38162,7 +38412,7 @@
       <c r="H354" s="49"/>
       <c r="I354" s="43"/>
     </row>
-    <row r="355" spans="1:9" ht="15.75">
+    <row r="355" spans="1:9" ht="15">
       <c r="A355" s="46"/>
       <c r="B355" s="46"/>
       <c r="C355" s="42"/>
@@ -38173,7 +38423,7 @@
       <c r="H355" s="49"/>
       <c r="I355" s="43"/>
     </row>
-    <row r="356" spans="1:9" ht="15.75">
+    <row r="356" spans="1:9" ht="15">
       <c r="A356" s="46"/>
       <c r="B356" s="46"/>
       <c r="C356" s="42"/>
@@ -38184,7 +38434,7 @@
       <c r="H356" s="49"/>
       <c r="I356" s="43"/>
     </row>
-    <row r="357" spans="1:9" ht="15.75">
+    <row r="357" spans="1:9" ht="15">
       <c r="A357" s="46"/>
       <c r="B357" s="46"/>
       <c r="C357" s="42"/>
@@ -38195,7 +38445,7 @@
       <c r="H357" s="49"/>
       <c r="I357" s="43"/>
     </row>
-    <row r="358" spans="1:9" ht="15.75">
+    <row r="358" spans="1:9" ht="15">
       <c r="A358" s="46"/>
       <c r="B358" s="46"/>
       <c r="C358" s="42"/>
@@ -38206,7 +38456,7 @@
       <c r="H358" s="49"/>
       <c r="I358" s="43"/>
     </row>
-    <row r="359" spans="1:9" ht="15.75">
+    <row r="359" spans="1:9" ht="15">
       <c r="A359" s="46"/>
       <c r="B359" s="46"/>
       <c r="C359" s="42"/>
@@ -38217,7 +38467,7 @@
       <c r="H359" s="49"/>
       <c r="I359" s="43"/>
     </row>
-    <row r="360" spans="1:9" ht="15.75">
+    <row r="360" spans="1:9" ht="15">
       <c r="A360" s="46"/>
       <c r="B360" s="46"/>
       <c r="C360" s="42"/>
@@ -38228,7 +38478,7 @@
       <c r="H360" s="49"/>
       <c r="I360" s="43"/>
     </row>
-    <row r="361" spans="1:9" ht="15.75">
+    <row r="361" spans="1:9" ht="15">
       <c r="A361" s="46"/>
       <c r="B361" s="46"/>
       <c r="C361" s="42"/>
@@ -38239,7 +38489,7 @@
       <c r="H361" s="49"/>
       <c r="I361" s="43"/>
     </row>
-    <row r="362" spans="1:9" ht="15.75">
+    <row r="362" spans="1:9" ht="15">
       <c r="A362" s="46"/>
       <c r="B362" s="46"/>
       <c r="C362" s="42"/>
@@ -38250,7 +38500,7 @@
       <c r="H362" s="49"/>
       <c r="I362" s="43"/>
     </row>
-    <row r="363" spans="1:9" ht="15.75">
+    <row r="363" spans="1:9" ht="15">
       <c r="A363" s="46"/>
       <c r="B363" s="46"/>
       <c r="C363" s="42"/>
@@ -38261,7 +38511,7 @@
       <c r="H363" s="49"/>
       <c r="I363" s="43"/>
     </row>
-    <row r="364" spans="1:9" ht="15.75">
+    <row r="364" spans="1:9" ht="15">
       <c r="A364" s="46"/>
       <c r="B364" s="46"/>
       <c r="C364" s="42"/>
@@ -38272,7 +38522,7 @@
       <c r="H364" s="49"/>
       <c r="I364" s="43"/>
     </row>
-    <row r="365" spans="1:9" ht="15.75">
+    <row r="365" spans="1:9" ht="15">
       <c r="A365" s="46"/>
       <c r="B365" s="46"/>
       <c r="C365" s="42"/>
@@ -38283,7 +38533,7 @@
       <c r="H365" s="49"/>
       <c r="I365" s="43"/>
     </row>
-    <row r="366" spans="1:9" ht="15.75">
+    <row r="366" spans="1:9" ht="15">
       <c r="A366" s="46"/>
       <c r="B366" s="46"/>
       <c r="C366" s="42"/>
@@ -38294,7 +38544,7 @@
       <c r="H366" s="49"/>
       <c r="I366" s="43"/>
     </row>
-    <row r="367" spans="1:9" ht="15.75">
+    <row r="367" spans="1:9" ht="15">
       <c r="A367" s="46"/>
       <c r="B367" s="46"/>
       <c r="C367" s="42"/>
@@ -38305,7 +38555,7 @@
       <c r="H367" s="49"/>
       <c r="I367" s="43"/>
     </row>
-    <row r="368" spans="1:9" ht="15.75">
+    <row r="368" spans="1:9" ht="15">
       <c r="A368" s="46"/>
       <c r="B368" s="46"/>
       <c r="C368" s="42"/>
@@ -38316,7 +38566,7 @@
       <c r="H368" s="49"/>
       <c r="I368" s="43"/>
     </row>
-    <row r="369" spans="1:9" ht="15.75">
+    <row r="369" spans="1:9" ht="15">
       <c r="A369" s="46"/>
       <c r="B369" s="46"/>
       <c r="C369" s="42"/>
@@ -38327,7 +38577,7 @@
       <c r="H369" s="49"/>
       <c r="I369" s="43"/>
     </row>
-    <row r="370" spans="1:9" ht="15.75">
+    <row r="370" spans="1:9" ht="15">
       <c r="A370" s="46"/>
       <c r="B370" s="46"/>
       <c r="C370" s="42"/>
@@ -38338,7 +38588,7 @@
       <c r="H370" s="49"/>
       <c r="I370" s="43"/>
     </row>
-    <row r="371" spans="1:9" ht="15.75">
+    <row r="371" spans="1:9" ht="15">
       <c r="A371" s="46"/>
       <c r="B371" s="46"/>
       <c r="C371" s="42"/>
@@ -38349,7 +38599,7 @@
       <c r="H371" s="49"/>
       <c r="I371" s="43"/>
     </row>
-    <row r="372" spans="1:9" ht="15.75">
+    <row r="372" spans="1:9" ht="15">
       <c r="A372" s="46"/>
       <c r="B372" s="46"/>
       <c r="C372" s="42"/>
@@ -38360,7 +38610,7 @@
       <c r="H372" s="49"/>
       <c r="I372" s="43"/>
     </row>
-    <row r="373" spans="1:9" ht="15.75">
+    <row r="373" spans="1:9" ht="15">
       <c r="A373" s="46"/>
       <c r="B373" s="46"/>
       <c r="C373" s="42"/>
@@ -38371,7 +38621,7 @@
       <c r="H373" s="49"/>
       <c r="I373" s="43"/>
     </row>
-    <row r="374" spans="1:9" ht="15.75">
+    <row r="374" spans="1:9" ht="15">
       <c r="A374" s="46"/>
       <c r="B374" s="46"/>
       <c r="C374" s="42"/>
@@ -38382,7 +38632,7 @@
       <c r="H374" s="49"/>
       <c r="I374" s="43"/>
     </row>
-    <row r="375" spans="1:9" ht="15.75">
+    <row r="375" spans="1:9" ht="15">
       <c r="A375" s="46"/>
       <c r="B375" s="46"/>
       <c r="C375" s="42"/>
@@ -38393,7 +38643,7 @@
       <c r="H375" s="49"/>
       <c r="I375" s="43"/>
     </row>
-    <row r="376" spans="1:9" ht="15.75">
+    <row r="376" spans="1:9" ht="15">
       <c r="A376" s="46"/>
       <c r="B376" s="46"/>
       <c r="C376" s="42"/>
@@ -38404,7 +38654,7 @@
       <c r="H376" s="49"/>
       <c r="I376" s="43"/>
     </row>
-    <row r="377" spans="1:9" ht="15.75">
+    <row r="377" spans="1:9" ht="15">
       <c r="A377" s="46"/>
       <c r="B377" s="46"/>
       <c r="C377" s="42"/>
@@ -38415,7 +38665,7 @@
       <c r="H377" s="49"/>
       <c r="I377" s="43"/>
     </row>
-    <row r="378" spans="1:9" ht="15.75">
+    <row r="378" spans="1:9" ht="15">
       <c r="A378" s="46"/>
       <c r="B378" s="46"/>
       <c r="C378" s="42"/>
@@ -38426,7 +38676,7 @@
       <c r="H378" s="49"/>
       <c r="I378" s="43"/>
     </row>
-    <row r="379" spans="1:9" ht="15.75">
+    <row r="379" spans="1:9" ht="15">
       <c r="A379" s="46"/>
       <c r="B379" s="46"/>
       <c r="C379" s="42"/>
@@ -38437,7 +38687,7 @@
       <c r="H379" s="49"/>
       <c r="I379" s="43"/>
     </row>
-    <row r="380" spans="1:9" ht="15.75">
+    <row r="380" spans="1:9" ht="15">
       <c r="A380" s="46"/>
       <c r="B380" s="46"/>
       <c r="C380" s="42"/>
@@ -38448,7 +38698,7 @@
       <c r="H380" s="49"/>
       <c r="I380" s="43"/>
     </row>
-    <row r="381" spans="1:9" ht="15.75">
+    <row r="381" spans="1:9" ht="15">
       <c r="A381" s="46"/>
       <c r="B381" s="46"/>
       <c r="C381" s="42"/>
@@ -38459,7 +38709,7 @@
       <c r="H381" s="49"/>
       <c r="I381" s="43"/>
     </row>
-    <row r="382" spans="1:9" ht="15.75">
+    <row r="382" spans="1:9" ht="15">
       <c r="A382" s="46"/>
       <c r="B382" s="46"/>
       <c r="C382" s="42"/>
@@ -38470,7 +38720,7 @@
       <c r="H382" s="49"/>
       <c r="I382" s="43"/>
     </row>
-    <row r="383" spans="1:9" ht="15.75">
+    <row r="383" spans="1:9" ht="15">
       <c r="A383" s="46"/>
       <c r="B383" s="46"/>
       <c r="C383" s="42"/>
@@ -38481,7 +38731,7 @@
       <c r="H383" s="49"/>
       <c r="I383" s="43"/>
     </row>
-    <row r="384" spans="1:9" ht="15.75">
+    <row r="384" spans="1:9" ht="15">
       <c r="A384" s="46"/>
       <c r="B384" s="46"/>
       <c r="C384" s="42"/>
@@ -38492,7 +38742,7 @@
       <c r="H384" s="49"/>
       <c r="I384" s="43"/>
     </row>
-    <row r="385" spans="1:9" ht="15.75">
+    <row r="385" spans="1:9" ht="15">
       <c r="A385" s="46"/>
       <c r="B385" s="46"/>
       <c r="C385" s="42"/>
@@ -38503,7 +38753,7 @@
       <c r="H385" s="49"/>
       <c r="I385" s="43"/>
     </row>
-    <row r="386" spans="1:9" ht="15.75">
+    <row r="386" spans="1:9" ht="15">
       <c r="A386" s="46"/>
       <c r="B386" s="46"/>
       <c r="C386" s="42"/>
@@ -38514,7 +38764,7 @@
       <c r="H386" s="49"/>
       <c r="I386" s="43"/>
     </row>
-    <row r="387" spans="1:9" ht="15.75">
+    <row r="387" spans="1:9" ht="15">
       <c r="A387" s="46"/>
       <c r="B387" s="46"/>
       <c r="C387" s="42"/>
@@ -38525,7 +38775,7 @@
       <c r="H387" s="49"/>
       <c r="I387" s="43"/>
     </row>
-    <row r="388" spans="1:9" ht="15.75">
+    <row r="388" spans="1:9" ht="15">
       <c r="A388" s="46"/>
       <c r="B388" s="46"/>
       <c r="C388" s="42"/>
@@ -38536,7 +38786,7 @@
       <c r="H388" s="49"/>
       <c r="I388" s="43"/>
     </row>
-    <row r="389" spans="1:9" ht="15.75">
+    <row r="389" spans="1:9" ht="15">
       <c r="A389" s="46"/>
       <c r="B389" s="46"/>
       <c r="C389" s="42"/>
@@ -38547,7 +38797,7 @@
       <c r="H389" s="49"/>
       <c r="I389" s="43"/>
     </row>
-    <row r="390" spans="1:9" ht="15.75">
+    <row r="390" spans="1:9" ht="15">
       <c r="A390" s="46"/>
       <c r="B390" s="46"/>
       <c r="C390" s="42"/>
@@ -38558,7 +38808,7 @@
       <c r="H390" s="49"/>
       <c r="I390" s="43"/>
     </row>
-    <row r="391" spans="1:9" ht="15.75">
+    <row r="391" spans="1:9" ht="15">
       <c r="A391" s="46"/>
       <c r="B391" s="46"/>
       <c r="C391" s="42"/>
@@ -38569,7 +38819,7 @@
       <c r="H391" s="49"/>
       <c r="I391" s="43"/>
     </row>
-    <row r="392" spans="1:9" ht="15.75">
+    <row r="392" spans="1:9" ht="15">
       <c r="A392" s="46"/>
       <c r="B392" s="46"/>
       <c r="C392" s="42"/>
@@ -38580,7 +38830,7 @@
       <c r="H392" s="49"/>
       <c r="I392" s="43"/>
     </row>
-    <row r="393" spans="1:9" ht="15.75">
+    <row r="393" spans="1:9" ht="15">
       <c r="A393" s="46"/>
       <c r="B393" s="46"/>
       <c r="C393" s="42"/>
@@ -38591,7 +38841,7 @@
       <c r="H393" s="49"/>
       <c r="I393" s="43"/>
     </row>
-    <row r="394" spans="1:9" ht="15.75">
+    <row r="394" spans="1:9" ht="15">
       <c r="A394" s="46"/>
       <c r="B394" s="46"/>
       <c r="C394" s="42"/>
@@ -38602,7 +38852,7 @@
       <c r="H394" s="49"/>
       <c r="I394" s="43"/>
     </row>
-    <row r="395" spans="1:9" ht="15.75">
+    <row r="395" spans="1:9" ht="15">
       <c r="A395" s="46"/>
       <c r="B395" s="46"/>
       <c r="C395" s="42"/>
@@ -38613,7 +38863,7 @@
       <c r="H395" s="49"/>
       <c r="I395" s="43"/>
     </row>
-    <row r="396" spans="1:9" ht="15.75">
+    <row r="396" spans="1:9" ht="15">
       <c r="A396" s="46"/>
       <c r="B396" s="46"/>
       <c r="C396" s="42"/>
@@ -38624,7 +38874,7 @@
       <c r="H396" s="49"/>
       <c r="I396" s="43"/>
     </row>
-    <row r="397" spans="1:9" ht="15.75">
+    <row r="397" spans="1:9" ht="15">
       <c r="A397" s="46"/>
       <c r="B397" s="46"/>
       <c r="C397" s="42"/>
@@ -38635,7 +38885,7 @@
       <c r="H397" s="49"/>
       <c r="I397" s="43"/>
     </row>
-    <row r="398" spans="1:9" ht="15.75">
+    <row r="398" spans="1:9" ht="15">
       <c r="A398" s="46"/>
       <c r="B398" s="46"/>
       <c r="C398" s="42"/>
@@ -38646,7 +38896,7 @@
       <c r="H398" s="49"/>
       <c r="I398" s="43"/>
     </row>
-    <row r="399" spans="1:9" ht="15.75">
+    <row r="399" spans="1:9" ht="15">
       <c r="A399" s="46"/>
       <c r="B399" s="46"/>
       <c r="C399" s="42"/>
@@ -38657,7 +38907,7 @@
       <c r="H399" s="49"/>
       <c r="I399" s="43"/>
     </row>
-    <row r="400" spans="1:9" ht="15.75">
+    <row r="400" spans="1:9" ht="15">
       <c r="A400" s="46"/>
       <c r="B400" s="46"/>
       <c r="C400" s="42"/>
@@ -38668,7 +38918,7 @@
       <c r="H400" s="49"/>
       <c r="I400" s="43"/>
     </row>
-    <row r="401" spans="1:9" ht="15.75">
+    <row r="401" spans="1:9" ht="15">
       <c r="A401" s="46"/>
       <c r="B401" s="46"/>
       <c r="C401" s="42"/>
@@ -38679,7 +38929,7 @@
       <c r="H401" s="49"/>
       <c r="I401" s="43"/>
     </row>
-    <row r="402" spans="1:9" ht="15.75">
+    <row r="402" spans="1:9" ht="15">
       <c r="A402" s="46"/>
       <c r="B402" s="46"/>
       <c r="C402" s="42"/>
@@ -38690,7 +38940,7 @@
       <c r="H402" s="49"/>
       <c r="I402" s="43"/>
     </row>
-    <row r="403" spans="1:9" ht="15.75">
+    <row r="403" spans="1:9" ht="15">
       <c r="A403" s="46"/>
       <c r="B403" s="46"/>
       <c r="C403" s="42"/>
@@ -38701,7 +38951,7 @@
       <c r="H403" s="49"/>
       <c r="I403" s="43"/>
     </row>
-    <row r="404" spans="1:9" ht="15.75">
+    <row r="404" spans="1:9" ht="15">
       <c r="A404" s="46"/>
       <c r="B404" s="46"/>
       <c r="C404" s="42"/>
@@ -38712,7 +38962,7 @@
       <c r="H404" s="49"/>
       <c r="I404" s="43"/>
     </row>
-    <row r="405" spans="1:9" ht="15.75">
+    <row r="405" spans="1:9" ht="15">
       <c r="A405" s="46"/>
       <c r="B405" s="46"/>
       <c r="C405" s="42"/>
@@ -38723,7 +38973,7 @@
       <c r="H405" s="49"/>
       <c r="I405" s="43"/>
     </row>
-    <row r="406" spans="1:9" ht="15.75">
+    <row r="406" spans="1:9" ht="15">
       <c r="A406" s="46"/>
       <c r="B406" s="46"/>
       <c r="C406" s="42"/>
@@ -38734,7 +38984,7 @@
       <c r="H406" s="49"/>
       <c r="I406" s="43"/>
     </row>
-    <row r="407" spans="1:9" ht="15.75">
+    <row r="407" spans="1:9" ht="15">
       <c r="A407" s="46"/>
       <c r="B407" s="46"/>
       <c r="C407" s="42"/>
@@ -38745,7 +38995,7 @@
       <c r="H407" s="49"/>
       <c r="I407" s="43"/>
     </row>
-    <row r="408" spans="1:9" ht="15.75">
+    <row r="408" spans="1:9" ht="15">
       <c r="A408" s="46"/>
       <c r="B408" s="46"/>
       <c r="C408" s="42"/>
@@ -38756,7 +39006,7 @@
       <c r="H408" s="49"/>
       <c r="I408" s="43"/>
     </row>
-    <row r="409" spans="1:9" ht="15.75">
+    <row r="409" spans="1:9" ht="15">
       <c r="A409" s="46"/>
       <c r="B409" s="46"/>
       <c r="C409" s="42"/>
@@ -38767,7 +39017,7 @@
       <c r="H409" s="49"/>
       <c r="I409" s="43"/>
     </row>
-    <row r="410" spans="1:9" ht="15.75">
+    <row r="410" spans="1:9" ht="15">
       <c r="A410" s="46"/>
       <c r="B410" s="46"/>
       <c r="C410" s="42"/>
@@ -38778,7 +39028,7 @@
       <c r="H410" s="49"/>
       <c r="I410" s="43"/>
     </row>
-    <row r="411" spans="1:9" ht="15.75">
+    <row r="411" spans="1:9" ht="15">
       <c r="A411" s="46"/>
       <c r="B411" s="46"/>
       <c r="C411" s="42"/>
@@ -38789,7 +39039,7 @@
       <c r="H411" s="49"/>
       <c r="I411" s="43"/>
     </row>
-    <row r="412" spans="1:9" ht="15.75">
+    <row r="412" spans="1:9" ht="15">
       <c r="A412" s="46"/>
       <c r="B412" s="46"/>
       <c r="C412" s="42"/>
@@ -38800,7 +39050,7 @@
       <c r="H412" s="49"/>
       <c r="I412" s="43"/>
     </row>
-    <row r="413" spans="1:9" ht="15.75">
+    <row r="413" spans="1:9" ht="15">
       <c r="A413" s="46"/>
       <c r="B413" s="46"/>
       <c r="C413" s="42"/>
@@ -38811,7 +39061,7 @@
       <c r="H413" s="49"/>
       <c r="I413" s="43"/>
     </row>
-    <row r="414" spans="1:9" ht="15.75">
+    <row r="414" spans="1:9" ht="15">
       <c r="A414" s="46"/>
       <c r="B414" s="46"/>
       <c r="C414" s="42"/>
@@ -38822,7 +39072,7 @@
       <c r="H414" s="49"/>
       <c r="I414" s="43"/>
     </row>
-    <row r="415" spans="1:9" ht="15.75">
+    <row r="415" spans="1:9" ht="15">
       <c r="A415" s="46"/>
       <c r="B415" s="46"/>
       <c r="C415" s="42"/>
@@ -38833,7 +39083,7 @@
       <c r="H415" s="49"/>
       <c r="I415" s="43"/>
     </row>
-    <row r="416" spans="1:9" ht="15.75">
+    <row r="416" spans="1:9" ht="15">
       <c r="A416" s="46"/>
       <c r="B416" s="46"/>
       <c r="C416" s="42"/>
@@ -38844,7 +39094,7 @@
       <c r="H416" s="49"/>
       <c r="I416" s="43"/>
     </row>
-    <row r="417" spans="1:9" ht="15.75">
+    <row r="417" spans="1:9" ht="15">
       <c r="A417" s="46"/>
       <c r="B417" s="46"/>
       <c r="C417" s="42"/>
@@ -38855,7 +39105,7 @@
       <c r="H417" s="49"/>
       <c r="I417" s="43"/>
     </row>
-    <row r="418" spans="1:9" ht="15.75">
+    <row r="418" spans="1:9" ht="15">
       <c r="A418" s="46"/>
       <c r="B418" s="46"/>
       <c r="C418" s="42"/>
@@ -38866,7 +39116,7 @@
       <c r="H418" s="49"/>
       <c r="I418" s="43"/>
     </row>
-    <row r="419" spans="1:9" ht="15.75">
+    <row r="419" spans="1:9" ht="15">
       <c r="A419" s="46"/>
       <c r="B419" s="46"/>
       <c r="C419" s="42"/>
@@ -38877,7 +39127,7 @@
       <c r="H419" s="49"/>
       <c r="I419" s="43"/>
     </row>
-    <row r="420" spans="1:9" ht="15.75">
+    <row r="420" spans="1:9" ht="15">
       <c r="A420" s="46"/>
       <c r="B420" s="46"/>
       <c r="C420" s="42"/>
@@ -38888,7 +39138,7 @@
       <c r="H420" s="49"/>
       <c r="I420" s="43"/>
     </row>
-    <row r="421" spans="1:9" ht="15.75">
+    <row r="421" spans="1:9" ht="15">
       <c r="A421" s="46"/>
       <c r="B421" s="46"/>
       <c r="C421" s="42"/>
@@ -38899,7 +39149,7 @@
       <c r="H421" s="49"/>
       <c r="I421" s="43"/>
     </row>
-    <row r="422" spans="1:9" ht="15.75">
+    <row r="422" spans="1:9" ht="15">
       <c r="A422" s="46"/>
       <c r="B422" s="46"/>
       <c r="C422" s="42"/>
@@ -38910,7 +39160,7 @@
       <c r="H422" s="49"/>
       <c r="I422" s="43"/>
     </row>
-    <row r="423" spans="1:9" ht="15.75">
+    <row r="423" spans="1:9" ht="15">
       <c r="A423" s="46"/>
       <c r="B423" s="46"/>
       <c r="C423" s="42"/>
@@ -38921,7 +39171,7 @@
       <c r="H423" s="49"/>
       <c r="I423" s="43"/>
     </row>
-    <row r="424" spans="1:9" ht="15.75">
+    <row r="424" spans="1:9" ht="15">
       <c r="A424" s="46"/>
       <c r="B424" s="46"/>
       <c r="C424" s="42"/>
@@ -38932,7 +39182,7 @@
       <c r="H424" s="49"/>
       <c r="I424" s="43"/>
     </row>
-    <row r="425" spans="1:9" ht="15.75">
+    <row r="425" spans="1:9" ht="15">
       <c r="A425" s="46"/>
       <c r="B425" s="46"/>
       <c r="C425" s="42"/>
@@ -38943,7 +39193,7 @@
       <c r="H425" s="49"/>
       <c r="I425" s="43"/>
     </row>
-    <row r="426" spans="1:9" ht="15.75">
+    <row r="426" spans="1:9" ht="15">
       <c r="A426" s="46"/>
       <c r="B426" s="46"/>
       <c r="C426" s="42"/>
@@ -38954,7 +39204,7 @@
       <c r="H426" s="49"/>
       <c r="I426" s="43"/>
     </row>
-    <row r="427" spans="1:9" ht="15.75">
+    <row r="427" spans="1:9" ht="15">
       <c r="A427" s="46"/>
       <c r="B427" s="46"/>
       <c r="C427" s="42"/>
@@ -38965,7 +39215,7 @@
       <c r="H427" s="49"/>
       <c r="I427" s="43"/>
     </row>
-    <row r="428" spans="1:9" ht="15.75">
+    <row r="428" spans="1:9" ht="15">
       <c r="A428" s="46"/>
       <c r="B428" s="46"/>
       <c r="C428" s="42"/>
@@ -38976,7 +39226,7 @@
       <c r="H428" s="49"/>
       <c r="I428" s="43"/>
     </row>
-    <row r="429" spans="1:9" ht="15.75">
+    <row r="429" spans="1:9" ht="15">
       <c r="A429" s="46"/>
       <c r="B429" s="46"/>
       <c r="C429" s="42"/>
@@ -38987,7 +39237,7 @@
       <c r="H429" s="49"/>
       <c r="I429" s="43"/>
     </row>
-    <row r="430" spans="1:9" ht="15.75">
+    <row r="430" spans="1:9" ht="15">
       <c r="A430" s="46"/>
       <c r="B430" s="46"/>
       <c r="C430" s="42"/>
@@ -38998,7 +39248,7 @@
       <c r="H430" s="49"/>
       <c r="I430" s="43"/>
     </row>
-    <row r="431" spans="1:9" ht="15.75">
+    <row r="431" spans="1:9" ht="15">
       <c r="A431" s="46"/>
       <c r="B431" s="46"/>
       <c r="C431" s="42"/>
@@ -39009,7 +39259,7 @@
       <c r="H431" s="49"/>
       <c r="I431" s="43"/>
     </row>
-    <row r="432" spans="1:9" ht="15.75">
+    <row r="432" spans="1:9" ht="15">
       <c r="A432" s="46"/>
       <c r="B432" s="46"/>
       <c r="C432" s="42"/>
@@ -39020,7 +39270,7 @@
       <c r="H432" s="49"/>
       <c r="I432" s="43"/>
     </row>
-    <row r="433" spans="1:9" ht="15.75">
+    <row r="433" spans="1:9" ht="15">
       <c r="A433" s="46"/>
       <c r="B433" s="46"/>
       <c r="C433" s="42"/>
@@ -39031,7 +39281,7 @@
       <c r="H433" s="49"/>
       <c r="I433" s="43"/>
     </row>
-    <row r="434" spans="1:9" ht="15.75">
+    <row r="434" spans="1:9" ht="15">
       <c r="A434" s="46"/>
       <c r="B434" s="46"/>
       <c r="C434" s="42"/>
@@ -39042,7 +39292,7 @@
       <c r="H434" s="49"/>
       <c r="I434" s="43"/>
     </row>
-    <row r="435" spans="1:9" ht="15.75">
+    <row r="435" spans="1:9" ht="15">
       <c r="A435" s="46"/>
       <c r="B435" s="46"/>
       <c r="C435" s="42"/>
@@ -39053,7 +39303,7 @@
       <c r="H435" s="49"/>
       <c r="I435" s="43"/>
     </row>
-    <row r="436" spans="1:9" ht="15.75">
+    <row r="436" spans="1:9" ht="15">
       <c r="A436" s="46"/>
       <c r="B436" s="46"/>
       <c r="C436" s="42"/>
@@ -39064,7 +39314,7 @@
       <c r="H436" s="49"/>
       <c r="I436" s="43"/>
     </row>
-    <row r="437" spans="1:9" ht="15.75">
+    <row r="437" spans="1:9" ht="15">
       <c r="A437" s="46"/>
       <c r="B437" s="46"/>
       <c r="C437" s="42"/>
@@ -39075,7 +39325,7 @@
       <c r="H437" s="49"/>
       <c r="I437" s="43"/>
     </row>
-    <row r="438" spans="1:9" ht="15.75">
+    <row r="438" spans="1:9" ht="15">
       <c r="A438" s="46"/>
       <c r="B438" s="46"/>
       <c r="C438" s="42"/>
@@ -39086,7 +39336,7 @@
       <c r="H438" s="49"/>
       <c r="I438" s="43"/>
     </row>
-    <row r="439" spans="1:9" ht="15.75">
+    <row r="439" spans="1:9" ht="15">
       <c r="A439" s="46"/>
       <c r="B439" s="46"/>
       <c r="C439" s="42"/>
@@ -39097,7 +39347,7 @@
       <c r="H439" s="49"/>
       <c r="I439" s="43"/>
     </row>
-    <row r="440" spans="1:9" ht="15.75">
+    <row r="440" spans="1:9" ht="15">
       <c r="A440" s="46"/>
       <c r="B440" s="46"/>
       <c r="C440" s="42"/>
@@ -39108,7 +39358,7 @@
       <c r="H440" s="49"/>
       <c r="I440" s="43"/>
     </row>
-    <row r="441" spans="1:9" ht="15.75">
+    <row r="441" spans="1:9" ht="15">
       <c r="A441" s="46"/>
       <c r="B441" s="46"/>
       <c r="C441" s="42"/>
@@ -39119,7 +39369,7 @@
       <c r="H441" s="49"/>
       <c r="I441" s="43"/>
     </row>
-    <row r="442" spans="1:9" ht="15.75">
+    <row r="442" spans="1:9" ht="15">
       <c r="A442" s="46"/>
       <c r="B442" s="46"/>
       <c r="C442" s="42"/>
@@ -39130,7 +39380,7 @@
       <c r="H442" s="49"/>
       <c r="I442" s="43"/>
     </row>
-    <row r="443" spans="1:9" ht="15.75">
+    <row r="443" spans="1:9" ht="15">
       <c r="A443" s="46"/>
       <c r="B443" s="46"/>
       <c r="C443" s="42"/>
@@ -39141,7 +39391,7 @@
       <c r="H443" s="49"/>
       <c r="I443" s="43"/>
     </row>
-    <row r="444" spans="1:9" ht="15.75">
+    <row r="444" spans="1:9" ht="15">
       <c r="A444" s="46"/>
       <c r="B444" s="46"/>
       <c r="C444" s="42"/>
@@ -39152,7 +39402,7 @@
       <c r="H444" s="49"/>
       <c r="I444" s="43"/>
     </row>
-    <row r="445" spans="1:9" ht="15.75">
+    <row r="445" spans="1:9" ht="15">
       <c r="A445" s="46"/>
       <c r="B445" s="46"/>
       <c r="C445" s="42"/>
@@ -39163,7 +39413,7 @@
       <c r="H445" s="49"/>
       <c r="I445" s="43"/>
     </row>
-    <row r="446" spans="1:9" ht="15.75">
+    <row r="446" spans="1:9" ht="15">
       <c r="A446" s="46"/>
       <c r="B446" s="46"/>
       <c r="C446" s="42"/>
@@ -39174,7 +39424,7 @@
       <c r="H446" s="49"/>
       <c r="I446" s="43"/>
     </row>
-    <row r="447" spans="1:9" ht="15.75">
+    <row r="447" spans="1:9" ht="15">
       <c r="A447" s="46"/>
       <c r="B447" s="46"/>
       <c r="C447" s="42"/>
@@ -39185,7 +39435,7 @@
       <c r="H447" s="49"/>
       <c r="I447" s="43"/>
     </row>
-    <row r="448" spans="1:9" ht="15.75">
+    <row r="448" spans="1:9" ht="15">
       <c r="A448" s="46"/>
       <c r="B448" s="46"/>
       <c r="C448" s="42"/>
@@ -39196,7 +39446,7 @@
       <c r="H448" s="49"/>
       <c r="I448" s="43"/>
     </row>
-    <row r="449" spans="1:9" ht="15.75">
+    <row r="449" spans="1:9" ht="15">
       <c r="A449" s="46"/>
       <c r="B449" s="46"/>
       <c r="C449" s="42"/>
@@ -39207,7 +39457,7 @@
       <c r="H449" s="49"/>
       <c r="I449" s="43"/>
     </row>
-    <row r="450" spans="1:9" ht="15.75">
+    <row r="450" spans="1:9" ht="15">
       <c r="A450" s="46"/>
       <c r="B450" s="46"/>
       <c r="C450" s="42"/>
@@ -39218,7 +39468,7 @@
       <c r="H450" s="49"/>
       <c r="I450" s="43"/>
     </row>
-    <row r="451" spans="1:9" ht="15.75">
+    <row r="451" spans="1:9" ht="15">
       <c r="A451" s="46"/>
       <c r="B451" s="46"/>
       <c r="C451" s="42"/>
@@ -39229,7 +39479,7 @@
       <c r="H451" s="49"/>
       <c r="I451" s="43"/>
     </row>
-    <row r="452" spans="1:9" ht="15.75">
+    <row r="452" spans="1:9" ht="15">
       <c r="A452" s="46"/>
       <c r="B452" s="46"/>
       <c r="C452" s="42"/>
@@ -39240,7 +39490,7 @@
       <c r="H452" s="49"/>
       <c r="I452" s="43"/>
     </row>
-    <row r="453" spans="1:9" ht="15.75">
+    <row r="453" spans="1:9" ht="15">
       <c r="A453" s="46"/>
       <c r="B453" s="46"/>
       <c r="C453" s="42"/>
@@ -39251,7 +39501,7 @@
       <c r="H453" s="49"/>
       <c r="I453" s="43"/>
     </row>
-    <row r="454" spans="1:9" ht="15.75">
+    <row r="454" spans="1:9" ht="15">
       <c r="A454" s="46"/>
       <c r="B454" s="46"/>
       <c r="C454" s="42"/>
@@ -39262,7 +39512,7 @@
       <c r="H454" s="49"/>
       <c r="I454" s="43"/>
     </row>
-    <row r="455" spans="1:9" ht="15.75">
+    <row r="455" spans="1:9" ht="15">
       <c r="A455" s="46"/>
       <c r="B455" s="46"/>
       <c r="C455" s="42"/>
@@ -39273,7 +39523,7 @@
       <c r="H455" s="49"/>
       <c r="I455" s="43"/>
     </row>
-    <row r="456" spans="1:9" ht="15.75">
+    <row r="456" spans="1:9" ht="15">
       <c r="A456" s="46"/>
       <c r="B456" s="46"/>
       <c r="C456" s="42"/>
@@ -39284,7 +39534,7 @@
       <c r="H456" s="49"/>
       <c r="I456" s="43"/>
     </row>
-    <row r="457" spans="1:9" ht="15.75">
+    <row r="457" spans="1:9" ht="15">
       <c r="A457" s="46"/>
       <c r="B457" s="46"/>
       <c r="C457" s="42"/>
@@ -39295,7 +39545,7 @@
       <c r="H457" s="49"/>
       <c r="I457" s="43"/>
     </row>
-    <row r="458" spans="1:9" ht="15.75">
+    <row r="458" spans="1:9" ht="15">
       <c r="A458" s="46"/>
       <c r="B458" s="46"/>
       <c r="C458" s="42"/>
@@ -39306,7 +39556,7 @@
       <c r="H458" s="49"/>
       <c r="I458" s="43"/>
     </row>
-    <row r="459" spans="1:9" ht="15.75">
+    <row r="459" spans="1:9" ht="15">
       <c r="A459" s="46"/>
       <c r="B459" s="46"/>
       <c r="C459" s="42"/>
@@ -39317,7 +39567,7 @@
       <c r="H459" s="49"/>
       <c r="I459" s="43"/>
     </row>
-    <row r="460" spans="1:9" ht="15.75">
+    <row r="460" spans="1:9" ht="15">
       <c r="A460" s="46"/>
       <c r="B460" s="46"/>
       <c r="C460" s="42"/>
@@ -39328,7 +39578,7 @@
       <c r="H460" s="49"/>
       <c r="I460" s="43"/>
     </row>
-    <row r="461" spans="1:9" ht="15.75">
+    <row r="461" spans="1:9" ht="15">
       <c r="A461" s="46"/>
       <c r="B461" s="46"/>
       <c r="C461" s="42"/>
@@ -39339,7 +39589,7 @@
       <c r="H461" s="49"/>
       <c r="I461" s="43"/>
     </row>
-    <row r="462" spans="1:9" ht="15.75">
+    <row r="462" spans="1:9" ht="15">
       <c r="A462" s="46"/>
       <c r="B462" s="46"/>
       <c r="C462" s="42"/>
@@ -39350,7 +39600,7 @@
       <c r="H462" s="49"/>
       <c r="I462" s="43"/>
     </row>
-    <row r="463" spans="1:9" ht="15.75">
+    <row r="463" spans="1:9" ht="15">
       <c r="A463" s="46"/>
       <c r="B463" s="46"/>
       <c r="C463" s="42"/>
@@ -39361,7 +39611,7 @@
       <c r="H463" s="49"/>
       <c r="I463" s="43"/>
     </row>
-    <row r="464" spans="1:9" ht="15.75">
+    <row r="464" spans="1:9" ht="15">
       <c r="A464" s="46"/>
       <c r="B464" s="46"/>
       <c r="C464" s="42"/>
@@ -39372,7 +39622,7 @@
       <c r="H464" s="49"/>
       <c r="I464" s="43"/>
     </row>
-    <row r="465" spans="1:9" ht="15.75">
+    <row r="465" spans="1:9" ht="15">
       <c r="A465" s="46"/>
       <c r="B465" s="46"/>
       <c r="C465" s="42"/>
@@ -39383,7 +39633,7 @@
       <c r="H465" s="49"/>
       <c r="I465" s="43"/>
     </row>
-    <row r="466" spans="1:9" ht="15.75">
+    <row r="466" spans="1:9" ht="15">
       <c r="A466" s="46"/>
       <c r="B466" s="46"/>
       <c r="C466" s="42"/>
@@ -39394,7 +39644,7 @@
       <c r="H466" s="49"/>
       <c r="I466" s="43"/>
     </row>
-    <row r="467" spans="1:9" ht="15.75">
+    <row r="467" spans="1:9" ht="15">
       <c r="A467" s="46"/>
       <c r="B467" s="46"/>
       <c r="C467" s="42"/>
@@ -39405,7 +39655,7 @@
       <c r="H467" s="49"/>
       <c r="I467" s="43"/>
     </row>
-    <row r="468" spans="1:9" ht="15.75">
+    <row r="468" spans="1:9" ht="15">
       <c r="A468" s="46"/>
       <c r="B468" s="46"/>
       <c r="C468" s="42"/>
@@ -39416,7 +39666,7 @@
       <c r="H468" s="49"/>
       <c r="I468" s="43"/>
     </row>
-    <row r="469" spans="1:9" ht="15.75">
+    <row r="469" spans="1:9" ht="15">
       <c r="A469" s="46"/>
       <c r="B469" s="46"/>
       <c r="C469" s="42"/>
@@ -39427,7 +39677,7 @@
       <c r="H469" s="49"/>
       <c r="I469" s="43"/>
     </row>
-    <row r="470" spans="1:9" ht="15.75">
+    <row r="470" spans="1:9" ht="15">
       <c r="A470" s="46"/>
       <c r="B470" s="46"/>
       <c r="C470" s="42"/>
@@ -39438,7 +39688,7 @@
       <c r="H470" s="49"/>
       <c r="I470" s="43"/>
     </row>
-    <row r="471" spans="1:9" ht="15.75">
+    <row r="471" spans="1:9" ht="15">
       <c r="A471" s="46"/>
       <c r="B471" s="46"/>
       <c r="C471" s="42"/>
@@ -39449,7 +39699,7 @@
       <c r="H471" s="49"/>
       <c r="I471" s="43"/>
     </row>
-    <row r="472" spans="1:9" ht="15.75">
+    <row r="472" spans="1:9" ht="15">
       <c r="A472" s="46"/>
       <c r="B472" s="46"/>
       <c r="C472" s="42"/>
@@ -39460,7 +39710,7 @@
       <c r="H472" s="49"/>
       <c r="I472" s="43"/>
     </row>
-    <row r="473" spans="1:9" ht="15.75">
+    <row r="473" spans="1:9" ht="15">
       <c r="A473" s="46"/>
       <c r="B473" s="46"/>
       <c r="C473" s="42"/>
@@ -39471,7 +39721,7 @@
       <c r="H473" s="49"/>
       <c r="I473" s="43"/>
     </row>
-    <row r="474" spans="1:9" ht="15.75">
+    <row r="474" spans="1:9" ht="15">
       <c r="A474" s="46"/>
       <c r="B474" s="46"/>
       <c r="C474" s="42"/>
@@ -39482,7 +39732,7 @@
       <c r="H474" s="49"/>
       <c r="I474" s="43"/>
     </row>
-    <row r="475" spans="1:9" ht="15.75">
+    <row r="475" spans="1:9" ht="15">
       <c r="A475" s="46"/>
       <c r="B475" s="46"/>
       <c r="C475" s="42"/>
@@ -39493,7 +39743,7 @@
       <c r="H475" s="49"/>
       <c r="I475" s="43"/>
     </row>
-    <row r="476" spans="1:9" ht="15.75">
+    <row r="476" spans="1:9" ht="15">
       <c r="A476" s="46"/>
       <c r="B476" s="46"/>
       <c r="C476" s="42"/>
@@ -39504,7 +39754,7 @@
       <c r="H476" s="49"/>
       <c r="I476" s="43"/>
     </row>
-    <row r="477" spans="1:9" ht="15.75">
+    <row r="477" spans="1:9" ht="15">
       <c r="A477" s="46"/>
       <c r="B477" s="46"/>
       <c r="C477" s="42"/>
@@ -39515,7 +39765,7 @@
       <c r="H477" s="49"/>
       <c r="I477" s="43"/>
     </row>
-    <row r="478" spans="1:9" ht="15.75">
+    <row r="478" spans="1:9" ht="15">
       <c r="A478" s="46"/>
       <c r="B478" s="46"/>
       <c r="C478" s="42"/>
@@ -39526,7 +39776,7 @@
       <c r="H478" s="49"/>
       <c r="I478" s="43"/>
     </row>
-    <row r="479" spans="1:9" ht="15.75">
+    <row r="479" spans="1:9" ht="15">
       <c r="A479" s="46"/>
       <c r="B479" s="46"/>
       <c r="C479" s="42"/>
@@ -39537,7 +39787,7 @@
       <c r="H479" s="49"/>
       <c r="I479" s="43"/>
     </row>
-    <row r="480" spans="1:9" ht="15.75">
+    <row r="480" spans="1:9" ht="15">
       <c r="A480" s="46"/>
       <c r="B480" s="46"/>
       <c r="C480" s="42"/>
@@ -39548,7 +39798,7 @@
       <c r="H480" s="49"/>
       <c r="I480" s="43"/>
     </row>
-    <row r="481" spans="1:9" ht="15.75">
+    <row r="481" spans="1:9" ht="15">
       <c r="A481" s="46"/>
       <c r="B481" s="46"/>
       <c r="C481" s="42"/>
@@ -39559,7 +39809,7 @@
       <c r="H481" s="49"/>
       <c r="I481" s="43"/>
     </row>
-    <row r="482" spans="1:9" ht="15.75">
+    <row r="482" spans="1:9" ht="15">
       <c r="A482" s="46"/>
       <c r="B482" s="46"/>
       <c r="C482" s="42"/>
@@ -39570,7 +39820,7 @@
       <c r="H482" s="49"/>
       <c r="I482" s="43"/>
     </row>
-    <row r="483" spans="1:9" ht="15.75">
+    <row r="483" spans="1:9" ht="15">
       <c r="A483" s="46"/>
       <c r="B483" s="46"/>
       <c r="C483" s="42"/>
@@ -39581,7 +39831,7 @@
       <c r="H483" s="49"/>
       <c r="I483" s="43"/>
     </row>
-    <row r="484" spans="1:9" ht="15.75">
+    <row r="484" spans="1:9" ht="15">
       <c r="A484" s="46"/>
       <c r="B484" s="46"/>
       <c r="C484" s="42"/>
@@ -39592,7 +39842,7 @@
       <c r="H484" s="49"/>
       <c r="I484" s="43"/>
     </row>
-    <row r="485" spans="1:9" ht="15.75">
+    <row r="485" spans="1:9" ht="15">
       <c r="A485" s="46"/>
       <c r="B485" s="46"/>
       <c r="C485" s="42"/>
@@ -39603,7 +39853,7 @@
       <c r="H485" s="49"/>
       <c r="I485" s="43"/>
     </row>
-    <row r="486" spans="1:9" ht="15.75">
+    <row r="486" spans="1:9" ht="15">
       <c r="A486" s="46"/>
       <c r="B486" s="46"/>
       <c r="C486" s="42"/>
@@ -39614,7 +39864,7 @@
       <c r="H486" s="49"/>
       <c r="I486" s="43"/>
     </row>
-    <row r="487" spans="1:9" ht="15.75">
+    <row r="487" spans="1:9" ht="15">
       <c r="A487" s="46"/>
       <c r="B487" s="46"/>
       <c r="C487" s="42"/>
@@ -39625,7 +39875,7 @@
       <c r="H487" s="49"/>
       <c r="I487" s="43"/>
     </row>
-    <row r="488" spans="1:9" ht="15.75">
+    <row r="488" spans="1:9" ht="15">
       <c r="A488" s="46"/>
       <c r="B488" s="46"/>
       <c r="C488" s="42"/>
@@ -39636,7 +39886,7 @@
       <c r="H488" s="49"/>
       <c r="I488" s="43"/>
     </row>
-    <row r="489" spans="1:9" ht="15.75">
+    <row r="489" spans="1:9" ht="15">
       <c r="A489" s="46"/>
       <c r="B489" s="46"/>
       <c r="C489" s="42"/>
@@ -39647,7 +39897,7 @@
       <c r="H489" s="49"/>
       <c r="I489" s="43"/>
     </row>
-    <row r="490" spans="1:9" ht="15.75">
+    <row r="490" spans="1:9" ht="15">
       <c r="A490" s="46"/>
       <c r="B490" s="46"/>
       <c r="C490" s="42"/>
@@ -39658,7 +39908,7 @@
       <c r="H490" s="49"/>
       <c r="I490" s="43"/>
     </row>
-    <row r="491" spans="1:9" ht="15.75">
+    <row r="491" spans="1:9" ht="15">
       <c r="A491" s="46"/>
       <c r="B491" s="46"/>
       <c r="C491" s="42"/>
@@ -39669,7 +39919,7 @@
       <c r="H491" s="49"/>
       <c r="I491" s="43"/>
     </row>
-    <row r="492" spans="1:9" ht="15.75">
+    <row r="492" spans="1:9" ht="15">
       <c r="A492" s="46"/>
       <c r="B492" s="46"/>
       <c r="C492" s="42"/>
@@ -39680,7 +39930,7 @@
       <c r="H492" s="49"/>
       <c r="I492" s="43"/>
     </row>
-    <row r="493" spans="1:9" ht="15.75">
+    <row r="493" spans="1:9" ht="15">
       <c r="A493" s="46"/>
       <c r="B493" s="46"/>
       <c r="C493" s="42"/>
@@ -39691,7 +39941,7 @@
       <c r="H493" s="49"/>
       <c r="I493" s="43"/>
     </row>
-    <row r="494" spans="1:9" ht="15.75">
+    <row r="494" spans="1:9" ht="15">
       <c r="A494" s="46"/>
       <c r="B494" s="46"/>
       <c r="C494" s="42"/>
@@ -39702,7 +39952,7 @@
       <c r="H494" s="49"/>
       <c r="I494" s="43"/>
     </row>
-    <row r="495" spans="1:9" ht="15.75">
+    <row r="495" spans="1:9" ht="15">
       <c r="A495" s="46"/>
       <c r="B495" s="46"/>
       <c r="C495" s="42"/>
@@ -39713,7 +39963,7 @@
       <c r="H495" s="49"/>
       <c r="I495" s="43"/>
     </row>
-    <row r="496" spans="1:9" ht="15.75">
+    <row r="496" spans="1:9" ht="15">
       <c r="A496" s="46"/>
       <c r="B496" s="46"/>
       <c r="C496" s="42"/>
@@ -39724,7 +39974,7 @@
       <c r="H496" s="49"/>
       <c r="I496" s="43"/>
     </row>
-    <row r="497" spans="1:9" ht="15.75">
+    <row r="497" spans="1:9" ht="15">
       <c r="A497" s="46"/>
       <c r="B497" s="46"/>
       <c r="C497" s="42"/>
@@ -39735,7 +39985,7 @@
       <c r="H497" s="49"/>
       <c r="I497" s="43"/>
     </row>
-    <row r="498" spans="1:9" ht="15.75">
+    <row r="498" spans="1:9" ht="15">
       <c r="A498" s="46"/>
       <c r="B498" s="46"/>
       <c r="C498" s="42"/>
@@ -39746,7 +39996,7 @@
       <c r="H498" s="49"/>
       <c r="I498" s="43"/>
     </row>
-    <row r="499" spans="1:9" ht="15.75">
+    <row r="499" spans="1:9" ht="15">
       <c r="A499" s="46"/>
       <c r="B499" s="46"/>
       <c r="C499" s="42"/>
@@ -39757,7 +40007,7 @@
       <c r="H499" s="49"/>
       <c r="I499" s="43"/>
     </row>
-    <row r="500" spans="1:9" ht="15.75">
+    <row r="500" spans="1:9" ht="15">
       <c r="A500" s="46"/>
       <c r="B500" s="46"/>
       <c r="C500" s="42"/>
@@ -39768,7 +40018,7 @@
       <c r="H500" s="49"/>
       <c r="I500" s="43"/>
     </row>
-    <row r="501" spans="1:9" ht="15.75">
+    <row r="501" spans="1:9" ht="15">
       <c r="A501" s="46"/>
       <c r="B501" s="46"/>
       <c r="C501" s="42"/>
@@ -39779,7 +40029,7 @@
       <c r="H501" s="49"/>
       <c r="I501" s="43"/>
     </row>
-    <row r="502" spans="1:9" ht="15.75">
+    <row r="502" spans="1:9" ht="15">
       <c r="A502" s="46"/>
       <c r="B502" s="46"/>
       <c r="C502" s="42"/>
@@ -39790,7 +40040,7 @@
       <c r="H502" s="49"/>
       <c r="I502" s="43"/>
     </row>
-    <row r="503" spans="1:9" ht="15.75">
+    <row r="503" spans="1:9" ht="15">
       <c r="A503" s="46"/>
       <c r="B503" s="46"/>
       <c r="C503" s="42"/>
@@ -39801,7 +40051,7 @@
       <c r="H503" s="49"/>
       <c r="I503" s="43"/>
     </row>
-    <row r="504" spans="1:9" ht="15.75">
+    <row r="504" spans="1:9" ht="15">
       <c r="A504" s="46"/>
       <c r="B504" s="46"/>
       <c r="C504" s="42"/>
@@ -39812,7 +40062,7 @@
       <c r="H504" s="49"/>
       <c r="I504" s="43"/>
     </row>
-    <row r="505" spans="1:9" ht="15.75">
+    <row r="505" spans="1:9" ht="15">
       <c r="A505" s="46"/>
       <c r="B505" s="46"/>
       <c r="C505" s="42"/>
@@ -39823,7 +40073,7 @@
       <c r="H505" s="49"/>
       <c r="I505" s="43"/>
     </row>
-    <row r="506" spans="1:9" ht="15.75">
+    <row r="506" spans="1:9" ht="15">
       <c r="A506" s="46"/>
       <c r="B506" s="46"/>
       <c r="C506" s="42"/>
@@ -39834,7 +40084,7 @@
       <c r="H506" s="49"/>
       <c r="I506" s="43"/>
     </row>
-    <row r="507" spans="1:9" ht="15.75">
+    <row r="507" spans="1:9" ht="15">
       <c r="A507" s="46"/>
       <c r="B507" s="46"/>
       <c r="C507" s="42"/>
@@ -39845,7 +40095,7 @@
       <c r="H507" s="49"/>
       <c r="I507" s="43"/>
     </row>
-    <row r="508" spans="1:9" ht="15.75">
+    <row r="508" spans="1:9" ht="15">
       <c r="A508" s="46"/>
       <c r="B508" s="46"/>
       <c r="C508" s="42"/>
@@ -39856,7 +40106,7 @@
       <c r="H508" s="49"/>
       <c r="I508" s="43"/>
     </row>
-    <row r="509" spans="1:9" ht="15.75">
+    <row r="509" spans="1:9" ht="15">
       <c r="A509" s="46"/>
       <c r="B509" s="46"/>
       <c r="C509" s="42"/>
@@ -39867,7 +40117,7 @@
       <c r="H509" s="49"/>
       <c r="I509" s="43"/>
     </row>
-    <row r="510" spans="1:9" ht="15.75">
+    <row r="510" spans="1:9" ht="15">
       <c r="A510" s="46"/>
       <c r="B510" s="46"/>
       <c r="C510" s="42"/>
@@ -39878,7 +40128,7 @@
       <c r="H510" s="49"/>
       <c r="I510" s="43"/>
     </row>
-    <row r="511" spans="1:9" ht="15.75">
+    <row r="511" spans="1:9" ht="15">
       <c r="A511" s="46"/>
       <c r="B511" s="46"/>
       <c r="C511" s="42"/>
@@ -39889,7 +40139,7 @@
       <c r="H511" s="49"/>
       <c r="I511" s="43"/>
     </row>
-    <row r="512" spans="1:9" ht="15.75">
+    <row r="512" spans="1:9" ht="15">
       <c r="A512" s="46"/>
       <c r="B512" s="46"/>
       <c r="C512" s="42"/>
@@ -39900,7 +40150,7 @@
       <c r="H512" s="49"/>
       <c r="I512" s="43"/>
     </row>
-    <row r="513" spans="1:9" ht="15.75">
+    <row r="513" spans="1:9" ht="15">
       <c r="A513" s="46"/>
       <c r="B513" s="46"/>
       <c r="C513" s="42"/>
@@ -39911,7 +40161,7 @@
       <c r="H513" s="49"/>
       <c r="I513" s="43"/>
     </row>
-    <row r="514" spans="1:9" ht="15.75">
+    <row r="514" spans="1:9" ht="15">
       <c r="A514" s="46"/>
       <c r="B514" s="46"/>
       <c r="C514" s="42"/>
@@ -39922,7 +40172,7 @@
       <c r="H514" s="49"/>
       <c r="I514" s="43"/>
     </row>
-    <row r="515" spans="1:9" ht="15.75">
+    <row r="515" spans="1:9" ht="15">
       <c r="A515" s="46"/>
       <c r="B515" s="46"/>
       <c r="C515" s="42"/>
@@ -39933,7 +40183,7 @@
       <c r="H515" s="49"/>
       <c r="I515" s="43"/>
     </row>
-    <row r="516" spans="1:9" ht="15.75">
+    <row r="516" spans="1:9" ht="15">
       <c r="A516" s="46"/>
       <c r="B516" s="46"/>
       <c r="C516" s="42"/>
@@ -39944,7 +40194,7 @@
       <c r="H516" s="49"/>
       <c r="I516" s="43"/>
     </row>
-    <row r="517" spans="1:9" ht="15.75">
+    <row r="517" spans="1:9" ht="15">
       <c r="A517" s="46"/>
       <c r="B517" s="46"/>
       <c r="C517" s="42"/>
@@ -39955,7 +40205,7 @@
       <c r="H517" s="49"/>
       <c r="I517" s="43"/>
     </row>
-    <row r="518" spans="1:9" ht="15.75">
+    <row r="518" spans="1:9" ht="15">
       <c r="A518" s="46"/>
       <c r="B518" s="46"/>
       <c r="C518" s="42"/>
@@ -39966,7 +40216,7 @@
       <c r="H518" s="49"/>
       <c r="I518" s="43"/>
     </row>
-    <row r="519" spans="1:9" ht="15.75">
+    <row r="519" spans="1:9" ht="15">
       <c r="A519" s="46"/>
       <c r="B519" s="46"/>
       <c r="C519" s="42"/>
@@ -39977,7 +40227,7 @@
       <c r="H519" s="49"/>
       <c r="I519" s="43"/>
     </row>
-    <row r="520" spans="1:9" ht="15.75">
+    <row r="520" spans="1:9" ht="15">
       <c r="A520" s="46"/>
       <c r="B520" s="46"/>
       <c r="C520" s="42"/>
@@ -39988,7 +40238,7 @@
       <c r="H520" s="49"/>
       <c r="I520" s="43"/>
     </row>
-    <row r="521" spans="1:9" ht="15.75">
+    <row r="521" spans="1:9" ht="15">
       <c r="A521" s="46"/>
       <c r="B521" s="46"/>
       <c r="C521" s="42"/>
@@ -39999,7 +40249,7 @@
       <c r="H521" s="49"/>
       <c r="I521" s="43"/>
     </row>
-    <row r="522" spans="1:9" ht="15.75">
+    <row r="522" spans="1:9" ht="15">
       <c r="A522" s="46"/>
       <c r="B522" s="46"/>
       <c r="C522" s="42"/>
@@ -40010,7 +40260,7 @@
       <c r="H522" s="49"/>
       <c r="I522" s="43"/>
     </row>
-    <row r="523" spans="1:9" ht="15.75">
+    <row r="523" spans="1:9" ht="15">
       <c r="A523" s="46"/>
       <c r="B523" s="46"/>
       <c r="C523" s="42"/>
@@ -40021,7 +40271,7 @@
       <c r="H523" s="49"/>
       <c r="I523" s="43"/>
     </row>
-    <row r="524" spans="1:9" ht="15.75">
+    <row r="524" spans="1:9" ht="15">
       <c r="A524" s="46"/>
       <c r="B524" s="46"/>
       <c r="C524" s="42"/>
@@ -40032,7 +40282,7 @@
       <c r="H524" s="49"/>
       <c r="I524" s="43"/>
     </row>
-    <row r="525" spans="1:9" ht="15.75">
+    <row r="525" spans="1:9" ht="15">
       <c r="A525" s="46"/>
       <c r="B525" s="46"/>
       <c r="C525" s="42"/>
@@ -40043,7 +40293,7 @@
       <c r="H525" s="49"/>
       <c r="I525" s="43"/>
     </row>
-    <row r="526" spans="1:9" ht="15.75">
+    <row r="526" spans="1:9" ht="15">
       <c r="A526" s="46"/>
       <c r="B526" s="46"/>
       <c r="C526" s="42"/>
@@ -40054,7 +40304,7 @@
       <c r="H526" s="49"/>
       <c r="I526" s="43"/>
     </row>
-    <row r="527" spans="1:9" ht="15.75">
+    <row r="527" spans="1:9" ht="15">
       <c r="A527" s="46"/>
       <c r="B527" s="46"/>
       <c r="C527" s="42"/>
@@ -40065,7 +40315,7 @@
       <c r="H527" s="49"/>
       <c r="I527" s="43"/>
     </row>
-    <row r="528" spans="1:9" ht="15.75">
+    <row r="528" spans="1:9" ht="15">
       <c r="A528" s="46"/>
       <c r="B528" s="46"/>
       <c r="C528" s="42"/>
@@ -40076,7 +40326,7 @@
       <c r="H528" s="49"/>
       <c r="I528" s="43"/>
     </row>
-    <row r="529" spans="1:9" ht="15.75">
+    <row r="529" spans="1:9" ht="15">
       <c r="A529" s="46"/>
       <c r="B529" s="46"/>
       <c r="C529" s="42"/>
@@ -40087,7 +40337,7 @@
       <c r="H529" s="49"/>
       <c r="I529" s="43"/>
     </row>
-    <row r="530" spans="1:9" ht="15.75">
+    <row r="530" spans="1:9" ht="15">
       <c r="A530" s="46"/>
       <c r="B530" s="46"/>
       <c r="C530" s="42"/>
@@ -40098,7 +40348,7 @@
       <c r="H530" s="49"/>
       <c r="I530" s="43"/>
     </row>
-    <row r="531" spans="1:9" ht="15.75">
+    <row r="531" spans="1:9" ht="15">
       <c r="A531" s="46"/>
       <c r="B531" s="46"/>
       <c r="C531" s="42"/>
@@ -40109,7 +40359,7 @@
       <c r="H531" s="49"/>
       <c r="I531" s="43"/>
     </row>
-    <row r="532" spans="1:9" ht="15.75">
+    <row r="532" spans="1:9" ht="15">
       <c r="A532" s="46"/>
       <c r="B532" s="46"/>
       <c r="C532" s="42"/>
@@ -40120,7 +40370,7 @@
       <c r="H532" s="49"/>
       <c r="I532" s="43"/>
     </row>
-    <row r="533" spans="1:9" ht="15.75">
+    <row r="533" spans="1:9" ht="15">
       <c r="A533" s="46"/>
       <c r="B533" s="46"/>
       <c r="C533" s="42"/>
@@ -40131,7 +40381,7 @@
       <c r="H533" s="49"/>
       <c r="I533" s="43"/>
     </row>
-    <row r="534" spans="1:9" ht="15.75">
+    <row r="534" spans="1:9" ht="15">
       <c r="A534" s="46"/>
       <c r="B534" s="46"/>
       <c r="C534" s="42"/>
@@ -40142,7 +40392,7 @@
       <c r="H534" s="49"/>
       <c r="I534" s="43"/>
     </row>
-    <row r="535" spans="1:9" ht="15.75">
+    <row r="535" spans="1:9" ht="15">
       <c r="A535" s="46"/>
       <c r="B535" s="46"/>
       <c r="C535" s="42"/>
@@ -40153,7 +40403,7 @@
       <c r="H535" s="49"/>
       <c r="I535" s="43"/>
     </row>
-    <row r="536" spans="1:9" ht="15.75">
+    <row r="536" spans="1:9" ht="15">
       <c r="A536" s="46"/>
       <c r="B536" s="46"/>
       <c r="C536" s="42"/>
@@ -40164,7 +40414,7 @@
       <c r="H536" s="49"/>
       <c r="I536" s="43"/>
     </row>
-    <row r="537" spans="1:9" ht="15.75">
+    <row r="537" spans="1:9" ht="15">
       <c r="A537" s="46"/>
       <c r="B537" s="46"/>
       <c r="C537" s="42"/>
@@ -40175,7 +40425,7 @@
       <c r="H537" s="49"/>
       <c r="I537" s="43"/>
     </row>
-    <row r="538" spans="1:9" ht="15.75">
+    <row r="538" spans="1:9" ht="15">
       <c r="A538" s="46"/>
       <c r="B538" s="46"/>
       <c r="C538" s="42"/>
@@ -40186,7 +40436,7 @@
       <c r="H538" s="49"/>
       <c r="I538" s="43"/>
     </row>
-    <row r="539" spans="1:9" ht="15.75">
+    <row r="539" spans="1:9" ht="15">
       <c r="A539" s="46"/>
       <c r="B539" s="46"/>
       <c r="C539" s="42"/>
@@ -40197,7 +40447,7 @@
       <c r="H539" s="49"/>
       <c r="I539" s="43"/>
     </row>
-    <row r="540" spans="1:9" ht="15.75">
+    <row r="540" spans="1:9" ht="15">
       <c r="A540" s="46"/>
       <c r="B540" s="46"/>
       <c r="C540" s="42"/>
@@ -40208,7 +40458,7 @@
       <c r="H540" s="49"/>
       <c r="I540" s="43"/>
     </row>
-    <row r="541" spans="1:9" ht="15.75">
+    <row r="541" spans="1:9" ht="15">
       <c r="A541" s="46"/>
       <c r="B541" s="46"/>
       <c r="C541" s="42"/>
@@ -40219,7 +40469,7 @@
       <c r="H541" s="49"/>
       <c r="I541" s="43"/>
     </row>
-    <row r="542" spans="1:9" ht="15.75">
+    <row r="542" spans="1:9" ht="15">
       <c r="A542" s="46"/>
       <c r="B542" s="46"/>
       <c r="C542" s="42"/>
@@ -40230,7 +40480,7 @@
       <c r="H542" s="49"/>
       <c r="I542" s="43"/>
     </row>
-    <row r="543" spans="1:9" ht="15.75">
+    <row r="543" spans="1:9" ht="15">
       <c r="A543" s="46"/>
       <c r="B543" s="46"/>
       <c r="C543" s="42"/>
@@ -40241,7 +40491,7 @@
       <c r="H543" s="49"/>
       <c r="I543" s="43"/>
     </row>
-    <row r="544" spans="1:9" ht="15.75">
+    <row r="544" spans="1:9" ht="15">
       <c r="A544" s="46"/>
       <c r="B544" s="46"/>
       <c r="C544" s="42"/>
@@ -40252,7 +40502,7 @@
       <c r="H544" s="49"/>
       <c r="I544" s="43"/>
     </row>
-    <row r="545" spans="1:9" ht="15.75">
+    <row r="545" spans="1:9" ht="15">
       <c r="A545" s="46"/>
       <c r="B545" s="46"/>
       <c r="C545" s="42"/>
@@ -40263,7 +40513,7 @@
       <c r="H545" s="49"/>
       <c r="I545" s="43"/>
     </row>
-    <row r="546" spans="1:9" ht="15.75">
+    <row r="546" spans="1:9" ht="15">
       <c r="A546" s="46"/>
       <c r="B546" s="46"/>
       <c r="C546" s="42"/>
@@ -40274,7 +40524,7 @@
       <c r="H546" s="49"/>
       <c r="I546" s="43"/>
     </row>
-    <row r="547" spans="1:9" ht="15.75">
+    <row r="547" spans="1:9" ht="15">
       <c r="A547" s="46"/>
       <c r="B547" s="46"/>
       <c r="C547" s="42"/>
@@ -40285,7 +40535,7 @@
       <c r="H547" s="49"/>
       <c r="I547" s="43"/>
     </row>
-    <row r="548" spans="1:9" ht="15.75">
+    <row r="548" spans="1:9" ht="15">
       <c r="A548" s="46"/>
       <c r="B548" s="46"/>
       <c r="C548" s="42"/>
@@ -40296,7 +40546,7 @@
       <c r="H548" s="49"/>
       <c r="I548" s="43"/>
     </row>
-    <row r="549" spans="1:9" ht="15.75">
+    <row r="549" spans="1:9" ht="15">
       <c r="A549" s="46"/>
       <c r="B549" s="46"/>
       <c r="C549" s="42"/>
@@ -40307,7 +40557,7 @@
       <c r="H549" s="49"/>
       <c r="I549" s="43"/>
     </row>
-    <row r="550" spans="1:9" ht="15.75">
+    <row r="550" spans="1:9" ht="15">
       <c r="A550" s="46"/>
       <c r="B550" s="46"/>
       <c r="C550" s="42"/>
@@ -40318,7 +40568,7 @@
       <c r="H550" s="49"/>
       <c r="I550" s="43"/>
     </row>
-    <row r="551" spans="1:9" ht="15.75">
+    <row r="551" spans="1:9" ht="15">
       <c r="A551" s="46"/>
       <c r="B551" s="46"/>
       <c r="C551" s="42"/>
@@ -40329,7 +40579,7 @@
       <c r="H551" s="49"/>
       <c r="I551" s="43"/>
     </row>
-    <row r="552" spans="1:9" ht="15.75">
+    <row r="552" spans="1:9" ht="15">
       <c r="A552" s="46"/>
       <c r="B552" s="46"/>
       <c r="C552" s="42"/>
@@ -40340,7 +40590,7 @@
       <c r="H552" s="49"/>
       <c r="I552" s="43"/>
     </row>
-    <row r="553" spans="1:9" ht="15.75">
+    <row r="553" spans="1:9" ht="15">
       <c r="A553" s="46"/>
       <c r="B553" s="46"/>
       <c r="C553" s="42"/>
@@ -40351,7 +40601,7 @@
       <c r="H553" s="49"/>
       <c r="I553" s="43"/>
     </row>
-    <row r="554" spans="1:9" ht="15.75">
+    <row r="554" spans="1:9" ht="15">
       <c r="A554" s="46"/>
       <c r="B554" s="46"/>
       <c r="C554" s="42"/>
@@ -40362,7 +40612,7 @@
       <c r="H554" s="49"/>
       <c r="I554" s="43"/>
     </row>
-    <row r="555" spans="1:9" ht="15.75">
+    <row r="555" spans="1:9" ht="15">
       <c r="A555" s="46"/>
       <c r="B555" s="46"/>
       <c r="C555" s="42"/>
@@ -40373,7 +40623,7 @@
       <c r="H555" s="49"/>
       <c r="I555" s="43"/>
     </row>
-    <row r="556" spans="1:9" ht="15.75">
+    <row r="556" spans="1:9" ht="15">
       <c r="A556" s="46"/>
       <c r="B556" s="46"/>
       <c r="C556" s="42"/>
@@ -40384,7 +40634,7 @@
       <c r="H556" s="49"/>
       <c r="I556" s="43"/>
     </row>
-    <row r="557" spans="1:9" ht="15.75">
+    <row r="557" spans="1:9" ht="15">
       <c r="A557" s="46"/>
       <c r="B557" s="46"/>
       <c r="C557" s="42"/>
@@ -40395,7 +40645,7 @@
       <c r="H557" s="49"/>
       <c r="I557" s="43"/>
     </row>
-    <row r="558" spans="1:9" ht="15.75">
+    <row r="558" spans="1:9" ht="15">
       <c r="A558" s="46"/>
       <c r="B558" s="46"/>
       <c r="C558" s="42"/>
@@ -40406,7 +40656,7 @@
       <c r="H558" s="49"/>
       <c r="I558" s="43"/>
     </row>
-    <row r="559" spans="1:9" ht="15.75">
+    <row r="559" spans="1:9" ht="15">
       <c r="A559" s="46"/>
       <c r="B559" s="46"/>
       <c r="C559" s="42"/>
@@ -40417,7 +40667,7 @@
       <c r="H559" s="49"/>
       <c r="I559" s="43"/>
     </row>
-    <row r="560" spans="1:9" ht="15.75">
+    <row r="560" spans="1:9" ht="15">
       <c r="A560" s="46"/>
       <c r="B560" s="46"/>
       <c r="C560" s="42"/>
@@ -40428,7 +40678,7 @@
       <c r="H560" s="49"/>
       <c r="I560" s="43"/>
     </row>
-    <row r="561" spans="1:9" ht="15.75">
+    <row r="561" spans="1:9" ht="15">
       <c r="A561" s="46"/>
       <c r="B561" s="46"/>
       <c r="C561" s="42"/>
@@ -40439,7 +40689,7 @@
       <c r="H561" s="49"/>
       <c r="I561" s="43"/>
     </row>
-    <row r="562" spans="1:9" ht="15.75">
+    <row r="562" spans="1:9" ht="15">
       <c r="A562" s="46"/>
       <c r="B562" s="46"/>
       <c r="C562" s="42"/>
@@ -40450,7 +40700,7 @@
       <c r="H562" s="49"/>
       <c r="I562" s="43"/>
     </row>
-    <row r="563" spans="1:9" ht="15.75">
+    <row r="563" spans="1:9" ht="15">
       <c r="A563" s="46"/>
       <c r="B563" s="46"/>
       <c r="C563" s="42"/>
@@ -40461,7 +40711,7 @@
       <c r="H563" s="49"/>
       <c r="I563" s="43"/>
     </row>
-    <row r="564" spans="1:9" ht="15.75">
+    <row r="564" spans="1:9" ht="15">
       <c r="A564" s="46"/>
       <c r="B564" s="46"/>
       <c r="C564" s="42"/>
@@ -40472,7 +40722,7 @@
       <c r="H564" s="49"/>
       <c r="I564" s="43"/>
     </row>
-    <row r="565" spans="1:9" ht="15.75">
+    <row r="565" spans="1:9" ht="15">
       <c r="A565" s="46"/>
       <c r="B565" s="46"/>
       <c r="C565" s="42"/>
@@ -40483,7 +40733,7 @@
       <c r="H565" s="49"/>
       <c r="I565" s="43"/>
     </row>
-    <row r="566" spans="1:9" ht="15.75">
+    <row r="566" spans="1:9" ht="15">
       <c r="A566" s="46"/>
       <c r="B566" s="46"/>
       <c r="C566" s="42"/>
@@ -40494,7 +40744,7 @@
       <c r="H566" s="49"/>
       <c r="I566" s="43"/>
     </row>
-    <row r="567" spans="1:9" ht="15.75">
+    <row r="567" spans="1:9" ht="15">
       <c r="A567" s="46"/>
       <c r="B567" s="46"/>
       <c r="C567" s="42"/>
@@ -40505,7 +40755,7 @@
       <c r="H567" s="49"/>
       <c r="I567" s="43"/>
     </row>
-    <row r="568" spans="1:9" ht="15.75">
+    <row r="568" spans="1:9" ht="15">
       <c r="A568" s="46"/>
       <c r="B568" s="46"/>
       <c r="C568" s="42"/>
@@ -40516,7 +40766,7 @@
       <c r="H568" s="49"/>
       <c r="I568" s="43"/>
     </row>
-    <row r="569" spans="1:9" ht="15.75">
+    <row r="569" spans="1:9" ht="15">
       <c r="A569" s="46"/>
       <c r="B569" s="46"/>
       <c r="C569" s="42"/>
@@ -40527,7 +40777,7 @@
       <c r="H569" s="49"/>
       <c r="I569" s="43"/>
     </row>
-    <row r="570" spans="1:9" ht="15.75">
+    <row r="570" spans="1:9" ht="15">
       <c r="A570" s="46"/>
       <c r="B570" s="46"/>
       <c r="C570" s="42"/>
@@ -40538,7 +40788,7 @@
       <c r="H570" s="49"/>
       <c r="I570" s="43"/>
     </row>
-    <row r="571" spans="1:9" ht="15.75">
+    <row r="571" spans="1:9" ht="15">
       <c r="A571" s="46"/>
       <c r="B571" s="46"/>
       <c r="C571" s="42"/>
@@ -40549,7 +40799,7 @@
       <c r="H571" s="49"/>
       <c r="I571" s="43"/>
     </row>
-    <row r="572" spans="1:9" ht="15.75">
+    <row r="572" spans="1:9" ht="15">
       <c r="A572" s="46"/>
       <c r="B572" s="46"/>
       <c r="C572" s="42"/>
@@ -40560,7 +40810,7 @@
       <c r="H572" s="49"/>
       <c r="I572" s="43"/>
     </row>
-    <row r="573" spans="1:9" ht="15.75">
+    <row r="573" spans="1:9" ht="15">
       <c r="A573" s="46"/>
       <c r="B573" s="46"/>
       <c r="C573" s="42"/>
@@ -40571,7 +40821,7 @@
       <c r="H573" s="49"/>
       <c r="I573" s="43"/>
     </row>
-    <row r="574" spans="1:9" ht="15.75">
+    <row r="574" spans="1:9" ht="15">
       <c r="A574" s="46"/>
       <c r="B574" s="46"/>
       <c r="C574" s="42"/>
@@ -40582,7 +40832,7 @@
       <c r="H574" s="49"/>
       <c r="I574" s="43"/>
     </row>
-    <row r="575" spans="1:9" ht="15.75">
+    <row r="575" spans="1:9" ht="15">
       <c r="A575" s="46"/>
       <c r="B575" s="46"/>
       <c r="C575" s="42"/>
@@ -40593,7 +40843,7 @@
       <c r="H575" s="49"/>
       <c r="I575" s="43"/>
     </row>
-    <row r="576" spans="1:9" ht="15.75">
+    <row r="576" spans="1:9" ht="15">
       <c r="A576" s="46"/>
       <c r="B576" s="46"/>
       <c r="C576" s="42"/>
@@ -40604,7 +40854,7 @@
       <c r="H576" s="49"/>
       <c r="I576" s="43"/>
     </row>
-    <row r="577" spans="1:9" ht="15.75">
+    <row r="577" spans="1:9" ht="15">
       <c r="A577" s="46"/>
       <c r="B577" s="46"/>
       <c r="C577" s="42"/>
@@ -40615,7 +40865,7 @@
       <c r="H577" s="49"/>
       <c r="I577" s="43"/>
     </row>
-    <row r="578" spans="1:9" ht="15.75">
+    <row r="578" spans="1:9" ht="15">
       <c r="A578" s="46"/>
       <c r="B578" s="46"/>
       <c r="C578" s="42"/>
@@ -40626,7 +40876,7 @@
       <c r="H578" s="49"/>
       <c r="I578" s="43"/>
     </row>
-    <row r="579" spans="1:9" ht="15.75">
+    <row r="579" spans="1:9" ht="15">
       <c r="A579" s="46"/>
       <c r="B579" s="46"/>
       <c r="C579" s="42"/>
@@ -40637,7 +40887,7 @@
       <c r="H579" s="49"/>
       <c r="I579" s="43"/>
     </row>
-    <row r="580" spans="1:9" ht="15.75">
+    <row r="580" spans="1:9" ht="15">
       <c r="A580" s="46"/>
       <c r="B580" s="46"/>
       <c r="C580" s="42"/>
@@ -40648,7 +40898,7 @@
       <c r="H580" s="49"/>
       <c r="I580" s="43"/>
     </row>
-    <row r="581" spans="1:9" ht="15.75">
+    <row r="581" spans="1:9" ht="15">
       <c r="A581" s="46"/>
       <c r="B581" s="46"/>
       <c r="C581" s="42"/>
@@ -40659,7 +40909,7 @@
       <c r="H581" s="49"/>
       <c r="I581" s="43"/>
     </row>
-    <row r="582" spans="1:9" ht="15.75">
+    <row r="582" spans="1:9" ht="15">
       <c r="A582" s="46"/>
       <c r="B582" s="46"/>
       <c r="C582" s="42"/>
@@ -40670,7 +40920,7 @@
       <c r="H582" s="49"/>
       <c r="I582" s="43"/>
     </row>
-    <row r="583" spans="1:9" ht="15.75">
+    <row r="583" spans="1:9" ht="15">
       <c r="A583" s="46"/>
       <c r="B583" s="46"/>
       <c r="C583" s="42"/>
@@ -40681,7 +40931,7 @@
       <c r="H583" s="49"/>
       <c r="I583" s="43"/>
     </row>
-    <row r="584" spans="1:9" ht="15.75">
+    <row r="584" spans="1:9" ht="15">
       <c r="A584" s="46"/>
       <c r="B584" s="46"/>
       <c r="C584" s="42"/>
@@ -40692,7 +40942,7 @@
       <c r="H584" s="49"/>
       <c r="I584" s="43"/>
     </row>
-    <row r="585" spans="1:9" ht="15.75">
+    <row r="585" spans="1:9" ht="15">
       <c r="A585" s="46"/>
       <c r="B585" s="46"/>
       <c r="C585" s="42"/>
@@ -40703,7 +40953,7 @@
       <c r="H585" s="49"/>
       <c r="I585" s="43"/>
     </row>
-    <row r="586" spans="1:9" ht="15.75">
+    <row r="586" spans="1:9" ht="15">
       <c r="A586" s="46"/>
       <c r="B586" s="46"/>
       <c r="C586" s="42"/>
@@ -40714,7 +40964,7 @@
       <c r="H586" s="49"/>
       <c r="I586" s="43"/>
     </row>
-    <row r="587" spans="1:9" ht="15.75">
+    <row r="587" spans="1:9" ht="15">
       <c r="A587" s="46"/>
       <c r="B587" s="46"/>
       <c r="C587" s="42"/>
@@ -40725,7 +40975,7 @@
       <c r="H587" s="49"/>
       <c r="I587" s="43"/>
     </row>
-    <row r="588" spans="1:9" ht="15.75">
+    <row r="588" spans="1:9" ht="15">
       <c r="A588" s="46"/>
       <c r="B588" s="46"/>
       <c r="C588" s="42"/>
@@ -40736,7 +40986,7 @@
       <c r="H588" s="49"/>
       <c r="I588" s="43"/>
     </row>
-    <row r="589" spans="1:9" ht="15.75">
+    <row r="589" spans="1:9" ht="15">
       <c r="A589" s="46"/>
       <c r="B589" s="46"/>
       <c r="C589" s="42"/>
@@ -40747,7 +40997,7 @@
       <c r="H589" s="49"/>
       <c r="I589" s="43"/>
     </row>
-    <row r="590" spans="1:9" ht="15.75">
+    <row r="590" spans="1:9" ht="15">
       <c r="A590" s="46"/>
       <c r="B590" s="46"/>
       <c r="C590" s="42"/>
@@ -40758,7 +41008,7 @@
       <c r="H590" s="49"/>
       <c r="I590" s="43"/>
     </row>
-    <row r="591" spans="1:9" ht="15.75">
+    <row r="591" spans="1:9" ht="15">
       <c r="A591" s="46"/>
       <c r="B591" s="46"/>
       <c r="C591" s="42"/>
@@ -40769,7 +41019,7 @@
       <c r="H591" s="49"/>
       <c r="I591" s="43"/>
     </row>
-    <row r="592" spans="1:9" ht="15.75">
+    <row r="592" spans="1:9" ht="15">
       <c r="A592" s="46"/>
       <c r="B592" s="46"/>
       <c r="C592" s="42"/>
@@ -40780,7 +41030,7 @@
       <c r="H592" s="49"/>
       <c r="I592" s="43"/>
     </row>
-    <row r="593" spans="1:9" ht="15.75">
+    <row r="593" spans="1:9" ht="15">
       <c r="A593" s="46"/>
       <c r="B593" s="46"/>
       <c r="C593" s="42"/>
@@ -40791,7 +41041,7 @@
       <c r="H593" s="49"/>
       <c r="I593" s="43"/>
     </row>
-    <row r="594" spans="1:9" ht="15.75">
+    <row r="594" spans="1:9" ht="15">
       <c r="A594" s="46"/>
       <c r="B594" s="46"/>
       <c r="C594" s="42"/>
@@ -40802,7 +41052,7 @@
       <c r="H594" s="49"/>
       <c r="I594" s="43"/>
     </row>
-    <row r="595" spans="1:9" ht="15.75">
+    <row r="595" spans="1:9" ht="15">
       <c r="A595" s="46"/>
       <c r="B595" s="46"/>
       <c r="C595" s="42"/>
@@ -40813,7 +41063,7 @@
       <c r="H595" s="49"/>
       <c r="I595" s="43"/>
     </row>
-    <row r="596" spans="1:9" ht="15.75">
+    <row r="596" spans="1:9" ht="15">
       <c r="A596" s="46"/>
       <c r="B596" s="46"/>
       <c r="C596" s="42"/>
@@ -40824,7 +41074,7 @@
       <c r="H596" s="49"/>
       <c r="I596" s="43"/>
     </row>
-    <row r="597" spans="1:9" ht="15.75">
+    <row r="597" spans="1:9" ht="15">
       <c r="A597" s="46"/>
       <c r="B597" s="46"/>
       <c r="C597" s="42"/>
@@ -40835,7 +41085,7 @@
       <c r="H597" s="49"/>
       <c r="I597" s="43"/>
     </row>
-    <row r="598" spans="1:9" ht="15.75">
+    <row r="598" spans="1:9" ht="15">
       <c r="A598" s="46"/>
       <c r="B598" s="46"/>
       <c r="C598" s="42"/>
@@ -40846,7 +41096,7 @@
       <c r="H598" s="49"/>
       <c r="I598" s="43"/>
     </row>
-    <row r="599" spans="1:9" ht="15.75">
+    <row r="599" spans="1:9" ht="15">
       <c r="A599" s="46"/>
       <c r="B599" s="46"/>
       <c r="C599" s="42"/>
@@ -40857,7 +41107,7 @@
       <c r="H599" s="49"/>
       <c r="I599" s="43"/>
     </row>
-    <row r="600" spans="1:9" ht="15.75">
+    <row r="600" spans="1:9" ht="15">
       <c r="A600" s="46"/>
       <c r="B600" s="46"/>
       <c r="C600" s="42"/>
@@ -40868,7 +41118,7 @@
       <c r="H600" s="49"/>
       <c r="I600" s="43"/>
     </row>
-    <row r="601" spans="1:9" ht="15.75">
+    <row r="601" spans="1:9" ht="15">
       <c r="A601" s="46"/>
       <c r="B601" s="46"/>
       <c r="C601" s="42"/>
@@ -40879,7 +41129,7 @@
       <c r="H601" s="49"/>
       <c r="I601" s="43"/>
     </row>
-    <row r="602" spans="1:9" ht="15.75">
+    <row r="602" spans="1:9" ht="15">
       <c r="A602" s="46"/>
       <c r="B602" s="46"/>
       <c r="C602" s="42"/>
@@ -40890,7 +41140,7 @@
       <c r="H602" s="49"/>
       <c r="I602" s="43"/>
     </row>
-    <row r="603" spans="1:9" ht="15.75">
+    <row r="603" spans="1:9" ht="15">
       <c r="A603" s="46"/>
       <c r="B603" s="46"/>
       <c r="C603" s="42"/>
@@ -40901,7 +41151,7 @@
       <c r="H603" s="49"/>
       <c r="I603" s="43"/>
     </row>
-    <row r="604" spans="1:9" ht="15.75">
+    <row r="604" spans="1:9" ht="15">
       <c r="A604" s="46"/>
       <c r="B604" s="46"/>
       <c r="C604" s="42"/>
@@ -40912,7 +41162,7 @@
       <c r="H604" s="49"/>
       <c r="I604" s="43"/>
     </row>
-    <row r="605" spans="1:9" ht="15.75">
+    <row r="605" spans="1:9" ht="15">
       <c r="A605" s="46"/>
       <c r="B605" s="46"/>
       <c r="C605" s="42"/>
@@ -40923,7 +41173,7 @@
       <c r="H605" s="49"/>
       <c r="I605" s="43"/>
     </row>
-    <row r="606" spans="1:9" ht="15.75">
+    <row r="606" spans="1:9" ht="15">
       <c r="A606" s="46"/>
       <c r="B606" s="46"/>
       <c r="C606" s="42"/>
@@ -40934,7 +41184,7 @@
       <c r="H606" s="49"/>
       <c r="I606" s="43"/>
     </row>
-    <row r="607" spans="1:9" ht="15.75">
+    <row r="607" spans="1:9" ht="15">
       <c r="A607" s="46"/>
       <c r="B607" s="46"/>
       <c r="C607" s="42"/>
@@ -40945,7 +41195,7 @@
       <c r="H607" s="49"/>
       <c r="I607" s="43"/>
     </row>
-    <row r="608" spans="1:9" ht="15.75">
+    <row r="608" spans="1:9" ht="15">
       <c r="A608" s="46"/>
       <c r="B608" s="46"/>
       <c r="C608" s="42"/>
@@ -40956,7 +41206,7 @@
       <c r="H608" s="49"/>
       <c r="I608" s="43"/>
     </row>
-    <row r="609" spans="1:9" ht="15.75">
+    <row r="609" spans="1:9" ht="15">
       <c r="A609" s="46"/>
       <c r="B609" s="46"/>
       <c r="C609" s="42"/>
@@ -40967,7 +41217,7 @@
       <c r="H609" s="49"/>
       <c r="I609" s="43"/>
     </row>
-    <row r="610" spans="1:9" ht="15.75">
+    <row r="610" spans="1:9" ht="15">
       <c r="A610" s="46"/>
       <c r="B610" s="46"/>
       <c r="C610" s="42"/>
@@ -40978,7 +41228,7 @@
       <c r="H610" s="49"/>
       <c r="I610" s="43"/>
     </row>
-    <row r="611" spans="1:9" ht="15.75">
+    <row r="611" spans="1:9" ht="15">
       <c r="A611" s="46"/>
       <c r="B611" s="46"/>
       <c r="C611" s="42"/>
@@ -40989,7 +41239,7 @@
       <c r="H611" s="49"/>
       <c r="I611" s="43"/>
     </row>
-    <row r="612" spans="1:9" ht="15.75">
+    <row r="612" spans="1:9" ht="15">
       <c r="A612" s="46"/>
       <c r="B612" s="46"/>
       <c r="C612" s="42"/>
@@ -41000,7 +41250,7 @@
       <c r="H612" s="49"/>
       <c r="I612" s="43"/>
     </row>
-    <row r="613" spans="1:9" ht="15.75">
+    <row r="613" spans="1:9" ht="15">
       <c r="A613" s="46"/>
       <c r="B613" s="46"/>
       <c r="C613" s="42"/>
@@ -41011,7 +41261,7 @@
       <c r="H613" s="49"/>
       <c r="I613" s="43"/>
     </row>
-    <row r="614" spans="1:9" ht="15.75">
+    <row r="614" spans="1:9" ht="15">
       <c r="A614" s="46"/>
       <c r="B614" s="46"/>
       <c r="C614" s="42"/>
@@ -41022,7 +41272,7 @@
       <c r="H614" s="49"/>
       <c r="I614" s="43"/>
     </row>
-    <row r="615" spans="1:9" ht="15.75">
+    <row r="615" spans="1:9" ht="15">
       <c r="A615" s="46"/>
       <c r="B615" s="46"/>
       <c r="C615" s="42"/>
@@ -41033,7 +41283,7 @@
       <c r="H615" s="49"/>
       <c r="I615" s="43"/>
     </row>
-    <row r="616" spans="1:9" ht="15.75">
+    <row r="616" spans="1:9" ht="15">
       <c r="A616" s="46"/>
       <c r="B616" s="46"/>
       <c r="C616" s="42"/>
@@ -41044,7 +41294,7 @@
       <c r="H616" s="49"/>
       <c r="I616" s="43"/>
     </row>
-    <row r="617" spans="1:9" ht="15.75">
+    <row r="617" spans="1:9" ht="15">
       <c r="A617" s="46"/>
       <c r="B617" s="46"/>
       <c r="C617" s="42"/>
@@ -41055,7 +41305,7 @@
       <c r="H617" s="49"/>
       <c r="I617" s="43"/>
     </row>
-    <row r="618" spans="1:9" ht="15.75">
+    <row r="618" spans="1:9" ht="15">
       <c r="A618" s="46"/>
       <c r="B618" s="46"/>
       <c r="C618" s="42"/>
@@ -41066,7 +41316,7 @@
       <c r="H618" s="49"/>
       <c r="I618" s="43"/>
     </row>
-    <row r="619" spans="1:9" ht="15.75">
+    <row r="619" spans="1:9" ht="15">
       <c r="A619" s="46"/>
       <c r="B619" s="46"/>
       <c r="C619" s="42"/>
@@ -41077,7 +41327,7 @@
       <c r="H619" s="49"/>
       <c r="I619" s="43"/>
     </row>
-    <row r="620" spans="1:9" ht="15.75">
+    <row r="620" spans="1:9" ht="15">
       <c r="A620" s="46"/>
       <c r="B620" s="46"/>
       <c r="C620" s="42"/>
@@ -41088,7 +41338,7 @@
       <c r="H620" s="49"/>
       <c r="I620" s="43"/>
     </row>
-    <row r="621" spans="1:9" ht="15.75">
+    <row r="621" spans="1:9" ht="15">
       <c r="A621" s="46"/>
       <c r="B621" s="46"/>
       <c r="C621" s="42"/>
@@ -41099,7 +41349,7 @@
       <c r="H621" s="49"/>
       <c r="I621" s="43"/>
     </row>
-    <row r="622" spans="1:9" ht="15.75">
+    <row r="622" spans="1:9" ht="15">
       <c r="A622" s="46"/>
       <c r="B622" s="46"/>
       <c r="C622" s="42"/>
@@ -41110,7 +41360,7 @@
       <c r="H622" s="49"/>
       <c r="I622" s="43"/>
     </row>
-    <row r="623" spans="1:9" ht="15.75">
+    <row r="623" spans="1:9" ht="15">
       <c r="A623" s="46"/>
       <c r="B623" s="46"/>
       <c r="C623" s="42"/>
@@ -41121,7 +41371,7 @@
       <c r="H623" s="49"/>
       <c r="I623" s="43"/>
     </row>
-    <row r="624" spans="1:9" ht="15.75">
+    <row r="624" spans="1:9" ht="15">
       <c r="A624" s="46"/>
       <c r="B624" s="46"/>
       <c r="C624" s="42"/>
@@ -41132,7 +41382,7 @@
       <c r="H624" s="49"/>
       <c r="I624" s="43"/>
     </row>
-    <row r="625" spans="1:9" ht="15.75">
+    <row r="625" spans="1:9" ht="15">
       <c r="A625" s="46"/>
       <c r="B625" s="46"/>
       <c r="C625" s="42"/>
@@ -41143,7 +41393,7 @@
       <c r="H625" s="49"/>
       <c r="I625" s="43"/>
     </row>
-    <row r="626" spans="1:9" ht="15.75">
+    <row r="626" spans="1:9" ht="15">
       <c r="A626" s="46"/>
       <c r="B626" s="46"/>
       <c r="C626" s="42"/>
@@ -41154,7 +41404,7 @@
       <c r="H626" s="49"/>
       <c r="I626" s="43"/>
     </row>
-    <row r="627" spans="1:9" ht="15.75">
+    <row r="627" spans="1:9" ht="15">
       <c r="A627" s="46"/>
       <c r="B627" s="46"/>
       <c r="C627" s="42"/>
@@ -41165,7 +41415,7 @@
       <c r="H627" s="49"/>
       <c r="I627" s="43"/>
     </row>
-    <row r="628" spans="1:9" ht="15.75">
+    <row r="628" spans="1:9" ht="15">
       <c r="A628" s="46"/>
       <c r="B628" s="46"/>
       <c r="C628" s="42"/>
@@ -41176,7 +41426,7 @@
       <c r="H628" s="49"/>
       <c r="I628" s="43"/>
     </row>
-    <row r="629" spans="1:9" ht="15.75">
+    <row r="629" spans="1:9" ht="15">
       <c r="A629" s="46"/>
       <c r="B629" s="46"/>
       <c r="C629" s="42"/>
@@ -41187,7 +41437,7 @@
       <c r="H629" s="49"/>
       <c r="I629" s="43"/>
     </row>
-    <row r="630" spans="1:9" ht="15.75">
+    <row r="630" spans="1:9" ht="15">
       <c r="A630" s="46"/>
       <c r="B630" s="46"/>
       <c r="C630" s="42"/>
@@ -41198,7 +41448,7 @@
       <c r="H630" s="49"/>
       <c r="I630" s="43"/>
     </row>
-    <row r="631" spans="1:9" ht="15.75">
+    <row r="631" spans="1:9" ht="15">
       <c r="A631" s="46"/>
       <c r="B631" s="46"/>
       <c r="C631" s="42"/>
@@ -41209,7 +41459,7 @@
       <c r="H631" s="49"/>
       <c r="I631" s="43"/>
     </row>
-    <row r="632" spans="1:9" ht="15.75">
+    <row r="632" spans="1:9" ht="15">
       <c r="A632" s="46"/>
       <c r="B632" s="46"/>
       <c r="C632" s="42"/>
@@ -41220,7 +41470,7 @@
       <c r="H632" s="49"/>
       <c r="I632" s="43"/>
     </row>
-    <row r="633" spans="1:9" ht="15.75">
+    <row r="633" spans="1:9" ht="15">
       <c r="A633" s="46"/>
       <c r="B633" s="46"/>
       <c r="C633" s="42"/>
@@ -41231,7 +41481,7 @@
       <c r="H633" s="49"/>
       <c r="I633" s="43"/>
     </row>
-    <row r="634" spans="1:9" ht="15.75">
+    <row r="634" spans="1:9" ht="15">
       <c r="A634" s="46"/>
       <c r="B634" s="46"/>
       <c r="C634" s="42"/>
@@ -41242,7 +41492,7 @@
       <c r="H634" s="49"/>
       <c r="I634" s="43"/>
     </row>
-    <row r="635" spans="1:9" ht="15.75">
+    <row r="635" spans="1:9" ht="15">
       <c r="A635" s="46"/>
       <c r="B635" s="46"/>
       <c r="C635" s="42"/>
@@ -41253,7 +41503,7 @@
       <c r="H635" s="49"/>
       <c r="I635" s="43"/>
     </row>
-    <row r="636" spans="1:9" ht="15.75">
+    <row r="636" spans="1:9" ht="15">
       <c r="A636" s="46"/>
       <c r="B636" s="46"/>
       <c r="C636" s="42"/>
@@ -41264,7 +41514,7 @@
       <c r="H636" s="49"/>
       <c r="I636" s="43"/>
     </row>
-    <row r="637" spans="1:9" ht="15.75">
+    <row r="637" spans="1:9" ht="15">
       <c r="A637" s="46"/>
       <c r="B637" s="46"/>
       <c r="C637" s="42"/>
@@ -41275,7 +41525,7 @@
       <c r="H637" s="49"/>
       <c r="I637" s="43"/>
     </row>
-    <row r="638" spans="1:9" ht="15.75">
+    <row r="638" spans="1:9" ht="15">
       <c r="A638" s="46"/>
       <c r="B638" s="46"/>
       <c r="C638" s="42"/>
@@ -41286,7 +41536,7 @@
       <c r="H638" s="49"/>
       <c r="I638" s="43"/>
     </row>
-    <row r="639" spans="1:9" ht="15.75">
+    <row r="639" spans="1:9" ht="15">
       <c r="A639" s="46"/>
       <c r="B639" s="46"/>
       <c r="C639" s="42"/>
@@ -41297,7 +41547,7 @@
       <c r="H639" s="49"/>
       <c r="I639" s="43"/>
     </row>
-    <row r="640" spans="1:9" ht="15.75">
+    <row r="640" spans="1:9" ht="15">
       <c r="A640" s="46"/>
       <c r="B640" s="46"/>
       <c r="C640" s="42"/>
@@ -41308,7 +41558,7 @@
       <c r="H640" s="49"/>
       <c r="I640" s="43"/>
     </row>
-    <row r="641" spans="1:9" ht="15.75">
+    <row r="641" spans="1:9" ht="15">
       <c r="A641" s="46"/>
       <c r="B641" s="46"/>
       <c r="C641" s="42"/>
@@ -41319,7 +41569,7 @@
       <c r="H641" s="49"/>
       <c r="I641" s="43"/>
     </row>
-    <row r="642" spans="1:9" ht="15.75">
+    <row r="642" spans="1:9" ht="15">
       <c r="A642" s="46"/>
       <c r="B642" s="46"/>
       <c r="C642" s="42"/>
@@ -41330,7 +41580,7 @@
       <c r="H642" s="49"/>
       <c r="I642" s="43"/>
     </row>
-    <row r="643" spans="1:9" ht="15.75">
+    <row r="643" spans="1:9" ht="15">
       <c r="A643" s="46"/>
       <c r="B643" s="46"/>
       <c r="C643" s="42"/>
@@ -41341,7 +41591,7 @@
       <c r="H643" s="49"/>
       <c r="I643" s="43"/>
     </row>
-    <row r="644" spans="1:9" ht="15.75">
+    <row r="644" spans="1:9" ht="15">
       <c r="A644" s="46"/>
       <c r="B644" s="46"/>
       <c r="C644" s="42"/>
@@ -41352,7 +41602,7 @@
       <c r="H644" s="49"/>
       <c r="I644" s="43"/>
     </row>
-    <row r="645" spans="1:9" ht="15.75">
+    <row r="645" spans="1:9" ht="15">
       <c r="A645" s="46"/>
       <c r="B645" s="46"/>
       <c r="C645" s="42"/>
@@ -41363,7 +41613,7 @@
       <c r="H645" s="49"/>
       <c r="I645" s="43"/>
     </row>
-    <row r="646" spans="1:9" ht="15.75">
+    <row r="646" spans="1:9" ht="15">
       <c r="A646" s="46"/>
       <c r="B646" s="46"/>
       <c r="C646" s="42"/>
@@ -41374,7 +41624,7 @@
       <c r="H646" s="49"/>
       <c r="I646" s="43"/>
     </row>
-    <row r="647" spans="1:9" ht="15.75">
+    <row r="647" spans="1:9" ht="15">
       <c r="A647" s="46"/>
       <c r="B647" s="46"/>
       <c r="C647" s="42"/>
@@ -41385,7 +41635,7 @@
       <c r="H647" s="49"/>
       <c r="I647" s="43"/>
     </row>
-    <row r="648" spans="1:9" ht="15.75">
+    <row r="648" spans="1:9" ht="15">
       <c r="A648" s="46"/>
       <c r="B648" s="46"/>
       <c r="C648" s="42"/>
@@ -41396,7 +41646,7 @@
       <c r="H648" s="49"/>
       <c r="I648" s="43"/>
     </row>
-    <row r="649" spans="1:9" ht="15.75">
+    <row r="649" spans="1:9" ht="15">
       <c r="A649" s="46"/>
       <c r="B649" s="46"/>
       <c r="C649" s="42"/>
@@ -41407,7 +41657,7 @@
       <c r="H649" s="49"/>
       <c r="I649" s="43"/>
     </row>
-    <row r="650" spans="1:9" ht="15.75">
+    <row r="650" spans="1:9" ht="15">
       <c r="A650" s="46"/>
       <c r="B650" s="46"/>
       <c r="C650" s="42"/>
@@ -41418,7 +41668,7 @@
       <c r="H650" s="49"/>
       <c r="I650" s="43"/>
     </row>
-    <row r="651" spans="1:9" ht="15.75">
+    <row r="651" spans="1:9" ht="15">
       <c r="A651" s="46"/>
       <c r="B651" s="46"/>
       <c r="C651" s="42"/>
@@ -41429,7 +41679,7 @@
       <c r="H651" s="49"/>
       <c r="I651" s="43"/>
     </row>
-    <row r="652" spans="1:9" ht="15.75">
+    <row r="652" spans="1:9" ht="15">
       <c r="A652" s="46"/>
       <c r="B652" s="46"/>
       <c r="C652" s="42"/>
@@ -41440,7 +41690,7 @@
       <c r="H652" s="49"/>
       <c r="I652" s="43"/>
     </row>
-    <row r="653" spans="1:9" ht="15.75">
+    <row r="653" spans="1:9" ht="15">
       <c r="A653" s="46"/>
       <c r="B653" s="46"/>
       <c r="C653" s="42"/>
@@ -41451,7 +41701,7 @@
       <c r="H653" s="49"/>
       <c r="I653" s="43"/>
     </row>
-    <row r="654" spans="1:9" ht="15.75">
+    <row r="654" spans="1:9" ht="15">
       <c r="A654" s="46"/>
       <c r="B654" s="46"/>
       <c r="C654" s="42"/>
@@ -41462,7 +41712,7 @@
       <c r="H654" s="49"/>
       <c r="I654" s="43"/>
     </row>
-    <row r="655" spans="1:9" ht="15.75">
+    <row r="655" spans="1:9" ht="15">
       <c r="A655" s="46"/>
       <c r="B655" s="46"/>
       <c r="C655" s="42"/>
@@ -41473,7 +41723,7 @@
       <c r="H655" s="49"/>
       <c r="I655" s="43"/>
     </row>
-    <row r="656" spans="1:9" ht="15.75">
+    <row r="656" spans="1:9" ht="15">
       <c r="A656" s="46"/>
       <c r="B656" s="46"/>
       <c r="C656" s="42"/>
@@ -41484,7 +41734,7 @@
       <c r="H656" s="49"/>
       <c r="I656" s="43"/>
     </row>
-    <row r="657" spans="1:9" ht="15.75">
+    <row r="657" spans="1:9" ht="15">
       <c r="A657" s="46"/>
       <c r="B657" s="46"/>
       <c r="C657" s="42"/>
@@ -41495,7 +41745,7 @@
       <c r="H657" s="49"/>
       <c r="I657" s="43"/>
     </row>
-    <row r="658" spans="1:9" ht="15.75">
+    <row r="658" spans="1:9" ht="15">
       <c r="A658" s="46"/>
       <c r="B658" s="46"/>
       <c r="C658" s="42"/>
@@ -41506,7 +41756,7 @@
       <c r="H658" s="49"/>
       <c r="I658" s="43"/>
     </row>
-    <row r="659" spans="1:9" ht="15.75">
+    <row r="659" spans="1:9" ht="15">
       <c r="A659" s="46"/>
       <c r="B659" s="46"/>
       <c r="C659" s="42"/>
@@ -41517,7 +41767,7 @@
       <c r="H659" s="49"/>
       <c r="I659" s="43"/>
     </row>
-    <row r="660" spans="1:9" ht="15.75">
+    <row r="660" spans="1:9" ht="15">
       <c r="A660" s="46"/>
       <c r="B660" s="46"/>
       <c r="C660" s="42"/>
@@ -41528,7 +41778,7 @@
       <c r="H660" s="49"/>
       <c r="I660" s="43"/>
     </row>
-    <row r="661" spans="1:9" ht="15.75">
+    <row r="661" spans="1:9" ht="15">
       <c r="A661" s="46"/>
       <c r="B661" s="46"/>
       <c r="C661" s="42"/>
@@ -41539,7 +41789,7 @@
       <c r="H661" s="49"/>
       <c r="I661" s="43"/>
     </row>
-    <row r="662" spans="1:9" ht="15.75">
+    <row r="662" spans="1:9" ht="15">
       <c r="A662" s="46"/>
       <c r="B662" s="46"/>
       <c r="C662" s="42"/>
@@ -41550,7 +41800,7 @@
       <c r="H662" s="49"/>
       <c r="I662" s="43"/>
     </row>
-    <row r="663" spans="1:9" ht="15.75">
+    <row r="663" spans="1:9" ht="15">
       <c r="A663" s="46"/>
       <c r="B663" s="46"/>
       <c r="C663" s="42"/>
@@ -41561,7 +41811,7 @@
       <c r="H663" s="49"/>
       <c r="I663" s="43"/>
     </row>
-    <row r="664" spans="1:9" ht="15.75">
+    <row r="664" spans="1:9" ht="15">
       <c r="A664" s="46"/>
       <c r="B664" s="46"/>
       <c r="C664" s="42"/>
@@ -41572,7 +41822,7 @@
       <c r="H664" s="49"/>
       <c r="I664" s="43"/>
     </row>
-    <row r="665" spans="1:9" ht="15.75">
+    <row r="665" spans="1:9" ht="15">
       <c r="A665" s="46"/>
       <c r="B665" s="46"/>
       <c r="C665" s="42"/>
@@ -41583,7 +41833,7 @@
       <c r="H665" s="49"/>
       <c r="I665" s="43"/>
     </row>
-    <row r="666" spans="1:9" ht="15.75">
+    <row r="666" spans="1:9" ht="15">
       <c r="A666" s="46"/>
       <c r="B666" s="46"/>
       <c r="C666" s="42"/>
@@ -41594,7 +41844,7 @@
       <c r="H666" s="49"/>
       <c r="I666" s="43"/>
     </row>
-    <row r="667" spans="1:9" ht="15.75">
+    <row r="667" spans="1:9" ht="15">
       <c r="A667" s="46"/>
       <c r="B667" s="46"/>
       <c r="C667" s="42"/>
@@ -41605,7 +41855,7 @@
       <c r="H667" s="49"/>
       <c r="I667" s="43"/>
     </row>
-    <row r="668" spans="1:9" ht="15.75">
+    <row r="668" spans="1:9" ht="15">
       <c r="A668" s="46"/>
       <c r="B668" s="46"/>
       <c r="C668" s="42"/>
@@ -41616,7 +41866,7 @@
       <c r="H668" s="49"/>
       <c r="I668" s="43"/>
     </row>
-    <row r="669" spans="1:9" ht="15.75">
+    <row r="669" spans="1:9" ht="15">
       <c r="A669" s="46"/>
       <c r="B669" s="46"/>
       <c r="C669" s="42"/>
@@ -41627,7 +41877,7 @@
       <c r="H669" s="49"/>
       <c r="I669" s="43"/>
     </row>
-    <row r="670" spans="1:9" ht="15.75">
+    <row r="670" spans="1:9" ht="15">
       <c r="A670" s="46"/>
       <c r="B670" s="46"/>
       <c r="C670" s="42"/>
@@ -41638,7 +41888,7 @@
       <c r="H670" s="49"/>
       <c r="I670" s="43"/>
     </row>
-    <row r="671" spans="1:9" ht="15.75">
+    <row r="671" spans="1:9" ht="15">
       <c r="A671" s="46"/>
       <c r="B671" s="46"/>
       <c r="C671" s="42"/>
@@ -41649,7 +41899,7 @@
       <c r="H671" s="49"/>
       <c r="I671" s="43"/>
     </row>
-    <row r="672" spans="1:9" ht="15.75">
+    <row r="672" spans="1:9" ht="15">
       <c r="A672" s="46"/>
       <c r="B672" s="46"/>
       <c r="C672" s="42"/>
@@ -41660,7 +41910,7 @@
       <c r="H672" s="49"/>
       <c r="I672" s="43"/>
     </row>
-    <row r="673" spans="1:9" ht="15.75">
+    <row r="673" spans="1:9" ht="15">
       <c r="A673" s="46"/>
       <c r="B673" s="46"/>
       <c r="C673" s="42"/>
@@ -41671,7 +41921,7 @@
       <c r="H673" s="49"/>
       <c r="I673" s="43"/>
     </row>
-    <row r="674" spans="1:9" ht="15.75">
+    <row r="674" spans="1:9" ht="15">
       <c r="A674" s="46"/>
       <c r="B674" s="46"/>
       <c r="C674" s="42"/>
@@ -41682,7 +41932,7 @@
       <c r="H674" s="49"/>
       <c r="I674" s="43"/>
     </row>
-    <row r="675" spans="1:9" ht="15.75">
+    <row r="675" spans="1:9" ht="15">
       <c r="A675" s="46"/>
       <c r="B675" s="46"/>
       <c r="C675" s="42"/>
@@ -41693,7 +41943,7 @@
       <c r="H675" s="49"/>
       <c r="I675" s="43"/>
     </row>
-    <row r="676" spans="1:9" ht="15.75">
+    <row r="676" spans="1:9" ht="15">
       <c r="A676" s="46"/>
       <c r="B676" s="46"/>
       <c r="C676" s="42"/>
@@ -41704,7 +41954,7 @@
       <c r="H676" s="49"/>
       <c r="I676" s="43"/>
     </row>
-    <row r="677" spans="1:9" ht="15.75">
+    <row r="677" spans="1:9" ht="15">
       <c r="A677" s="46"/>
       <c r="B677" s="46"/>
       <c r="C677" s="42"/>
@@ -41715,7 +41965,7 @@
       <c r="H677" s="49"/>
       <c r="I677" s="43"/>
     </row>
-    <row r="678" spans="1:9" ht="15.75">
+    <row r="678" spans="1:9" ht="15">
       <c r="A678" s="46"/>
       <c r="B678" s="46"/>
       <c r="C678" s="42"/>
@@ -41726,7 +41976,7 @@
       <c r="H678" s="49"/>
       <c r="I678" s="43"/>
     </row>
-    <row r="679" spans="1:9" ht="15.75">
+    <row r="679" spans="1:9" ht="15">
       <c r="A679" s="46"/>
       <c r="B679" s="46"/>
       <c r="C679" s="42"/>
@@ -41737,7 +41987,7 @@
       <c r="H679" s="49"/>
       <c r="I679" s="43"/>
     </row>
-    <row r="680" spans="1:9" ht="15.75">
+    <row r="680" spans="1:9" ht="15">
       <c r="A680" s="46"/>
       <c r="B680" s="46"/>
       <c r="C680" s="42"/>
@@ -41748,7 +41998,7 @@
       <c r="H680" s="49"/>
       <c r="I680" s="43"/>
     </row>
-    <row r="681" spans="1:9" ht="15.75">
+    <row r="681" spans="1:9" ht="15">
       <c r="A681" s="46"/>
       <c r="B681" s="46"/>
       <c r="C681" s="42"/>
@@ -41759,7 +42009,7 @@
       <c r="H681" s="49"/>
       <c r="I681" s="43"/>
     </row>
-    <row r="682" spans="1:9" ht="15.75">
+    <row r="682" spans="1:9" ht="15">
       <c r="A682" s="46"/>
       <c r="B682" s="46"/>
       <c r="C682" s="42"/>
@@ -41770,7 +42020,7 @@
       <c r="H682" s="49"/>
       <c r="I682" s="43"/>
     </row>
-    <row r="683" spans="1:9" ht="15.75">
+    <row r="683" spans="1:9" ht="15">
       <c r="A683" s="46"/>
       <c r="B683" s="46"/>
       <c r="C683" s="42"/>
@@ -41781,7 +42031,7 @@
       <c r="H683" s="49"/>
       <c r="I683" s="43"/>
     </row>
-    <row r="684" spans="1:9" ht="15.75">
+    <row r="684" spans="1:9" ht="15">
       <c r="A684" s="46"/>
       <c r="B684" s="46"/>
       <c r="C684" s="42"/>
@@ -41792,7 +42042,7 @@
       <c r="H684" s="49"/>
       <c r="I684" s="43"/>
     </row>
-    <row r="685" spans="1:9" ht="15.75">
+    <row r="685" spans="1:9" ht="15">
       <c r="A685" s="46"/>
       <c r="B685" s="46"/>
       <c r="C685" s="42"/>
@@ -41803,7 +42053,7 @@
       <c r="H685" s="49"/>
       <c r="I685" s="43"/>
     </row>
-    <row r="686" spans="1:9" ht="15.75">
+    <row r="686" spans="1:9" ht="15">
       <c r="A686" s="46"/>
       <c r="B686" s="46"/>
       <c r="C686" s="42"/>
@@ -41814,7 +42064,7 @@
       <c r="H686" s="49"/>
       <c r="I686" s="43"/>
     </row>
-    <row r="687" spans="1:9" ht="15.75">
+    <row r="687" spans="1:9" ht="15">
       <c r="A687" s="46"/>
       <c r="B687" s="46"/>
       <c r="C687" s="42"/>
@@ -41825,7 +42075,7 @@
       <c r="H687" s="49"/>
       <c r="I687" s="43"/>
     </row>
-    <row r="688" spans="1:9" ht="15.75">
+    <row r="688" spans="1:9" ht="15">
       <c r="A688" s="46"/>
       <c r="B688" s="46"/>
       <c r="C688" s="42"/>
@@ -41836,7 +42086,7 @@
       <c r="H688" s="49"/>
       <c r="I688" s="43"/>
     </row>
-    <row r="689" spans="1:9" ht="15.75">
+    <row r="689" spans="1:9" ht="15">
       <c r="A689" s="46"/>
       <c r="B689" s="46"/>
       <c r="C689" s="42"/>
@@ -41847,7 +42097,7 @@
       <c r="H689" s="49"/>
       <c r="I689" s="43"/>
     </row>
-    <row r="690" spans="1:9" ht="15.75">
+    <row r="690" spans="1:9" ht="15">
       <c r="A690" s="46"/>
       <c r="B690" s="46"/>
       <c r="C690" s="42"/>
@@ -41858,7 +42108,7 @@
       <c r="H690" s="49"/>
       <c r="I690" s="43"/>
     </row>
-    <row r="691" spans="1:9" ht="15.75">
+    <row r="691" spans="1:9" ht="15">
       <c r="A691" s="46"/>
       <c r="B691" s="46"/>
       <c r="C691" s="42"/>
@@ -41869,7 +42119,7 @@
       <c r="H691" s="49"/>
       <c r="I691" s="43"/>
     </row>
-    <row r="692" spans="1:9" ht="15.75">
+    <row r="692" spans="1:9" ht="15">
       <c r="A692" s="46"/>
       <c r="B692" s="46"/>
       <c r="C692" s="42"/>
@@ -41880,7 +42130,7 @@
       <c r="H692" s="49"/>
       <c r="I692" s="43"/>
     </row>
-    <row r="693" spans="1:9" ht="15.75">
+    <row r="693" spans="1:9" ht="15">
       <c r="A693" s="46"/>
       <c r="B693" s="46"/>
       <c r="C693" s="42"/>
@@ -41891,7 +42141,7 @@
       <c r="H693" s="49"/>
       <c r="I693" s="43"/>
     </row>
-    <row r="694" spans="1:9" ht="15.75">
+    <row r="694" spans="1:9" ht="15">
       <c r="A694" s="46"/>
       <c r="B694" s="46"/>
       <c r="C694" s="42"/>
@@ -41902,7 +42152,7 @@
       <c r="H694" s="49"/>
       <c r="I694" s="43"/>
     </row>
-    <row r="695" spans="1:9" ht="15.75">
+    <row r="695" spans="1:9" ht="15">
       <c r="A695" s="46"/>
       <c r="B695" s="46"/>
       <c r="C695" s="42"/>
@@ -41913,7 +42163,7 @@
       <c r="H695" s="49"/>
       <c r="I695" s="43"/>
     </row>
-    <row r="696" spans="1:9" ht="15.75">
+    <row r="696" spans="1:9" ht="15">
       <c r="A696" s="46"/>
       <c r="B696" s="46"/>
       <c r="C696" s="42"/>
@@ -41924,7 +42174,7 @@
       <c r="H696" s="49"/>
       <c r="I696" s="43"/>
     </row>
-    <row r="697" spans="1:9" ht="15.75">
+    <row r="697" spans="1:9" ht="15">
       <c r="A697" s="46"/>
       <c r="B697" s="46"/>
       <c r="C697" s="42"/>
@@ -41935,7 +42185,7 @@
       <c r="H697" s="49"/>
       <c r="I697" s="43"/>
     </row>
-    <row r="698" spans="1:9" ht="15.75">
+    <row r="698" spans="1:9" ht="15">
       <c r="A698" s="46"/>
       <c r="B698" s="46"/>
       <c r="C698" s="42"/>
@@ -41946,7 +42196,7 @@
       <c r="H698" s="49"/>
       <c r="I698" s="43"/>
     </row>
-    <row r="699" spans="1:9" ht="15.75">
+    <row r="699" spans="1:9" ht="15">
       <c r="A699" s="46"/>
       <c r="B699" s="46"/>
       <c r="C699" s="42"/>
@@ -41957,7 +42207,7 @@
       <c r="H699" s="49"/>
       <c r="I699" s="43"/>
     </row>
-    <row r="700" spans="1:9" ht="15.75">
+    <row r="700" spans="1:9" ht="15">
       <c r="A700" s="46"/>
       <c r="B700" s="46"/>
       <c r="C700" s="42"/>
@@ -41968,7 +42218,7 @@
       <c r="H700" s="49"/>
       <c r="I700" s="43"/>
     </row>
-    <row r="701" spans="1:9" ht="15.75">
+    <row r="701" spans="1:9" ht="15">
       <c r="A701" s="46"/>
       <c r="B701" s="46"/>
       <c r="C701" s="42"/>
@@ -41979,7 +42229,7 @@
       <c r="H701" s="49"/>
       <c r="I701" s="43"/>
     </row>
-    <row r="702" spans="1:9" ht="15.75">
+    <row r="702" spans="1:9" ht="15">
       <c r="A702" s="46"/>
       <c r="B702" s="46"/>
       <c r="C702" s="42"/>
@@ -41990,7 +42240,7 @@
       <c r="H702" s="49"/>
       <c r="I702" s="43"/>
     </row>
-    <row r="703" spans="1:9" ht="15.75">
+    <row r="703" spans="1:9" ht="15">
       <c r="A703" s="46"/>
       <c r="B703" s="46"/>
       <c r="C703" s="42"/>
@@ -42001,7 +42251,7 @@
       <c r="H703" s="49"/>
       <c r="I703" s="43"/>
     </row>
-    <row r="704" spans="1:9" ht="15.75">
+    <row r="704" spans="1:9" ht="15">
       <c r="A704" s="46"/>
       <c r="B704" s="46"/>
       <c r="C704" s="42"/>
@@ -42012,7 +42262,7 @@
       <c r="H704" s="49"/>
       <c r="I704" s="43"/>
     </row>
-    <row r="705" spans="1:9" ht="15.75">
+    <row r="705" spans="1:9" ht="15">
       <c r="A705" s="46"/>
       <c r="B705" s="46"/>
       <c r="C705" s="42"/>
@@ -42023,7 +42273,7 @@
       <c r="H705" s="49"/>
       <c r="I705" s="43"/>
     </row>
-    <row r="706" spans="1:9" ht="15.75">
+    <row r="706" spans="1:9" ht="15">
       <c r="A706" s="46"/>
       <c r="B706" s="46"/>
       <c r="C706" s="42"/>
@@ -42034,7 +42284,7 @@
       <c r="H706" s="49"/>
       <c r="I706" s="43"/>
     </row>
-    <row r="707" spans="1:9" ht="15.75">
+    <row r="707" spans="1:9" ht="15">
       <c r="A707" s="46"/>
       <c r="B707" s="46"/>
       <c r="C707" s="42"/>
@@ -42045,7 +42295,7 @@
       <c r="H707" s="49"/>
       <c r="I707" s="43"/>
     </row>
-    <row r="708" spans="1:9" ht="15.75">
+    <row r="708" spans="1:9" ht="15">
       <c r="A708" s="46"/>
       <c r="B708" s="46"/>
       <c r="C708" s="42"/>
@@ -42056,7 +42306,7 @@
       <c r="H708" s="49"/>
       <c r="I708" s="43"/>
     </row>
-    <row r="709" spans="1:9" ht="15.75">
+    <row r="709" spans="1:9" ht="15">
       <c r="A709" s="46"/>
       <c r="B709" s="46"/>
       <c r="C709" s="42"/>
@@ -42067,7 +42317,7 @@
       <c r="H709" s="49"/>
       <c r="I709" s="43"/>
     </row>
-    <row r="710" spans="1:9" ht="15.75">
+    <row r="710" spans="1:9" ht="15">
       <c r="A710" s="46"/>
       <c r="B710" s="46"/>
       <c r="C710" s="42"/>
@@ -42078,7 +42328,7 @@
       <c r="H710" s="49"/>
       <c r="I710" s="43"/>
     </row>
-    <row r="711" spans="1:9" ht="15.75">
+    <row r="711" spans="1:9" ht="15">
       <c r="A711" s="46"/>
       <c r="B711" s="46"/>
       <c r="C711" s="42"/>
@@ -42089,7 +42339,7 @@
       <c r="H711" s="49"/>
       <c r="I711" s="43"/>
     </row>
-    <row r="712" spans="1:9" ht="15.75">
+    <row r="712" spans="1:9" ht="15">
       <c r="A712" s="46"/>
       <c r="B712" s="46"/>
       <c r="C712" s="42"/>
@@ -42100,7 +42350,7 @@
       <c r="H712" s="49"/>
       <c r="I712" s="43"/>
     </row>
-    <row r="713" spans="1:9" ht="15.75">
+    <row r="713" spans="1:9" ht="15">
       <c r="A713" s="46"/>
       <c r="B713" s="46"/>
       <c r="C713" s="42"/>
@@ -42111,7 +42361,7 @@
       <c r="H713" s="49"/>
       <c r="I713" s="43"/>
     </row>
-    <row r="714" spans="1:9" ht="15.75">
+    <row r="714" spans="1:9" ht="15">
       <c r="A714" s="46"/>
       <c r="B714" s="46"/>
       <c r="C714" s="42"/>
@@ -42122,7 +42372,7 @@
       <c r="H714" s="49"/>
       <c r="I714" s="43"/>
     </row>
-    <row r="715" spans="1:9" ht="15.75">
+    <row r="715" spans="1:9" ht="15">
       <c r="A715" s="46"/>
       <c r="B715" s="46"/>
       <c r="C715" s="42"/>
@@ -42133,7 +42383,7 @@
       <c r="H715" s="49"/>
       <c r="I715" s="43"/>
     </row>
-    <row r="716" spans="1:9" ht="15.75">
+    <row r="716" spans="1:9" ht="15">
       <c r="A716" s="46"/>
       <c r="B716" s="46"/>
       <c r="C716" s="42"/>
@@ -42144,7 +42394,7 @@
       <c r="H716" s="49"/>
       <c r="I716" s="43"/>
     </row>
-    <row r="717" spans="1:9" ht="15.75">
+    <row r="717" spans="1:9" ht="15">
       <c r="A717" s="46"/>
       <c r="B717" s="46"/>
       <c r="C717" s="42"/>
@@ -42155,7 +42405,7 @@
       <c r="H717" s="49"/>
       <c r="I717" s="43"/>
     </row>
-    <row r="718" spans="1:9" ht="15.75">
+    <row r="718" spans="1:9" ht="15">
       <c r="A718" s="46"/>
       <c r="B718" s="46"/>
       <c r="C718" s="42"/>
@@ -42166,7 +42416,7 @@
       <c r="H718" s="49"/>
       <c r="I718" s="43"/>
     </row>
-    <row r="719" spans="1:9" ht="15.75">
+    <row r="719" spans="1:9" ht="15">
       <c r="A719" s="46"/>
       <c r="B719" s="46"/>
       <c r="C719" s="42"/>
@@ -42177,7 +42427,7 @@
       <c r="H719" s="49"/>
       <c r="I719" s="43"/>
     </row>
-    <row r="720" spans="1:9" ht="15.75">
+    <row r="720" spans="1:9" ht="15">
       <c r="A720" s="46"/>
       <c r="B720" s="46"/>
       <c r="C720" s="42"/>
@@ -42188,7 +42438,7 @@
       <c r="H720" s="49"/>
       <c r="I720" s="43"/>
     </row>
-    <row r="721" spans="1:9" ht="15.75">
+    <row r="721" spans="1:9" ht="15">
       <c r="A721" s="46"/>
       <c r="B721" s="46"/>
       <c r="C721" s="42"/>
@@ -42199,7 +42449,7 @@
       <c r="H721" s="49"/>
       <c r="I721" s="43"/>
     </row>
-    <row r="722" spans="1:9" ht="15.75">
+    <row r="722" spans="1:9" ht="15">
       <c r="A722" s="46"/>
       <c r="B722" s="46"/>
       <c r="C722" s="42"/>
@@ -42210,7 +42460,7 @@
       <c r="H722" s="49"/>
       <c r="I722" s="43"/>
     </row>
-    <row r="723" spans="1:9" ht="15.75">
+    <row r="723" spans="1:9" ht="15">
       <c r="A723" s="46"/>
       <c r="B723" s="46"/>
       <c r="C723" s="42"/>
@@ -42221,7 +42471,7 @@
       <c r="H723" s="49"/>
       <c r="I723" s="43"/>
     </row>
-    <row r="724" spans="1:9" ht="15.75">
+    <row r="724" spans="1:9" ht="15">
       <c r="A724" s="46"/>
       <c r="B724" s="46"/>
       <c r="C724" s="42"/>
@@ -42232,7 +42482,7 @@
       <c r="H724" s="49"/>
       <c r="I724" s="43"/>
     </row>
-    <row r="725" spans="1:9" ht="15.75">
+    <row r="725" spans="1:9" ht="15">
       <c r="A725" s="46"/>
       <c r="B725" s="46"/>
       <c r="C725" s="42"/>
@@ -42243,7 +42493,7 @@
       <c r="H725" s="49"/>
       <c r="I725" s="43"/>
     </row>
-    <row r="726" spans="1:9" ht="15.75">
+    <row r="726" spans="1:9" ht="15">
       <c r="A726" s="46"/>
       <c r="B726" s="46"/>
       <c r="C726" s="42"/>
@@ -42254,7 +42504,7 @@
       <c r="H726" s="49"/>
       <c r="I726" s="43"/>
     </row>
-    <row r="727" spans="1:9" ht="15.75">
+    <row r="727" spans="1:9" ht="15">
       <c r="A727" s="46"/>
       <c r="B727" s="46"/>
       <c r="C727" s="42"/>
@@ -42265,7 +42515,7 @@
       <c r="H727" s="49"/>
       <c r="I727" s="43"/>
     </row>
-    <row r="728" spans="1:9" ht="15.75">
+    <row r="728" spans="1:9" ht="15">
       <c r="A728" s="46"/>
       <c r="B728" s="46"/>
       <c r="C728" s="42"/>
@@ -42276,7 +42526,7 @@
       <c r="H728" s="49"/>
       <c r="I728" s="43"/>
     </row>
-    <row r="729" spans="1:9" ht="15.75">
+    <row r="729" spans="1:9" ht="15">
       <c r="A729" s="46"/>
       <c r="B729" s="46"/>
       <c r="C729" s="42"/>
@@ -42287,7 +42537,7 @@
       <c r="H729" s="49"/>
       <c r="I729" s="43"/>
     </row>
-    <row r="730" spans="1:9" ht="15.75">
+    <row r="730" spans="1:9" ht="15">
       <c r="A730" s="46"/>
       <c r="B730" s="46"/>
       <c r="C730" s="42"/>
@@ -42298,7 +42548,7 @@
       <c r="H730" s="49"/>
       <c r="I730" s="43"/>
     </row>
-    <row r="731" spans="1:9" ht="15.75">
+    <row r="731" spans="1:9" ht="15">
       <c r="A731" s="46"/>
       <c r="B731" s="46"/>
       <c r="C731" s="42"/>
@@ -42309,7 +42559,7 @@
       <c r="H731" s="49"/>
       <c r="I731" s="43"/>
     </row>
-    <row r="732" spans="1:9" ht="15.75">
+    <row r="732" spans="1:9" ht="15">
       <c r="A732" s="46"/>
       <c r="B732" s="46"/>
       <c r="C732" s="42"/>
@@ -42320,7 +42570,7 @@
       <c r="H732" s="49"/>
       <c r="I732" s="43"/>
     </row>
-    <row r="733" spans="1:9" ht="15.75">
+    <row r="733" spans="1:9" ht="15">
       <c r="A733" s="46"/>
       <c r="B733" s="46"/>
       <c r="C733" s="42"/>
@@ -42331,7 +42581,7 @@
       <c r="H733" s="49"/>
       <c r="I733" s="43"/>
     </row>
-    <row r="734" spans="1:9" ht="15.75">
+    <row r="734" spans="1:9" ht="15">
       <c r="A734" s="46"/>
       <c r="B734" s="46"/>
       <c r="C734" s="42"/>
@@ -42342,7 +42592,7 @@
       <c r="H734" s="49"/>
       <c r="I734" s="43"/>
     </row>
-    <row r="735" spans="1:9" ht="15.75">
+    <row r="735" spans="1:9" ht="15">
       <c r="A735" s="46"/>
       <c r="B735" s="46"/>
       <c r="C735" s="42"/>
@@ -42353,7 +42603,7 @@
       <c r="H735" s="49"/>
       <c r="I735" s="43"/>
     </row>
-    <row r="736" spans="1:9" ht="15.75">
+    <row r="736" spans="1:9" ht="15">
       <c r="A736" s="46"/>
       <c r="B736" s="46"/>
       <c r="C736" s="42"/>
@@ -42364,7 +42614,7 @@
       <c r="H736" s="49"/>
       <c r="I736" s="43"/>
     </row>
-    <row r="737" spans="1:9" ht="15.75">
+    <row r="737" spans="1:9" ht="15">
       <c r="A737" s="46"/>
       <c r="B737" s="46"/>
       <c r="C737" s="42"/>
@@ -42375,7 +42625,7 @@
       <c r="H737" s="49"/>
       <c r="I737" s="43"/>
     </row>
-    <row r="738" spans="1:9" ht="15.75">
+    <row r="738" spans="1:9" ht="15">
       <c r="A738" s="46"/>
       <c r="B738" s="46"/>
       <c r="C738" s="42"/>
@@ -42386,7 +42636,7 @@
       <c r="H738" s="49"/>
       <c r="I738" s="43"/>
     </row>
-    <row r="739" spans="1:9" ht="15.75">
+    <row r="739" spans="1:9" ht="15">
       <c r="A739" s="46"/>
       <c r="B739" s="46"/>
       <c r="C739" s="42"/>
@@ -42397,7 +42647,7 @@
       <c r="H739" s="49"/>
       <c r="I739" s="43"/>
     </row>
-    <row r="740" spans="1:9" ht="15.75">
+    <row r="740" spans="1:9" ht="15">
       <c r="A740" s="46"/>
       <c r="B740" s="46"/>
       <c r="C740" s="42"/>
@@ -42408,7 +42658,7 @@
       <c r="H740" s="49"/>
       <c r="I740" s="43"/>
     </row>
-    <row r="741" spans="1:9" ht="15.75">
+    <row r="741" spans="1:9" ht="15">
       <c r="A741" s="46"/>
       <c r="B741" s="46"/>
       <c r="C741" s="42"/>
@@ -42419,7 +42669,7 @@
       <c r="H741" s="49"/>
       <c r="I741" s="43"/>
     </row>
-    <row r="742" spans="1:9" ht="15.75">
+    <row r="742" spans="1:9" ht="15">
       <c r="A742" s="46"/>
       <c r="B742" s="46"/>
       <c r="C742" s="42"/>
@@ -42430,7 +42680,7 @@
       <c r="H742" s="49"/>
       <c r="I742" s="43"/>
     </row>
-    <row r="743" spans="1:9" ht="15.75">
+    <row r="743" spans="1:9" ht="15">
       <c r="A743" s="46"/>
       <c r="B743" s="46"/>
       <c r="C743" s="42"/>
@@ -42441,7 +42691,7 @@
       <c r="H743" s="49"/>
       <c r="I743" s="43"/>
     </row>
-    <row r="744" spans="1:9" ht="15.75">
+    <row r="744" spans="1:9" ht="15">
       <c r="A744" s="46"/>
       <c r="B744" s="46"/>
       <c r="C744" s="42"/>
@@ -42452,7 +42702,7 @@
       <c r="H744" s="49"/>
       <c r="I744" s="43"/>
     </row>
-    <row r="745" spans="1:9" ht="15.75">
+    <row r="745" spans="1:9" ht="15">
       <c r="A745" s="46"/>
       <c r="B745" s="46"/>
       <c r="C745" s="42"/>
@@ -42463,7 +42713,7 @@
       <c r="H745" s="49"/>
       <c r="I745" s="43"/>
     </row>
-    <row r="746" spans="1:9" ht="15.75">
+    <row r="746" spans="1:9" ht="15">
       <c r="A746" s="46"/>
       <c r="B746" s="46"/>
       <c r="C746" s="42"/>
@@ -42474,7 +42724,7 @@
       <c r="H746" s="49"/>
       <c r="I746" s="43"/>
     </row>
-    <row r="747" spans="1:9" ht="15.75">
+    <row r="747" spans="1:9" ht="15">
       <c r="A747" s="46"/>
       <c r="B747" s="46"/>
       <c r="C747" s="42"/>
@@ -42485,7 +42735,7 @@
       <c r="H747" s="49"/>
       <c r="I747" s="43"/>
     </row>
-    <row r="748" spans="1:9" ht="15.75">
+    <row r="748" spans="1:9" ht="15">
       <c r="A748" s="46"/>
       <c r="B748" s="46"/>
       <c r="C748" s="42"/>
@@ -42496,7 +42746,7 @@
       <c r="H748" s="49"/>
       <c r="I748" s="43"/>
     </row>
-    <row r="749" spans="1:9" ht="15.75">
+    <row r="749" spans="1:9" ht="15">
       <c r="A749" s="46"/>
       <c r="B749" s="46"/>
       <c r="C749" s="42"/>
@@ -42507,7 +42757,7 @@
       <c r="H749" s="49"/>
       <c r="I749" s="43"/>
     </row>
-    <row r="750" spans="1:9" ht="15.75">
+    <row r="750" spans="1:9" ht="15">
       <c r="A750" s="46"/>
       <c r="B750" s="46"/>
       <c r="C750" s="42"/>
@@ -42518,7 +42768,7 @@
       <c r="H750" s="49"/>
       <c r="I750" s="43"/>
     </row>
-    <row r="751" spans="1:9" ht="15.75">
+    <row r="751" spans="1:9" ht="15">
       <c r="A751" s="46"/>
       <c r="B751" s="46"/>
       <c r="C751" s="42"/>
@@ -42529,7 +42779,7 @@
       <c r="H751" s="49"/>
       <c r="I751" s="43"/>
     </row>
-    <row r="752" spans="1:9" ht="15.75">
+    <row r="752" spans="1:9" ht="15">
       <c r="A752" s="46"/>
       <c r="B752" s="46"/>
       <c r="C752" s="42"/>
@@ -42540,7 +42790,7 @@
       <c r="H752" s="49"/>
       <c r="I752" s="43"/>
     </row>
-    <row r="753" spans="1:9" ht="15.75">
+    <row r="753" spans="1:9" ht="15">
       <c r="A753" s="46"/>
       <c r="B753" s="46"/>
       <c r="C753" s="42"/>
@@ -42551,7 +42801,7 @@
       <c r="H753" s="49"/>
       <c r="I753" s="43"/>
     </row>
-    <row r="754" spans="1:9" ht="15.75">
+    <row r="754" spans="1:9" ht="15">
       <c r="A754" s="46"/>
       <c r="B754" s="46"/>
       <c r="C754" s="42"/>
@@ -42562,7 +42812,7 @@
       <c r="H754" s="49"/>
       <c r="I754" s="43"/>
     </row>
-    <row r="755" spans="1:9" ht="15.75">
+    <row r="755" spans="1:9" ht="15">
       <c r="A755" s="46"/>
       <c r="B755" s="46"/>
       <c r="C755" s="42"/>
@@ -42573,7 +42823,7 @@
       <c r="H755" s="49"/>
       <c r="I755" s="43"/>
     </row>
-    <row r="756" spans="1:9" ht="15.75">
+    <row r="756" spans="1:9" ht="15">
       <c r="A756" s="46"/>
       <c r="B756" s="46"/>
       <c r="C756" s="42"/>
@@ -42584,7 +42834,7 @@
       <c r="H756" s="49"/>
       <c r="I756" s="43"/>
     </row>
-    <row r="757" spans="1:9" ht="15.75">
+    <row r="757" spans="1:9" ht="15">
       <c r="A757" s="46"/>
       <c r="B757" s="46"/>
       <c r="C757" s="42"/>
@@ -42595,7 +42845,7 @@
       <c r="H757" s="49"/>
       <c r="I757" s="43"/>
     </row>
-    <row r="758" spans="1:9" ht="15.75">
+    <row r="758" spans="1:9" ht="15">
       <c r="A758" s="46"/>
       <c r="B758" s="46"/>
       <c r="C758" s="42"/>
@@ -42606,7 +42856,7 @@
       <c r="H758" s="49"/>
       <c r="I758" s="43"/>
     </row>
-    <row r="759" spans="1:9" ht="15.75">
+    <row r="759" spans="1:9" ht="15">
       <c r="A759" s="46"/>
       <c r="B759" s="46"/>
       <c r="C759" s="42"/>
@@ -42617,7 +42867,7 @@
       <c r="H759" s="49"/>
       <c r="I759" s="43"/>
     </row>
-    <row r="760" spans="1:9" ht="15.75">
+    <row r="760" spans="1:9" ht="15">
       <c r="A760" s="46"/>
       <c r="B760" s="46"/>
       <c r="C760" s="42"/>
@@ -42628,7 +42878,7 @@
       <c r="H760" s="49"/>
       <c r="I760" s="43"/>
     </row>
-    <row r="761" spans="1:9" ht="15.75">
+    <row r="761" spans="1:9" ht="15">
       <c r="A761" s="46"/>
       <c r="B761" s="46"/>
       <c r="C761" s="42"/>
@@ -42639,7 +42889,7 @@
       <c r="H761" s="49"/>
       <c r="I761" s="43"/>
     </row>
-    <row r="762" spans="1:9" ht="15.75">
+    <row r="762" spans="1:9" ht="15">
       <c r="A762" s="46"/>
       <c r="B762" s="46"/>
       <c r="C762" s="42"/>
@@ -42650,7 +42900,7 @@
       <c r="H762" s="49"/>
       <c r="I762" s="43"/>
     </row>
-    <row r="763" spans="1:9" ht="15.75">
+    <row r="763" spans="1:9" ht="15">
       <c r="A763" s="46"/>
       <c r="B763" s="46"/>
       <c r="C763" s="42"/>
@@ -42661,7 +42911,7 @@
       <c r="H763" s="49"/>
       <c r="I763" s="43"/>
     </row>
-    <row r="764" spans="1:9" ht="15.75">
+    <row r="764" spans="1:9" ht="15">
       <c r="A764" s="46"/>
       <c r="B764" s="46"/>
       <c r="C764" s="42"/>
@@ -42672,7 +42922,7 @@
       <c r="H764" s="49"/>
       <c r="I764" s="43"/>
     </row>
-    <row r="765" spans="1:9" ht="15.75">
+    <row r="765" spans="1:9" ht="15">
       <c r="A765" s="46"/>
       <c r="B765" s="46"/>
       <c r="C765" s="42"/>
@@ -42683,7 +42933,7 @@
       <c r="H765" s="49"/>
       <c r="I765" s="43"/>
     </row>
-    <row r="766" spans="1:9" ht="15.75">
+    <row r="766" spans="1:9" ht="15">
       <c r="A766" s="46"/>
       <c r="B766" s="46"/>
       <c r="C766" s="42"/>
@@ -42694,7 +42944,7 @@
       <c r="H766" s="49"/>
       <c r="I766" s="43"/>
     </row>
-    <row r="767" spans="1:9" ht="15.75">
+    <row r="767" spans="1:9" ht="15">
       <c r="A767" s="46"/>
       <c r="B767" s="46"/>
       <c r="C767" s="42"/>
@@ -42705,7 +42955,7 @@
       <c r="H767" s="49"/>
       <c r="I767" s="43"/>
     </row>
-    <row r="768" spans="1:9" ht="15.75">
+    <row r="768" spans="1:9" ht="15">
       <c r="A768" s="46"/>
       <c r="B768" s="46"/>
       <c r="C768" s="42"/>
@@ -42716,7 +42966,7 @@
       <c r="H768" s="49"/>
       <c r="I768" s="43"/>
     </row>
-    <row r="769" spans="1:9" ht="15.75">
+    <row r="769" spans="1:9" ht="15">
       <c r="A769" s="46"/>
       <c r="B769" s="46"/>
       <c r="C769" s="42"/>
@@ -42727,7 +42977,7 @@
       <c r="H769" s="49"/>
       <c r="I769" s="43"/>
     </row>
-    <row r="770" spans="1:9" ht="15.75">
+    <row r="770" spans="1:9" ht="15">
       <c r="A770" s="46"/>
       <c r="B770" s="46"/>
       <c r="C770" s="42"/>
@@ -42738,7 +42988,7 @@
       <c r="H770" s="49"/>
       <c r="I770" s="43"/>
     </row>
-    <row r="771" spans="1:9" ht="15.75">
+    <row r="771" spans="1:9" ht="15">
       <c r="A771" s="46"/>
       <c r="B771" s="46"/>
       <c r="C771" s="42"/>
@@ -42749,7 +42999,7 @@
       <c r="H771" s="49"/>
       <c r="I771" s="43"/>
     </row>
-    <row r="772" spans="1:9" ht="15.75">
+    <row r="772" spans="1:9" ht="15">
       <c r="A772" s="46"/>
       <c r="B772" s="46"/>
       <c r="C772" s="42"/>
@@ -42760,7 +43010,7 @@
       <c r="H772" s="49"/>
       <c r="I772" s="43"/>
     </row>
-    <row r="773" spans="1:9" ht="15.75">
+    <row r="773" spans="1:9" ht="15">
       <c r="A773" s="46"/>
       <c r="B773" s="46"/>
       <c r="C773" s="42"/>
@@ -42771,7 +43021,7 @@
       <c r="H773" s="49"/>
       <c r="I773" s="43"/>
     </row>
-    <row r="774" spans="1:9" ht="15.75">
+    <row r="774" spans="1:9" ht="15">
       <c r="A774" s="46"/>
       <c r="B774" s="46"/>
       <c r="C774" s="42"/>
@@ -42782,7 +43032,7 @@
       <c r="H774" s="49"/>
       <c r="I774" s="43"/>
     </row>
-    <row r="775" spans="1:9" ht="15.75">
+    <row r="775" spans="1:9" ht="15">
       <c r="A775" s="46"/>
       <c r="B775" s="46"/>
       <c r="C775" s="42"/>
@@ -42793,7 +43043,7 @@
       <c r="H775" s="49"/>
       <c r="I775" s="43"/>
     </row>
-    <row r="776" spans="1:9" ht="15.75">
+    <row r="776" spans="1:9" ht="15">
       <c r="A776" s="46"/>
       <c r="B776" s="46"/>
       <c r="C776" s="42"/>
@@ -42804,7 +43054,7 @@
       <c r="H776" s="49"/>
       <c r="I776" s="43"/>
     </row>
-    <row r="777" spans="1:9" ht="15.75">
+    <row r="777" spans="1:9" ht="15">
       <c r="A777" s="46"/>
       <c r="B777" s="46"/>
       <c r="C777" s="42"/>
@@ -42815,7 +43065,7 @@
       <c r="H777" s="49"/>
       <c r="I777" s="43"/>
     </row>
-    <row r="778" spans="1:9" ht="15.75">
+    <row r="778" spans="1:9" ht="15">
       <c r="A778" s="46"/>
       <c r="B778" s="46"/>
       <c r="C778" s="42"/>
@@ -42826,7 +43076,7 @@
       <c r="H778" s="49"/>
       <c r="I778" s="43"/>
     </row>
-    <row r="779" spans="1:9" ht="15.75">
+    <row r="779" spans="1:9" ht="15">
       <c r="A779" s="46"/>
       <c r="B779" s="46"/>
       <c r="C779" s="42"/>
@@ -42837,7 +43087,7 @@
       <c r="H779" s="49"/>
       <c r="I779" s="43"/>
     </row>
-    <row r="780" spans="1:9" ht="15.75">
+    <row r="780" spans="1:9" ht="15">
       <c r="A780" s="46"/>
       <c r="B780" s="46"/>
       <c r="C780" s="42"/>
@@ -42848,7 +43098,7 @@
       <c r="H780" s="49"/>
       <c r="I780" s="43"/>
     </row>
-    <row r="781" spans="1:9" ht="15.75">
+    <row r="781" spans="1:9" ht="15">
       <c r="A781" s="46"/>
       <c r="B781" s="46"/>
       <c r="C781" s="42"/>
@@ -42859,7 +43109,7 @@
       <c r="H781" s="49"/>
       <c r="I781" s="43"/>
     </row>
-    <row r="782" spans="1:9" ht="15.75">
+    <row r="782" spans="1:9" ht="15">
       <c r="A782" s="46"/>
       <c r="B782" s="46"/>
       <c r="C782" s="42"/>
@@ -42870,7 +43120,7 @@
       <c r="H782" s="49"/>
       <c r="I782" s="43"/>
     </row>
-    <row r="783" spans="1:9" ht="15.75">
+    <row r="783" spans="1:9" ht="15">
       <c r="A783" s="46"/>
       <c r="B783" s="46"/>
       <c r="C783" s="42"/>
@@ -42881,7 +43131,7 @@
       <c r="H783" s="49"/>
       <c r="I783" s="43"/>
     </row>
-    <row r="784" spans="1:9" ht="15.75">
+    <row r="784" spans="1:9" ht="15">
       <c r="A784" s="46"/>
       <c r="B784" s="46"/>
       <c r="C784" s="42"/>
@@ -42892,7 +43142,7 @@
       <c r="H784" s="49"/>
       <c r="I784" s="43"/>
     </row>
-    <row r="785" spans="1:9" ht="15.75">
+    <row r="785" spans="1:9" ht="15">
       <c r="A785" s="46"/>
       <c r="B785" s="46"/>
       <c r="C785" s="42"/>
@@ -42903,7 +43153,7 @@
       <c r="H785" s="49"/>
       <c r="I785" s="43"/>
     </row>
-    <row r="786" spans="1:9" ht="15.75">
+    <row r="786" spans="1:9" ht="15">
       <c r="A786" s="46"/>
       <c r="B786" s="46"/>
       <c r="C786" s="42"/>
@@ -42914,7 +43164,7 @@
       <c r="H786" s="49"/>
       <c r="I786" s="43"/>
     </row>
-    <row r="787" spans="1:9" ht="15.75">
+    <row r="787" spans="1:9" ht="15">
       <c r="A787" s="46"/>
       <c r="B787" s="46"/>
       <c r="C787" s="42"/>
@@ -42925,7 +43175,7 @@
       <c r="H787" s="49"/>
       <c r="I787" s="43"/>
     </row>
-    <row r="788" spans="1:9" ht="15.75">
+    <row r="788" spans="1:9" ht="15">
       <c r="A788" s="46"/>
       <c r="B788" s="46"/>
       <c r="C788" s="42"/>
@@ -42936,7 +43186,7 @@
       <c r="H788" s="49"/>
       <c r="I788" s="43"/>
     </row>
-    <row r="789" spans="1:9" ht="15.75">
+    <row r="789" spans="1:9" ht="15">
       <c r="A789" s="46"/>
       <c r="B789" s="46"/>
       <c r="C789" s="42"/>
@@ -42947,7 +43197,7 @@
       <c r="H789" s="49"/>
       <c r="I789" s="43"/>
     </row>
-    <row r="790" spans="1:9" ht="15.75">
+    <row r="790" spans="1:9" ht="15">
       <c r="A790" s="46"/>
       <c r="B790" s="46"/>
       <c r="C790" s="42"/>
@@ -42958,7 +43208,7 @@
       <c r="H790" s="49"/>
       <c r="I790" s="43"/>
     </row>
-    <row r="791" spans="1:9" ht="15.75">
+    <row r="791" spans="1:9" ht="15">
       <c r="A791" s="46"/>
       <c r="B791" s="46"/>
       <c r="C791" s="42"/>
@@ -42969,7 +43219,7 @@
       <c r="H791" s="49"/>
       <c r="I791" s="43"/>
     </row>
-    <row r="792" spans="1:9" ht="15.75">
+    <row r="792" spans="1:9" ht="15">
       <c r="A792" s="46"/>
       <c r="B792" s="46"/>
       <c r="C792" s="42"/>
@@ -42980,7 +43230,7 @@
       <c r="H792" s="49"/>
       <c r="I792" s="43"/>
     </row>
-    <row r="793" spans="1:9" ht="15.75">
+    <row r="793" spans="1:9" ht="15">
       <c r="A793" s="46"/>
       <c r="B793" s="46"/>
       <c r="C793" s="42"/>
@@ -42991,7 +43241,7 @@
       <c r="H793" s="49"/>
       <c r="I793" s="43"/>
     </row>
-    <row r="794" spans="1:9" ht="15.75">
+    <row r="794" spans="1:9" ht="15">
       <c r="A794" s="46"/>
       <c r="B794" s="46"/>
       <c r="C794" s="42"/>
@@ -43002,7 +43252,7 @@
       <c r="H794" s="49"/>
       <c r="I794" s="43"/>
     </row>
-    <row r="795" spans="1:9" ht="15.75">
+    <row r="795" spans="1:9" ht="15">
       <c r="A795" s="46"/>
       <c r="B795" s="46"/>
       <c r="C795" s="42"/>
@@ -43013,7 +43263,7 @@
       <c r="H795" s="49"/>
       <c r="I795" s="43"/>
     </row>
-    <row r="796" spans="1:9" ht="15.75">
+    <row r="796" spans="1:9" ht="15">
       <c r="A796" s="46"/>
       <c r="B796" s="46"/>
       <c r="C796" s="42"/>
@@ -43024,7 +43274,7 @@
       <c r="H796" s="49"/>
       <c r="I796" s="43"/>
     </row>
-    <row r="797" spans="1:9" ht="15.75">
+    <row r="797" spans="1:9" ht="15">
       <c r="A797" s="46"/>
       <c r="B797" s="46"/>
       <c r="C797" s="42"/>
@@ -43035,7 +43285,7 @@
       <c r="H797" s="49"/>
       <c r="I797" s="43"/>
     </row>
-    <row r="798" spans="1:9" ht="15.75">
+    <row r="798" spans="1:9" ht="15">
       <c r="A798" s="46"/>
       <c r="B798" s="46"/>
       <c r="C798" s="42"/>
@@ -43046,7 +43296,7 @@
       <c r="H798" s="49"/>
       <c r="I798" s="43"/>
     </row>
-    <row r="799" spans="1:9" ht="15.75">
+    <row r="799" spans="1:9" ht="15">
       <c r="A799" s="46"/>
       <c r="B799" s="46"/>
       <c r="C799" s="42"/>
@@ -43057,7 +43307,7 @@
       <c r="H799" s="49"/>
       <c r="I799" s="43"/>
     </row>
-    <row r="800" spans="1:9" ht="15.75">
+    <row r="800" spans="1:9" ht="15">
       <c r="A800" s="46"/>
       <c r="B800" s="46"/>
       <c r="C800" s="42"/>
@@ -43068,7 +43318,7 @@
       <c r="H800" s="49"/>
       <c r="I800" s="43"/>
     </row>
-    <row r="801" spans="1:9" ht="15.75">
+    <row r="801" spans="1:9" ht="15">
       <c r="A801" s="46"/>
       <c r="B801" s="46"/>
       <c r="C801" s="42"/>
@@ -43079,7 +43329,7 @@
       <c r="H801" s="49"/>
       <c r="I801" s="43"/>
     </row>
-    <row r="802" spans="1:9" ht="15.75">
+    <row r="802" spans="1:9" ht="15">
       <c r="A802" s="46"/>
       <c r="B802" s="46"/>
       <c r="C802" s="42"/>
@@ -43090,7 +43340,7 @@
       <c r="H802" s="49"/>
       <c r="I802" s="43"/>
     </row>
-    <row r="803" spans="1:9" ht="15.75">
+    <row r="803" spans="1:9" ht="15">
       <c r="A803" s="46"/>
       <c r="B803" s="46"/>
       <c r="C803" s="42"/>
@@ -43101,7 +43351,7 @@
       <c r="H803" s="49"/>
       <c r="I803" s="43"/>
     </row>
-    <row r="804" spans="1:9" ht="15.75">
+    <row r="804" spans="1:9" ht="15">
       <c r="A804" s="46"/>
       <c r="B804" s="46"/>
       <c r="C804" s="42"/>
@@ -43112,7 +43362,7 @@
       <c r="H804" s="49"/>
       <c r="I804" s="43"/>
     </row>
-    <row r="805" spans="1:9" ht="15.75">
+    <row r="805" spans="1:9" ht="15">
       <c r="A805" s="46"/>
       <c r="B805" s="46"/>
       <c r="C805" s="42"/>
@@ -43123,7 +43373,7 @@
       <c r="H805" s="49"/>
       <c r="I805" s="43"/>
     </row>
-    <row r="806" spans="1:9" ht="15.75">
+    <row r="806" spans="1:9" ht="15">
       <c r="A806" s="46"/>
       <c r="B806" s="46"/>
       <c r="C806" s="42"/>
@@ -43134,7 +43384,7 @@
       <c r="H806" s="49"/>
       <c r="I806" s="43"/>
     </row>
-    <row r="807" spans="1:9" ht="15.75">
+    <row r="807" spans="1:9" ht="15">
       <c r="A807" s="46"/>
       <c r="B807" s="46"/>
       <c r="C807" s="42"/>
@@ -43145,7 +43395,7 @@
       <c r="H807" s="49"/>
       <c r="I807" s="43"/>
     </row>
-    <row r="808" spans="1:9" ht="15.75">
+    <row r="808" spans="1:9" ht="15">
       <c r="A808" s="46"/>
       <c r="B808" s="46"/>
       <c r="C808" s="42"/>
@@ -43156,7 +43406,7 @@
       <c r="H808" s="49"/>
       <c r="I808" s="43"/>
     </row>
-    <row r="809" spans="1:9" ht="15.75">
+    <row r="809" spans="1:9" ht="15">
       <c r="A809" s="46"/>
       <c r="B809" s="46"/>
       <c r="C809" s="42"/>
@@ -43167,7 +43417,7 @@
       <c r="H809" s="49"/>
       <c r="I809" s="43"/>
     </row>
-    <row r="810" spans="1:9" ht="15.75">
+    <row r="810" spans="1:9" ht="15">
       <c r="A810" s="46"/>
       <c r="B810" s="46"/>
       <c r="C810" s="42"/>
@@ -43178,7 +43428,7 @@
       <c r="H810" s="49"/>
       <c r="I810" s="43"/>
     </row>
-    <row r="811" spans="1:9" ht="15.75">
+    <row r="811" spans="1:9" ht="15">
       <c r="A811" s="46"/>
       <c r="B811" s="46"/>
       <c r="C811" s="42"/>
@@ -43189,7 +43439,7 @@
       <c r="H811" s="49"/>
       <c r="I811" s="43"/>
     </row>
-    <row r="812" spans="1:9" ht="15.75">
+    <row r="812" spans="1:9" ht="15">
       <c r="A812" s="46"/>
       <c r="B812" s="46"/>
       <c r="C812" s="42"/>
@@ -43200,7 +43450,7 @@
       <c r="H812" s="49"/>
       <c r="I812" s="43"/>
     </row>
-    <row r="813" spans="1:9" ht="15.75">
+    <row r="813" spans="1:9" ht="15">
       <c r="A813" s="46"/>
       <c r="B813" s="46"/>
       <c r="C813" s="42"/>
@@ -43211,7 +43461,7 @@
       <c r="H813" s="49"/>
       <c r="I813" s="43"/>
     </row>
-    <row r="814" spans="1:9" ht="15.75">
+    <row r="814" spans="1:9" ht="15">
       <c r="A814" s="46"/>
       <c r="B814" s="46"/>
       <c r="C814" s="42"/>
@@ -43222,7 +43472,7 @@
       <c r="H814" s="49"/>
       <c r="I814" s="43"/>
     </row>
-    <row r="815" spans="1:9" ht="15.75">
+    <row r="815" spans="1:9" ht="15">
       <c r="A815" s="46"/>
       <c r="B815" s="46"/>
       <c r="C815" s="42"/>
@@ -43233,7 +43483,7 @@
       <c r="H815" s="49"/>
       <c r="I815" s="43"/>
     </row>
-    <row r="816" spans="1:9" ht="15.75">
+    <row r="816" spans="1:9" ht="15">
       <c r="A816" s="46"/>
       <c r="B816" s="46"/>
       <c r="C816" s="42"/>
@@ -43244,7 +43494,7 @@
       <c r="H816" s="49"/>
       <c r="I816" s="43"/>
     </row>
-    <row r="817" spans="1:9" ht="15.75">
+    <row r="817" spans="1:9" ht="15">
       <c r="A817" s="46"/>
       <c r="B817" s="46"/>
       <c r="C817" s="42"/>
